--- a/VersionRecords/Version 5.2.10 20170209/版本Bug和特性计划及评审表v5.2.10_架构组.xlsx
+++ b/VersionRecords/Version 5.2.10 20170209/版本Bug和特性计划及评审表v5.2.10_架构组.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="35505" yWindow="2205" windowWidth="25605" windowHeight="14595" tabRatio="813" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21750" windowHeight="6180" tabRatio="813"/>
   </bookViews>
   <sheets>
     <sheet name="01 版本5.2.10新特性|Fix Bug" sheetId="1" r:id="rId1"/>
@@ -17,14 +17,15 @@
     <sheet name="05 数据修复" sheetId="2" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'01 版本5.2.10新特性|Fix Bug'!$A$1:$U$18</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'01 版本5.2.10新特性|Fix Bug'!$A$1:$U$17</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="1" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="3" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="4" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="6" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
-  <calcPr calcId="125725" concurrentCalc="0"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
+  <oleSize ref="A1:N13"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="113">
   <si>
     <t>No</t>
   </si>
@@ -366,12 +367,96 @@
     <t>可重复执行，如有错，需开发修复</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
+  <si>
+    <t>重要</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>bs,renter,renterpc,partner,partnerpc</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>冯银鹏</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>李萌</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>TOPT-726</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>不紧急</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>短信到达率报表</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>lts</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>冯银鹏</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>TOPT-725</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>不紧急</t>
+  </si>
+  <si>
+    <r>
+      <t>pay</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>api配置消息主题</t>
+    </r>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>BS</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>TOPT-727</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>脏词定点过滤+XSS过滤</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fix Bugs</t>
+  </si>
+  <si>
+    <t>沙洲麟</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://192.168.60.204/browse/FRAME-128</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="38">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="37">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -606,13 +691,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="微软雅黑"/>
       <family val="2"/>
@@ -840,7 +918,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="29">
+  <cellStyleXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -872,56 +950,59 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="126">
+  <cellXfs count="128">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1207,43 +1288,28 @@
     <xf numFmtId="0" fontId="32" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="9" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="29" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="30" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="29" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="35" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="34" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1273,6 +1339,27 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="10" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="10" xfId="29" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="12" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="10" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="29" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="10" xfId="29" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1301,7 +1388,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="29">
+  <cellStyles count="30">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="5"/>
     <cellStyle name="常规 2 2" xfId="11"/>
@@ -1321,8 +1408,8 @@
     <cellStyle name="超链接" xfId="23" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="25" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="29" builtinId="8"/>
     <cellStyle name="甘特图" xfId="2"/>
-    <cellStyle name="强调文字颜色 4" xfId="8" builtinId="41"/>
     <cellStyle name="已访问的超链接" xfId="14" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="16" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="18" builtinId="9" hidden="1"/>
@@ -1331,6 +1418,7 @@
     <cellStyle name="已访问的超链接" xfId="24" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="26" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="着色 4" xfId="8" builtinId="41"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -1699,11 +1787,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:V168"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:W168"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="T4" sqref="T4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1732,7 +1820,7 @@
     <col min="23" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="30" customFormat="1" ht="27">
+    <row r="1" spans="1:23" s="30" customFormat="1" ht="27">
       <c r="A1" s="35" t="s">
         <v>0</v>
       </c>
@@ -1797,7 +1885,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:22" s="31" customFormat="1" ht="16.5">
+    <row r="2" spans="1:23" s="31" customFormat="1" ht="24.75" customHeight="1">
       <c r="A2" s="80">
         <v>1</v>
       </c>
@@ -1807,7 +1895,7 @@
       <c r="C2" s="36" t="s">
         <v>75</v>
       </c>
-      <c r="D2" s="106" t="s">
+      <c r="D2" s="101" t="s">
         <v>76</v>
       </c>
       <c r="E2" s="38" t="s">
@@ -1819,13 +1907,13 @@
       <c r="G2" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="H2" s="107">
+      <c r="H2" s="102">
         <v>42774</v>
       </c>
       <c r="I2" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="J2" s="107">
+      <c r="J2" s="102">
         <v>42775</v>
       </c>
       <c r="K2" s="38" t="s">
@@ -1843,126 +1931,218 @@
       <c r="O2" s="47" t="s">
         <v>81</v>
       </c>
-      <c r="P2" s="107">
+      <c r="P2" s="102">
         <v>42774</v>
       </c>
       <c r="Q2" s="47" t="s">
         <v>82</v>
       </c>
       <c r="R2" s="93"/>
-      <c r="S2" s="93"/>
+      <c r="S2" s="93" t="s">
+        <v>112</v>
+      </c>
       <c r="T2" s="93" t="s">
         <v>71</v>
       </c>
       <c r="U2" s="52"/>
       <c r="V2" s="51"/>
     </row>
-    <row r="3" spans="1:22" ht="23.25" customHeight="1">
-      <c r="A3" s="80"/>
-      <c r="B3" s="36"/>
-      <c r="C3" s="36"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
-      <c r="H3" s="39"/>
-      <c r="I3" s="39"/>
-      <c r="J3" s="39"/>
-      <c r="K3" s="38"/>
-      <c r="L3" s="47"/>
-      <c r="M3" s="47"/>
-      <c r="N3" s="92"/>
-      <c r="O3" s="44"/>
-      <c r="P3" s="39"/>
-      <c r="Q3" s="47"/>
-      <c r="R3" s="44"/>
-      <c r="S3" s="44"/>
-      <c r="T3" s="44"/>
-      <c r="U3" s="45"/>
-    </row>
-    <row r="4" spans="1:22" ht="16.5">
-      <c r="A4" s="80"/>
-      <c r="B4" s="36"/>
-      <c r="C4" s="36"/>
-      <c r="D4" s="50"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="38"/>
-      <c r="H4" s="39"/>
-      <c r="I4" s="39"/>
-      <c r="J4" s="39"/>
-      <c r="K4" s="38"/>
-      <c r="L4" s="47"/>
-      <c r="M4" s="47"/>
-      <c r="N4" s="92"/>
-      <c r="O4" s="44"/>
-      <c r="P4" s="39"/>
-      <c r="Q4" s="47"/>
-      <c r="R4" s="44"/>
-      <c r="S4" s="44"/>
-      <c r="T4" s="44"/>
-      <c r="U4" s="45"/>
-    </row>
-    <row r="5" spans="1:22" ht="20.25" customHeight="1">
-      <c r="A5" s="80"/>
-      <c r="B5" s="36"/>
-      <c r="C5" s="36"/>
-      <c r="D5" s="50"/>
-      <c r="E5" s="38"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="38"/>
-      <c r="H5" s="39"/>
-      <c r="I5" s="39"/>
-      <c r="J5" s="39"/>
-      <c r="K5" s="38"/>
-      <c r="L5" s="47"/>
-      <c r="M5" s="47"/>
-      <c r="N5" s="92"/>
-      <c r="O5" s="44"/>
-      <c r="P5" s="39"/>
-      <c r="Q5" s="94"/>
-      <c r="R5" s="44"/>
-      <c r="S5" s="44"/>
-      <c r="T5" s="44"/>
-      <c r="U5" s="45"/>
-    </row>
-    <row r="6" spans="1:22" s="99" customFormat="1" ht="21.75" customHeight="1">
+    <row r="3" spans="1:23" ht="33.75" customHeight="1">
+      <c r="A3" s="80">
+        <v>2</v>
+      </c>
+      <c r="B3" s="80" t="s">
+        <v>94</v>
+      </c>
+      <c r="C3" s="80" t="s">
+        <v>75</v>
+      </c>
+      <c r="D3" s="112" t="s">
+        <v>109</v>
+      </c>
+      <c r="E3" s="81" t="s">
+        <v>68</v>
+      </c>
+      <c r="F3" s="81" t="s">
+        <v>95</v>
+      </c>
+      <c r="G3" s="81" t="s">
+        <v>69</v>
+      </c>
+      <c r="H3" s="84">
+        <v>42775</v>
+      </c>
+      <c r="I3" s="81" t="s">
+        <v>96</v>
+      </c>
+      <c r="J3" s="84">
+        <v>42775</v>
+      </c>
+      <c r="K3" s="81"/>
+      <c r="L3" s="86" t="s">
+        <v>97</v>
+      </c>
+      <c r="M3" s="81" t="s">
+        <v>78</v>
+      </c>
+      <c r="N3" s="81" t="s">
+        <v>98</v>
+      </c>
+      <c r="O3" s="81"/>
+      <c r="P3" s="86"/>
+      <c r="Q3" s="84"/>
+      <c r="R3" s="86"/>
+      <c r="S3" s="113" t="s">
+        <v>99</v>
+      </c>
+      <c r="T3" s="113"/>
+      <c r="U3" s="114"/>
+      <c r="V3" s="115"/>
+      <c r="W3" s="116"/>
+    </row>
+    <row r="4" spans="1:23" ht="16.5">
+      <c r="A4" s="80">
+        <v>3</v>
+      </c>
+      <c r="B4" s="80" t="s">
+        <v>67</v>
+      </c>
+      <c r="C4" s="80" t="s">
+        <v>100</v>
+      </c>
+      <c r="D4" s="112" t="s">
+        <v>101</v>
+      </c>
+      <c r="E4" s="81" t="s">
+        <v>68</v>
+      </c>
+      <c r="F4" s="81" t="s">
+        <v>102</v>
+      </c>
+      <c r="G4" s="81" t="s">
+        <v>69</v>
+      </c>
+      <c r="H4" s="84">
+        <v>42775</v>
+      </c>
+      <c r="I4" s="81" t="s">
+        <v>69</v>
+      </c>
+      <c r="J4" s="84">
+        <v>42775</v>
+      </c>
+      <c r="K4" s="81"/>
+      <c r="L4" s="86" t="s">
+        <v>103</v>
+      </c>
+      <c r="M4" s="81" t="s">
+        <v>78</v>
+      </c>
+      <c r="N4" s="81" t="s">
+        <v>98</v>
+      </c>
+      <c r="O4" s="81"/>
+      <c r="P4" s="86"/>
+      <c r="Q4" s="84"/>
+      <c r="R4" s="86"/>
+      <c r="S4" s="117" t="s">
+        <v>104</v>
+      </c>
+      <c r="T4" s="113"/>
+      <c r="U4" s="114"/>
+      <c r="V4" s="115"/>
+      <c r="W4" s="116"/>
+    </row>
+    <row r="5" spans="1:23" ht="16.5">
+      <c r="A5" s="80">
+        <v>4</v>
+      </c>
+      <c r="B5" s="80" t="s">
+        <v>67</v>
+      </c>
+      <c r="C5" s="80" t="s">
+        <v>105</v>
+      </c>
+      <c r="D5" s="116" t="s">
+        <v>106</v>
+      </c>
+      <c r="E5" s="81" t="s">
+        <v>110</v>
+      </c>
+      <c r="F5" s="81" t="s">
+        <v>107</v>
+      </c>
+      <c r="G5" s="81" t="s">
+        <v>69</v>
+      </c>
+      <c r="H5" s="84">
+        <v>42775</v>
+      </c>
+      <c r="I5" s="81" t="s">
+        <v>69</v>
+      </c>
+      <c r="J5" s="84">
+        <v>42775</v>
+      </c>
+      <c r="K5" s="81"/>
+      <c r="L5" s="86" t="s">
+        <v>111</v>
+      </c>
+      <c r="M5" s="81" t="s">
+        <v>78</v>
+      </c>
+      <c r="N5" s="81" t="s">
+        <v>98</v>
+      </c>
+      <c r="O5" s="81"/>
+      <c r="P5" s="86"/>
+      <c r="Q5" s="84"/>
+      <c r="R5" s="86"/>
+      <c r="S5" s="118" t="s">
+        <v>108</v>
+      </c>
+      <c r="T5" s="113"/>
+      <c r="U5" s="114"/>
+      <c r="V5" s="115"/>
+      <c r="W5" s="116"/>
+    </row>
+    <row r="6" spans="1:23" s="1" customFormat="1" ht="21.75" customHeight="1">
       <c r="A6" s="80"/>
       <c r="B6" s="36"/>
       <c r="C6" s="36"/>
       <c r="D6" s="50"/>
-      <c r="E6" s="36"/>
+      <c r="E6" s="38"/>
       <c r="F6" s="36"/>
-      <c r="G6" s="36"/>
+      <c r="G6" s="38"/>
       <c r="H6" s="39"/>
-      <c r="I6" s="95"/>
+      <c r="I6" s="39"/>
       <c r="J6" s="39"/>
-      <c r="K6" s="36"/>
-      <c r="L6" s="47"/>
+      <c r="K6" s="38"/>
+      <c r="L6" s="95"/>
       <c r="M6" s="47"/>
       <c r="N6" s="92"/>
       <c r="O6" s="44"/>
       <c r="P6" s="39"/>
       <c r="Q6" s="94"/>
-      <c r="R6" s="96"/>
-      <c r="S6" s="96"/>
-      <c r="T6" s="96"/>
-      <c r="U6" s="97"/>
-      <c r="V6" s="98"/>
-    </row>
-    <row r="7" spans="1:22" ht="21.75" customHeight="1">
+      <c r="R6" s="44"/>
+      <c r="S6" s="44"/>
+      <c r="T6" s="44"/>
+      <c r="U6" s="45"/>
+      <c r="V6"/>
+    </row>
+    <row r="7" spans="1:23" s="1" customFormat="1" ht="16.5">
       <c r="A7" s="80"/>
       <c r="B7" s="36"/>
       <c r="C7" s="36"/>
       <c r="D7" s="50"/>
       <c r="E7" s="38"/>
-      <c r="F7" s="36"/>
+      <c r="F7" s="38"/>
       <c r="G7" s="38"/>
       <c r="H7" s="39"/>
       <c r="I7" s="39"/>
       <c r="J7" s="39"/>
       <c r="K7" s="38"/>
-      <c r="L7" s="100"/>
+      <c r="L7" s="47"/>
       <c r="M7" s="47"/>
       <c r="N7" s="92"/>
       <c r="O7" s="44"/>
@@ -1972,79 +2152,81 @@
       <c r="S7" s="44"/>
       <c r="T7" s="44"/>
       <c r="U7" s="45"/>
-    </row>
-    <row r="8" spans="1:22" ht="16.5">
+      <c r="V7"/>
+    </row>
+    <row r="8" spans="1:23" s="31" customFormat="1" ht="18" customHeight="1">
       <c r="A8" s="80"/>
-      <c r="B8" s="36"/>
-      <c r="C8" s="36"/>
-      <c r="D8" s="50"/>
-      <c r="E8" s="38"/>
-      <c r="F8" s="38"/>
-      <c r="G8" s="38"/>
-      <c r="H8" s="39"/>
-      <c r="I8" s="39"/>
-      <c r="J8" s="39"/>
-      <c r="K8" s="38"/>
-      <c r="L8" s="47"/>
-      <c r="M8" s="47"/>
-      <c r="N8" s="92"/>
-      <c r="O8" s="44"/>
-      <c r="P8" s="39"/>
-      <c r="Q8" s="94"/>
+      <c r="B8" s="96"/>
+      <c r="C8" s="96"/>
+      <c r="D8" s="97"/>
+      <c r="E8" s="82"/>
+      <c r="F8" s="82"/>
+      <c r="G8" s="82"/>
+      <c r="H8" s="98"/>
+      <c r="I8" s="82"/>
+      <c r="J8" s="98"/>
+      <c r="K8" s="82"/>
+      <c r="L8" s="85"/>
+      <c r="M8" s="82"/>
+      <c r="N8" s="82"/>
+      <c r="O8" s="85"/>
+      <c r="P8" s="98"/>
+      <c r="Q8" s="85"/>
       <c r="R8" s="44"/>
       <c r="S8" s="44"/>
-      <c r="T8" s="44"/>
-      <c r="U8" s="45"/>
-    </row>
-    <row r="9" spans="1:22" s="31" customFormat="1" ht="18" customHeight="1">
+      <c r="T8" s="49"/>
+      <c r="U8" s="99"/>
+      <c r="V8" s="51"/>
+    </row>
+    <row r="9" spans="1:23" s="31" customFormat="1" ht="16.5">
       <c r="A9" s="80"/>
-      <c r="B9" s="101"/>
-      <c r="C9" s="101"/>
-      <c r="D9" s="102"/>
+      <c r="B9" s="96"/>
+      <c r="C9" s="96"/>
+      <c r="D9" s="97"/>
       <c r="E9" s="82"/>
       <c r="F9" s="82"/>
       <c r="G9" s="82"/>
-      <c r="H9" s="103"/>
+      <c r="H9" s="98"/>
       <c r="I9" s="82"/>
-      <c r="J9" s="103"/>
+      <c r="J9" s="98"/>
       <c r="K9" s="82"/>
       <c r="L9" s="85"/>
       <c r="M9" s="82"/>
       <c r="N9" s="82"/>
       <c r="O9" s="85"/>
-      <c r="P9" s="103"/>
+      <c r="P9" s="98"/>
       <c r="Q9" s="85"/>
       <c r="R9" s="44"/>
       <c r="S9" s="44"/>
       <c r="T9" s="49"/>
-      <c r="U9" s="104"/>
+      <c r="U9" s="100"/>
       <c r="V9" s="51"/>
     </row>
-    <row r="10" spans="1:22" s="31" customFormat="1" ht="16.5">
+    <row r="10" spans="1:23" s="1" customFormat="1" ht="16.5">
       <c r="A10" s="80"/>
-      <c r="B10" s="101"/>
-      <c r="C10" s="101"/>
-      <c r="D10" s="102"/>
-      <c r="E10" s="82"/>
+      <c r="B10" s="80"/>
+      <c r="C10" s="80"/>
+      <c r="D10" s="43"/>
+      <c r="E10" s="81"/>
       <c r="F10" s="82"/>
-      <c r="G10" s="82"/>
-      <c r="H10" s="103"/>
-      <c r="I10" s="82"/>
-      <c r="J10" s="103"/>
-      <c r="K10" s="82"/>
-      <c r="L10" s="85"/>
-      <c r="M10" s="82"/>
-      <c r="N10" s="82"/>
-      <c r="O10" s="85"/>
-      <c r="P10" s="103"/>
-      <c r="Q10" s="85"/>
+      <c r="G10" s="83"/>
+      <c r="H10" s="84"/>
+      <c r="I10" s="81"/>
+      <c r="J10" s="84"/>
+      <c r="K10" s="87"/>
+      <c r="L10" s="47"/>
+      <c r="M10" s="81"/>
+      <c r="N10" s="81"/>
+      <c r="O10" s="86"/>
+      <c r="P10" s="84"/>
+      <c r="Q10" s="86"/>
       <c r="R10" s="44"/>
       <c r="S10" s="44"/>
-      <c r="T10" s="49"/>
-      <c r="U10" s="105"/>
-      <c r="V10" s="51"/>
-    </row>
-    <row r="11" spans="1:22" ht="16.5">
+      <c r="T10" s="44"/>
+      <c r="U10" s="45"/>
+      <c r="V10"/>
+    </row>
+    <row r="11" spans="1:23" s="1" customFormat="1" ht="16.5">
       <c r="A11" s="80"/>
       <c r="B11" s="80"/>
       <c r="C11" s="80"/>
@@ -2066,8 +2248,9 @@
       <c r="S11" s="44"/>
       <c r="T11" s="44"/>
       <c r="U11" s="45"/>
-    </row>
-    <row r="12" spans="1:22" ht="16.5">
+      <c r="V11"/>
+    </row>
+    <row r="12" spans="1:23" s="1" customFormat="1" ht="16.5">
       <c r="A12" s="80"/>
       <c r="B12" s="80"/>
       <c r="C12" s="80"/>
@@ -2089,35 +2272,37 @@
       <c r="S12" s="44"/>
       <c r="T12" s="44"/>
       <c r="U12" s="45"/>
-    </row>
-    <row r="13" spans="1:22" ht="16.5">
-      <c r="A13" s="80"/>
-      <c r="B13" s="80"/>
-      <c r="C13" s="80"/>
-      <c r="D13" s="43"/>
-      <c r="E13" s="81"/>
-      <c r="F13" s="82"/>
-      <c r="G13" s="83"/>
-      <c r="H13" s="84"/>
-      <c r="I13" s="81"/>
-      <c r="J13" s="84"/>
-      <c r="K13" s="87"/>
-      <c r="L13" s="47"/>
-      <c r="M13" s="81"/>
-      <c r="N13" s="81"/>
-      <c r="O13" s="86"/>
-      <c r="P13" s="84"/>
-      <c r="Q13" s="86"/>
-      <c r="R13" s="44"/>
-      <c r="S13" s="44"/>
-      <c r="T13" s="44"/>
-      <c r="U13" s="45"/>
-    </row>
-    <row r="14" spans="1:22" s="31" customFormat="1" ht="16.5">
+      <c r="V12"/>
+    </row>
+    <row r="13" spans="1:23" s="31" customFormat="1" ht="16.5">
+      <c r="A13" s="73"/>
+      <c r="B13" s="73"/>
+      <c r="C13" s="73"/>
+      <c r="D13" s="79"/>
+      <c r="E13" s="75"/>
+      <c r="F13" s="75"/>
+      <c r="G13" s="75"/>
+      <c r="H13" s="76"/>
+      <c r="I13" s="75"/>
+      <c r="J13" s="76"/>
+      <c r="K13" s="75"/>
+      <c r="L13" s="77"/>
+      <c r="M13" s="75"/>
+      <c r="N13" s="75"/>
+      <c r="O13" s="77"/>
+      <c r="P13" s="76"/>
+      <c r="Q13" s="77"/>
+      <c r="R13" s="53"/>
+      <c r="S13" s="53"/>
+      <c r="T13" s="49"/>
+      <c r="U13" s="78"/>
+      <c r="V13" s="51"/>
+    </row>
+    <row r="14" spans="1:23" s="31" customFormat="1" ht="16.5">
       <c r="A14" s="73"/>
       <c r="B14" s="73"/>
       <c r="C14" s="73"/>
-      <c r="D14" s="79"/>
+      <c r="D14" s="74"/>
       <c r="E14" s="75"/>
       <c r="F14" s="75"/>
       <c r="G14" s="75"/>
@@ -2131,13 +2316,13 @@
       <c r="O14" s="77"/>
       <c r="P14" s="76"/>
       <c r="Q14" s="77"/>
-      <c r="R14" s="53"/>
-      <c r="S14" s="53"/>
+      <c r="R14" s="44"/>
+      <c r="S14" s="44"/>
       <c r="T14" s="49"/>
       <c r="U14" s="78"/>
       <c r="V14" s="51"/>
     </row>
-    <row r="15" spans="1:22" s="31" customFormat="1" ht="16.5">
+    <row r="15" spans="1:23" s="31" customFormat="1" ht="16.5">
       <c r="A15" s="73"/>
       <c r="B15" s="73"/>
       <c r="C15" s="73"/>
@@ -2161,7 +2346,7 @@
       <c r="U15" s="78"/>
       <c r="V15" s="51"/>
     </row>
-    <row r="16" spans="1:22" s="31" customFormat="1" ht="16.5">
+    <row r="16" spans="1:23" s="31" customFormat="1" ht="16.5">
       <c r="A16" s="73"/>
       <c r="B16" s="73"/>
       <c r="C16" s="73"/>
@@ -2185,7 +2370,7 @@
       <c r="U16" s="78"/>
       <c r="V16" s="51"/>
     </row>
-    <row r="17" spans="1:22" s="31" customFormat="1" ht="16.5">
+    <row r="17" spans="1:23" s="31" customFormat="1" ht="16.5">
       <c r="A17" s="73"/>
       <c r="B17" s="73"/>
       <c r="C17" s="73"/>
@@ -2209,7 +2394,7 @@
       <c r="U17" s="78"/>
       <c r="V17" s="51"/>
     </row>
-    <row r="18" spans="1:22" s="31" customFormat="1" ht="16.5">
+    <row r="18" spans="1:23" s="31" customFormat="1" ht="16.5">
       <c r="A18" s="73"/>
       <c r="B18" s="73"/>
       <c r="C18" s="73"/>
@@ -2229,35 +2414,35 @@
       <c r="Q18" s="77"/>
       <c r="R18" s="44"/>
       <c r="S18" s="44"/>
-      <c r="T18" s="49"/>
+      <c r="T18" s="44"/>
       <c r="U18" s="78"/>
       <c r="V18" s="51"/>
     </row>
-    <row r="19" spans="1:22" s="31" customFormat="1" ht="16.5">
-      <c r="A19" s="73"/>
-      <c r="B19" s="73"/>
-      <c r="C19" s="73"/>
-      <c r="D19" s="74"/>
-      <c r="E19" s="75"/>
-      <c r="F19" s="75"/>
-      <c r="G19" s="75"/>
-      <c r="H19" s="76"/>
-      <c r="I19" s="75"/>
-      <c r="J19" s="76"/>
-      <c r="K19" s="75"/>
-      <c r="L19" s="77"/>
-      <c r="M19" s="75"/>
-      <c r="N19" s="75"/>
-      <c r="O19" s="77"/>
-      <c r="P19" s="76"/>
-      <c r="Q19" s="77"/>
+    <row r="19" spans="1:23" s="1" customFormat="1" ht="16.5">
+      <c r="A19" s="36"/>
+      <c r="B19" s="36"/>
+      <c r="C19" s="36"/>
+      <c r="D19" s="41"/>
+      <c r="E19" s="38"/>
+      <c r="F19" s="42"/>
+      <c r="G19" s="38"/>
+      <c r="H19" s="39"/>
+      <c r="I19" s="38"/>
+      <c r="J19" s="39"/>
+      <c r="K19" s="38"/>
+      <c r="L19" s="47"/>
+      <c r="M19" s="38"/>
+      <c r="N19" s="47"/>
+      <c r="O19" s="47"/>
+      <c r="P19" s="39"/>
+      <c r="Q19" s="47"/>
       <c r="R19" s="44"/>
       <c r="S19" s="44"/>
       <c r="T19" s="44"/>
-      <c r="U19" s="78"/>
-      <c r="V19" s="51"/>
-    </row>
-    <row r="20" spans="1:22" ht="16.5">
+      <c r="U19" s="52"/>
+      <c r="V19"/>
+    </row>
+    <row r="20" spans="1:23" s="1" customFormat="1" ht="16.5">
       <c r="A20" s="36"/>
       <c r="B20" s="36"/>
       <c r="C20" s="36"/>
@@ -2279,8 +2464,9 @@
       <c r="S20" s="44"/>
       <c r="T20" s="44"/>
       <c r="U20" s="52"/>
-    </row>
-    <row r="21" spans="1:22" ht="16.5">
+      <c r="V20"/>
+    </row>
+    <row r="21" spans="1:23" s="1" customFormat="1" ht="16.5">
       <c r="A21" s="36"/>
       <c r="B21" s="36"/>
       <c r="C21" s="36"/>
@@ -2298,12 +2484,13 @@
       <c r="O21" s="47"/>
       <c r="P21" s="39"/>
       <c r="Q21" s="47"/>
-      <c r="R21" s="44"/>
-      <c r="S21" s="44"/>
-      <c r="T21" s="44"/>
-      <c r="U21" s="52"/>
-    </row>
-    <row r="22" spans="1:22" ht="16.5">
+      <c r="R21" s="54"/>
+      <c r="S21" s="54"/>
+      <c r="T21" s="54"/>
+      <c r="U21" s="55"/>
+      <c r="V21"/>
+    </row>
+    <row r="22" spans="1:23" s="1" customFormat="1" ht="16.5">
       <c r="A22" s="36"/>
       <c r="B22" s="36"/>
       <c r="C22" s="36"/>
@@ -2321,12 +2508,13 @@
       <c r="O22" s="47"/>
       <c r="P22" s="39"/>
       <c r="Q22" s="47"/>
-      <c r="R22" s="54"/>
-      <c r="S22" s="54"/>
-      <c r="T22" s="54"/>
+      <c r="R22" s="56"/>
+      <c r="S22" s="56"/>
+      <c r="T22" s="56"/>
       <c r="U22" s="55"/>
-    </row>
-    <row r="23" spans="1:22" ht="16.5">
+      <c r="V22"/>
+    </row>
+    <row r="23" spans="1:23" s="1" customFormat="1" ht="16.5">
       <c r="A23" s="36"/>
       <c r="B23" s="36"/>
       <c r="C23" s="36"/>
@@ -2338,7 +2526,7 @@
       <c r="I23" s="38"/>
       <c r="J23" s="39"/>
       <c r="K23" s="38"/>
-      <c r="L23" s="47"/>
+      <c r="L23" s="38"/>
       <c r="M23" s="38"/>
       <c r="N23" s="47"/>
       <c r="O23" s="47"/>
@@ -2346,10 +2534,11 @@
       <c r="Q23" s="47"/>
       <c r="R23" s="56"/>
       <c r="S23" s="56"/>
-      <c r="T23" s="56"/>
+      <c r="T23" s="57"/>
       <c r="U23" s="55"/>
-    </row>
-    <row r="24" spans="1:22" ht="16.5">
+      <c r="V23"/>
+    </row>
+    <row r="24" spans="1:23" s="1" customFormat="1" ht="16.5">
       <c r="A24" s="36"/>
       <c r="B24" s="36"/>
       <c r="C24" s="36"/>
@@ -2369,10 +2558,11 @@
       <c r="Q24" s="47"/>
       <c r="R24" s="56"/>
       <c r="S24" s="56"/>
-      <c r="T24" s="57"/>
+      <c r="T24" s="56"/>
       <c r="U24" s="55"/>
-    </row>
-    <row r="25" spans="1:22" ht="16.5">
+      <c r="V24"/>
+    </row>
+    <row r="25" spans="1:23" s="1" customFormat="1" ht="16.5">
       <c r="A25" s="36"/>
       <c r="B25" s="36"/>
       <c r="C25" s="36"/>
@@ -2384,7 +2574,7 @@
       <c r="I25" s="38"/>
       <c r="J25" s="39"/>
       <c r="K25" s="38"/>
-      <c r="L25" s="38"/>
+      <c r="L25" s="47"/>
       <c r="M25" s="38"/>
       <c r="N25" s="47"/>
       <c r="O25" s="47"/>
@@ -2394,8 +2584,9 @@
       <c r="S25" s="56"/>
       <c r="T25" s="56"/>
       <c r="U25" s="55"/>
-    </row>
-    <row r="26" spans="1:22" ht="16.5">
+      <c r="V25"/>
+    </row>
+    <row r="26" spans="1:23" s="1" customFormat="1" ht="16.5">
       <c r="A26" s="36"/>
       <c r="B26" s="36"/>
       <c r="C26" s="36"/>
@@ -2413,12 +2604,13 @@
       <c r="O26" s="47"/>
       <c r="P26" s="39"/>
       <c r="Q26" s="47"/>
-      <c r="R26" s="56"/>
-      <c r="S26" s="56"/>
-      <c r="T26" s="56"/>
-      <c r="U26" s="55"/>
-    </row>
-    <row r="27" spans="1:22" ht="16.5">
+      <c r="R26" s="53"/>
+      <c r="S26" s="53"/>
+      <c r="T26" s="53"/>
+      <c r="U26" s="47"/>
+      <c r="V26"/>
+    </row>
+    <row r="27" spans="1:23" s="1" customFormat="1" ht="16.5">
       <c r="A27" s="36"/>
       <c r="B27" s="36"/>
       <c r="C27" s="36"/>
@@ -2436,12 +2628,13 @@
       <c r="O27" s="47"/>
       <c r="P27" s="39"/>
       <c r="Q27" s="47"/>
-      <c r="R27" s="53"/>
-      <c r="S27" s="53"/>
-      <c r="T27" s="53"/>
-      <c r="U27" s="47"/>
-    </row>
-    <row r="28" spans="1:22" ht="16.5">
+      <c r="R27" s="44"/>
+      <c r="S27" s="44"/>
+      <c r="T27" s="44"/>
+      <c r="U27" s="52"/>
+      <c r="V27"/>
+    </row>
+    <row r="28" spans="1:23" s="1" customFormat="1" ht="16.5">
       <c r="A28" s="36"/>
       <c r="B28" s="36"/>
       <c r="C28" s="36"/>
@@ -2463,8 +2656,9 @@
       <c r="S28" s="44"/>
       <c r="T28" s="44"/>
       <c r="U28" s="52"/>
-    </row>
-    <row r="29" spans="1:22" ht="16.5">
+      <c r="V28"/>
+    </row>
+    <row r="29" spans="1:23" s="1" customFormat="1" ht="16.5">
       <c r="A29" s="36"/>
       <c r="B29" s="36"/>
       <c r="C29" s="36"/>
@@ -2486,8 +2680,9 @@
       <c r="S29" s="44"/>
       <c r="T29" s="44"/>
       <c r="U29" s="52"/>
-    </row>
-    <row r="30" spans="1:22" ht="16.5">
+      <c r="V29"/>
+    </row>
+    <row r="30" spans="1:23" s="1" customFormat="1" ht="16.5">
       <c r="A30" s="36"/>
       <c r="B30" s="36"/>
       <c r="C30" s="36"/>
@@ -2498,42 +2693,44 @@
       <c r="H30" s="39"/>
       <c r="I30" s="38"/>
       <c r="J30" s="39"/>
-      <c r="K30" s="38"/>
+      <c r="K30" s="42"/>
       <c r="L30" s="47"/>
       <c r="M30" s="38"/>
       <c r="N30" s="47"/>
       <c r="O30" s="47"/>
       <c r="P30" s="39"/>
       <c r="Q30" s="47"/>
-      <c r="R30" s="44"/>
-      <c r="S30" s="44"/>
-      <c r="T30" s="44"/>
-      <c r="U30" s="52"/>
-    </row>
-    <row r="31" spans="1:22" ht="16.5">
+      <c r="R30" s="56"/>
+      <c r="S30" s="56"/>
+      <c r="T30" s="56"/>
+      <c r="U30" s="55"/>
+      <c r="V30"/>
+    </row>
+    <row r="31" spans="1:23" s="1" customFormat="1" ht="16.5">
       <c r="A31" s="36"/>
       <c r="B31" s="36"/>
       <c r="C31" s="36"/>
-      <c r="D31" s="41"/>
+      <c r="D31" s="37"/>
       <c r="E31" s="38"/>
-      <c r="F31" s="42"/>
+      <c r="F31" s="38"/>
       <c r="G31" s="38"/>
       <c r="H31" s="39"/>
       <c r="I31" s="38"/>
       <c r="J31" s="39"/>
-      <c r="K31" s="42"/>
+      <c r="K31" s="38"/>
       <c r="L31" s="47"/>
       <c r="M31" s="38"/>
-      <c r="N31" s="47"/>
+      <c r="N31" s="38"/>
       <c r="O31" s="47"/>
       <c r="P31" s="39"/>
       <c r="Q31" s="47"/>
-      <c r="R31" s="56"/>
-      <c r="S31" s="56"/>
-      <c r="T31" s="56"/>
-      <c r="U31" s="55"/>
-    </row>
-    <row r="32" spans="1:22" ht="16.5">
+      <c r="R31" s="44"/>
+      <c r="S31" s="44"/>
+      <c r="T31" s="44"/>
+      <c r="U31" s="50"/>
+      <c r="V31"/>
+    </row>
+    <row r="32" spans="1:23" s="1" customFormat="1" ht="16.5">
       <c r="A32" s="36"/>
       <c r="B32" s="36"/>
       <c r="C32" s="36"/>
@@ -2554,9 +2751,10 @@
       <c r="R32" s="44"/>
       <c r="S32" s="44"/>
       <c r="T32" s="44"/>
-      <c r="U32" s="50"/>
-    </row>
-    <row r="33" spans="1:21" ht="16.5">
+      <c r="U32" s="52"/>
+      <c r="V32"/>
+    </row>
+    <row r="33" spans="1:23" s="1" customFormat="1" ht="16.5">
       <c r="A33" s="36"/>
       <c r="B33" s="36"/>
       <c r="C33" s="36"/>
@@ -2578,8 +2776,9 @@
       <c r="S33" s="44"/>
       <c r="T33" s="44"/>
       <c r="U33" s="52"/>
-    </row>
-    <row r="34" spans="1:21" ht="16.5">
+      <c r="V33"/>
+    </row>
+    <row r="34" spans="1:23" s="1" customFormat="1" ht="16.5">
       <c r="A34" s="36"/>
       <c r="B34" s="36"/>
       <c r="C34" s="36"/>
@@ -2601,8 +2800,9 @@
       <c r="S34" s="44"/>
       <c r="T34" s="44"/>
       <c r="U34" s="52"/>
-    </row>
-    <row r="35" spans="1:21" ht="16.5">
+      <c r="V34"/>
+    </row>
+    <row r="35" spans="1:23" s="1" customFormat="1" ht="16.5">
       <c r="A35" s="36"/>
       <c r="B35" s="36"/>
       <c r="C35" s="36"/>
@@ -2624,8 +2824,9 @@
       <c r="S35" s="44"/>
       <c r="T35" s="44"/>
       <c r="U35" s="52"/>
-    </row>
-    <row r="36" spans="1:21" ht="16.5">
+      <c r="V35"/>
+    </row>
+    <row r="36" spans="1:23" s="1" customFormat="1" ht="16.5">
       <c r="A36" s="36"/>
       <c r="B36" s="36"/>
       <c r="C36" s="36"/>
@@ -2647,8 +2848,9 @@
       <c r="S36" s="44"/>
       <c r="T36" s="44"/>
       <c r="U36" s="52"/>
-    </row>
-    <row r="37" spans="1:21" ht="16.5">
+      <c r="V36"/>
+    </row>
+    <row r="37" spans="1:23" s="1" customFormat="1" ht="16.5">
       <c r="A37" s="36"/>
       <c r="B37" s="36"/>
       <c r="C37" s="36"/>
@@ -2670,8 +2872,9 @@
       <c r="S37" s="44"/>
       <c r="T37" s="44"/>
       <c r="U37" s="52"/>
-    </row>
-    <row r="38" spans="1:21" ht="16.5">
+      <c r="V37"/>
+    </row>
+    <row r="38" spans="1:23" s="1" customFormat="1" ht="16.5">
       <c r="A38" s="36"/>
       <c r="B38" s="36"/>
       <c r="C38" s="36"/>
@@ -2693,8 +2896,9 @@
       <c r="S38" s="44"/>
       <c r="T38" s="44"/>
       <c r="U38" s="52"/>
-    </row>
-    <row r="39" spans="1:21" ht="16.5">
+      <c r="V38"/>
+    </row>
+    <row r="39" spans="1:23" s="1" customFormat="1" ht="16.5">
       <c r="A39" s="36"/>
       <c r="B39" s="36"/>
       <c r="C39" s="36"/>
@@ -2716,8 +2920,9 @@
       <c r="S39" s="44"/>
       <c r="T39" s="44"/>
       <c r="U39" s="52"/>
-    </row>
-    <row r="40" spans="1:21" ht="16.5">
+      <c r="V39"/>
+    </row>
+    <row r="40" spans="1:23" s="1" customFormat="1" ht="16.5">
       <c r="A40" s="36"/>
       <c r="B40" s="36"/>
       <c r="C40" s="36"/>
@@ -2739,8 +2944,9 @@
       <c r="S40" s="44"/>
       <c r="T40" s="44"/>
       <c r="U40" s="52"/>
-    </row>
-    <row r="41" spans="1:21" ht="16.5">
+      <c r="V40"/>
+    </row>
+    <row r="41" spans="1:23" s="1" customFormat="1" ht="16.5">
       <c r="A41" s="36"/>
       <c r="B41" s="36"/>
       <c r="C41" s="36"/>
@@ -2762,31 +2968,33 @@
       <c r="S41" s="44"/>
       <c r="T41" s="44"/>
       <c r="U41" s="52"/>
-    </row>
-    <row r="42" spans="1:21" ht="16.5">
+      <c r="V41"/>
+    </row>
+    <row r="42" spans="1:23" s="1" customFormat="1" ht="16.5">
       <c r="A42" s="36"/>
       <c r="B42" s="36"/>
       <c r="C42" s="36"/>
-      <c r="D42" s="37"/>
+      <c r="D42" s="40"/>
       <c r="E42" s="38"/>
       <c r="F42" s="38"/>
       <c r="G42" s="38"/>
       <c r="H42" s="39"/>
-      <c r="I42" s="38"/>
+      <c r="I42" s="39"/>
       <c r="J42" s="39"/>
       <c r="K42" s="38"/>
       <c r="L42" s="47"/>
-      <c r="M42" s="38"/>
+      <c r="M42" s="47"/>
       <c r="N42" s="38"/>
       <c r="O42" s="47"/>
       <c r="P42" s="39"/>
       <c r="Q42" s="47"/>
-      <c r="R42" s="44"/>
-      <c r="S42" s="44"/>
-      <c r="T42" s="44"/>
+      <c r="R42" s="53"/>
+      <c r="S42" s="53"/>
+      <c r="T42" s="53"/>
       <c r="U42" s="52"/>
-    </row>
-    <row r="43" spans="1:21" ht="16.5">
+      <c r="V42"/>
+    </row>
+    <row r="43" spans="1:23" s="1" customFormat="1" ht="16.5">
       <c r="A43" s="36"/>
       <c r="B43" s="36"/>
       <c r="C43" s="36"/>
@@ -2808,31 +3016,33 @@
       <c r="S43" s="53"/>
       <c r="T43" s="53"/>
       <c r="U43" s="52"/>
-    </row>
-    <row r="44" spans="1:21" ht="16.5">
+      <c r="V43"/>
+    </row>
+    <row r="44" spans="1:23" s="1" customFormat="1" ht="16.5">
       <c r="A44" s="36"/>
       <c r="B44" s="36"/>
       <c r="C44" s="36"/>
-      <c r="D44" s="40"/>
+      <c r="D44" s="43"/>
       <c r="E44" s="38"/>
       <c r="F44" s="38"/>
       <c r="G44" s="38"/>
       <c r="H44" s="39"/>
       <c r="I44" s="39"/>
       <c r="J44" s="39"/>
-      <c r="K44" s="38"/>
+      <c r="K44" s="48"/>
       <c r="L44" s="47"/>
       <c r="M44" s="47"/>
       <c r="N44" s="38"/>
       <c r="O44" s="47"/>
       <c r="P44" s="39"/>
       <c r="Q44" s="47"/>
-      <c r="R44" s="53"/>
-      <c r="S44" s="53"/>
-      <c r="T44" s="53"/>
-      <c r="U44" s="52"/>
-    </row>
-    <row r="45" spans="1:21" ht="16.5">
+      <c r="R44" s="44"/>
+      <c r="S44" s="44"/>
+      <c r="T44" s="44"/>
+      <c r="U44" s="45"/>
+      <c r="V44"/>
+    </row>
+    <row r="45" spans="1:23" s="1" customFormat="1" ht="16.5">
       <c r="A45" s="36"/>
       <c r="B45" s="36"/>
       <c r="C45" s="36"/>
@@ -2854,8 +3064,9 @@
       <c r="S45" s="44"/>
       <c r="T45" s="44"/>
       <c r="U45" s="45"/>
-    </row>
-    <row r="46" spans="1:21" ht="16.5">
+      <c r="V45"/>
+    </row>
+    <row r="46" spans="1:23" s="1" customFormat="1" ht="16.5">
       <c r="A46" s="36"/>
       <c r="B46" s="36"/>
       <c r="C46" s="36"/>
@@ -2877,8 +3088,9 @@
       <c r="S46" s="44"/>
       <c r="T46" s="44"/>
       <c r="U46" s="45"/>
-    </row>
-    <row r="47" spans="1:21" ht="16.5">
+      <c r="V46"/>
+    </row>
+    <row r="47" spans="1:23" s="1" customFormat="1" ht="16.5">
       <c r="A47" s="36"/>
       <c r="B47" s="36"/>
       <c r="C47" s="36"/>
@@ -2900,8 +3112,9 @@
       <c r="S47" s="44"/>
       <c r="T47" s="44"/>
       <c r="U47" s="45"/>
-    </row>
-    <row r="48" spans="1:21" ht="16.5">
+      <c r="V47"/>
+    </row>
+    <row r="48" spans="1:23" s="1" customFormat="1" ht="16.5">
       <c r="A48" s="36"/>
       <c r="B48" s="36"/>
       <c r="C48" s="36"/>
@@ -2923,8 +3136,9 @@
       <c r="S48" s="44"/>
       <c r="T48" s="44"/>
       <c r="U48" s="45"/>
-    </row>
-    <row r="49" spans="1:21" ht="16.5">
+      <c r="V48"/>
+    </row>
+    <row r="49" spans="1:23" s="1" customFormat="1" ht="16.5">
       <c r="A49" s="36"/>
       <c r="B49" s="36"/>
       <c r="C49" s="36"/>
@@ -2946,8 +3160,9 @@
       <c r="S49" s="44"/>
       <c r="T49" s="44"/>
       <c r="U49" s="45"/>
-    </row>
-    <row r="50" spans="1:21" ht="16.5">
+      <c r="V49"/>
+    </row>
+    <row r="50" spans="1:23" s="1" customFormat="1" ht="16.5">
       <c r="A50" s="36"/>
       <c r="B50" s="36"/>
       <c r="C50" s="36"/>
@@ -2969,31 +3184,33 @@
       <c r="S50" s="44"/>
       <c r="T50" s="44"/>
       <c r="U50" s="45"/>
-    </row>
-    <row r="51" spans="1:21" ht="16.5">
-      <c r="A51" s="36"/>
-      <c r="B51" s="36"/>
-      <c r="C51" s="36"/>
-      <c r="D51" s="43"/>
-      <c r="E51" s="38"/>
+      <c r="V50"/>
+    </row>
+    <row r="51" spans="1:23" s="1" customFormat="1" ht="16.5">
+      <c r="A51" s="44"/>
+      <c r="B51" s="44"/>
+      <c r="C51" s="44"/>
+      <c r="D51" s="45"/>
+      <c r="E51" s="44"/>
       <c r="F51" s="38"/>
       <c r="G51" s="38"/>
-      <c r="H51" s="39"/>
-      <c r="I51" s="39"/>
-      <c r="J51" s="39"/>
+      <c r="H51" s="46"/>
+      <c r="I51" s="44"/>
+      <c r="J51" s="46"/>
       <c r="K51" s="48"/>
-      <c r="L51" s="47"/>
-      <c r="M51" s="47"/>
-      <c r="N51" s="38"/>
-      <c r="O51" s="47"/>
-      <c r="P51" s="39"/>
-      <c r="Q51" s="47"/>
+      <c r="L51" s="44"/>
+      <c r="M51" s="44"/>
+      <c r="N51" s="44"/>
+      <c r="O51" s="44"/>
+      <c r="P51" s="46"/>
+      <c r="Q51" s="45"/>
       <c r="R51" s="44"/>
       <c r="S51" s="44"/>
       <c r="T51" s="44"/>
       <c r="U51" s="45"/>
-    </row>
-    <row r="52" spans="1:21" ht="16.5">
+      <c r="V51"/>
+    </row>
+    <row r="52" spans="1:23" s="1" customFormat="1" ht="16.5">
       <c r="A52" s="44"/>
       <c r="B52" s="44"/>
       <c r="C52" s="44"/>
@@ -3015,8 +3232,9 @@
       <c r="S52" s="44"/>
       <c r="T52" s="44"/>
       <c r="U52" s="45"/>
-    </row>
-    <row r="53" spans="1:21" ht="16.5">
+      <c r="V52"/>
+    </row>
+    <row r="53" spans="1:23" s="1" customFormat="1" ht="16.5">
       <c r="A53" s="44"/>
       <c r="B53" s="44"/>
       <c r="C53" s="44"/>
@@ -3038,8 +3256,9 @@
       <c r="S53" s="44"/>
       <c r="T53" s="44"/>
       <c r="U53" s="45"/>
-    </row>
-    <row r="54" spans="1:21" ht="16.5">
+      <c r="V53"/>
+    </row>
+    <row r="54" spans="1:23" s="1" customFormat="1" ht="16.5">
       <c r="A54" s="44"/>
       <c r="B54" s="44"/>
       <c r="C54" s="44"/>
@@ -3061,8 +3280,9 @@
       <c r="S54" s="44"/>
       <c r="T54" s="44"/>
       <c r="U54" s="45"/>
-    </row>
-    <row r="55" spans="1:21" ht="16.5">
+      <c r="V54"/>
+    </row>
+    <row r="55" spans="1:23" s="1" customFormat="1" ht="16.5">
       <c r="A55" s="44"/>
       <c r="B55" s="44"/>
       <c r="C55" s="44"/>
@@ -3084,8 +3304,9 @@
       <c r="S55" s="44"/>
       <c r="T55" s="44"/>
       <c r="U55" s="45"/>
-    </row>
-    <row r="56" spans="1:21" ht="16.5">
+      <c r="V55"/>
+    </row>
+    <row r="56" spans="1:23" s="1" customFormat="1" ht="16.5">
       <c r="A56" s="44"/>
       <c r="B56" s="44"/>
       <c r="C56" s="44"/>
@@ -3107,8 +3328,9 @@
       <c r="S56" s="44"/>
       <c r="T56" s="44"/>
       <c r="U56" s="45"/>
-    </row>
-    <row r="57" spans="1:21" ht="16.5">
+      <c r="V56"/>
+    </row>
+    <row r="57" spans="1:23" s="1" customFormat="1" ht="16.5">
       <c r="A57" s="44"/>
       <c r="B57" s="44"/>
       <c r="C57" s="44"/>
@@ -3130,8 +3352,9 @@
       <c r="S57" s="44"/>
       <c r="T57" s="44"/>
       <c r="U57" s="45"/>
-    </row>
-    <row r="58" spans="1:21" ht="16.5">
+      <c r="V57"/>
+    </row>
+    <row r="58" spans="1:23" s="1" customFormat="1" ht="16.5">
       <c r="A58" s="44"/>
       <c r="B58" s="44"/>
       <c r="C58" s="44"/>
@@ -3153,8 +3376,9 @@
       <c r="S58" s="44"/>
       <c r="T58" s="44"/>
       <c r="U58" s="45"/>
-    </row>
-    <row r="59" spans="1:21" ht="16.5">
+      <c r="V58"/>
+    </row>
+    <row r="59" spans="1:23" s="1" customFormat="1" ht="16.5">
       <c r="A59" s="44"/>
       <c r="B59" s="44"/>
       <c r="C59" s="44"/>
@@ -3176,8 +3400,9 @@
       <c r="S59" s="44"/>
       <c r="T59" s="44"/>
       <c r="U59" s="45"/>
-    </row>
-    <row r="60" spans="1:21" ht="16.5">
+      <c r="V59"/>
+    </row>
+    <row r="60" spans="1:23" s="1" customFormat="1" ht="16.5">
       <c r="A60" s="44"/>
       <c r="B60" s="44"/>
       <c r="C60" s="44"/>
@@ -3199,8 +3424,9 @@
       <c r="S60" s="44"/>
       <c r="T60" s="44"/>
       <c r="U60" s="45"/>
-    </row>
-    <row r="61" spans="1:21" ht="16.5">
+      <c r="V60"/>
+    </row>
+    <row r="61" spans="1:23" s="1" customFormat="1" ht="16.5">
       <c r="A61" s="44"/>
       <c r="B61" s="44"/>
       <c r="C61" s="44"/>
@@ -3222,8 +3448,9 @@
       <c r="S61" s="44"/>
       <c r="T61" s="44"/>
       <c r="U61" s="45"/>
-    </row>
-    <row r="62" spans="1:21" ht="16.5">
+      <c r="V61"/>
+    </row>
+    <row r="62" spans="1:23" s="1" customFormat="1" ht="16.5">
       <c r="A62" s="44"/>
       <c r="B62" s="44"/>
       <c r="C62" s="44"/>
@@ -3245,8 +3472,9 @@
       <c r="S62" s="44"/>
       <c r="T62" s="44"/>
       <c r="U62" s="45"/>
-    </row>
-    <row r="63" spans="1:21" ht="16.5">
+      <c r="V62"/>
+    </row>
+    <row r="63" spans="1:23" s="1" customFormat="1" ht="16.5">
       <c r="A63" s="44"/>
       <c r="B63" s="44"/>
       <c r="C63" s="44"/>
@@ -3268,8 +3496,9 @@
       <c r="S63" s="44"/>
       <c r="T63" s="44"/>
       <c r="U63" s="45"/>
-    </row>
-    <row r="64" spans="1:21" ht="16.5">
+      <c r="V63"/>
+    </row>
+    <row r="64" spans="1:23" s="1" customFormat="1" ht="16.5">
       <c r="A64" s="44"/>
       <c r="B64" s="44"/>
       <c r="C64" s="44"/>
@@ -3291,8 +3520,9 @@
       <c r="S64" s="44"/>
       <c r="T64" s="44"/>
       <c r="U64" s="45"/>
-    </row>
-    <row r="65" spans="1:21" ht="16.5">
+      <c r="V64"/>
+    </row>
+    <row r="65" spans="1:23" s="1" customFormat="1" ht="16.5">
       <c r="A65" s="44"/>
       <c r="B65" s="44"/>
       <c r="C65" s="44"/>
@@ -3314,8 +3544,9 @@
       <c r="S65" s="44"/>
       <c r="T65" s="44"/>
       <c r="U65" s="45"/>
-    </row>
-    <row r="66" spans="1:21" ht="16.5">
+      <c r="V65"/>
+    </row>
+    <row r="66" spans="1:23" s="1" customFormat="1" ht="16.5">
       <c r="A66" s="44"/>
       <c r="B66" s="44"/>
       <c r="C66" s="44"/>
@@ -3337,15 +3568,16 @@
       <c r="S66" s="44"/>
       <c r="T66" s="44"/>
       <c r="U66" s="45"/>
-    </row>
-    <row r="67" spans="1:21" ht="16.5">
+      <c r="V66"/>
+    </row>
+    <row r="67" spans="1:23" s="1" customFormat="1" ht="16.5">
       <c r="A67" s="44"/>
       <c r="B67" s="44"/>
       <c r="C67" s="44"/>
       <c r="D67" s="45"/>
       <c r="E67" s="44"/>
       <c r="F67" s="38"/>
-      <c r="G67" s="38"/>
+      <c r="G67" s="44"/>
       <c r="H67" s="46"/>
       <c r="I67" s="44"/>
       <c r="J67" s="46"/>
@@ -3360,8 +3592,9 @@
       <c r="S67" s="44"/>
       <c r="T67" s="44"/>
       <c r="U67" s="45"/>
-    </row>
-    <row r="68" spans="1:21" ht="16.5">
+      <c r="V67"/>
+    </row>
+    <row r="68" spans="1:23" s="1" customFormat="1" ht="16.5">
       <c r="A68" s="44"/>
       <c r="B68" s="44"/>
       <c r="C68" s="44"/>
@@ -3383,8 +3616,9 @@
       <c r="S68" s="44"/>
       <c r="T68" s="44"/>
       <c r="U68" s="45"/>
-    </row>
-    <row r="69" spans="1:21" ht="16.5">
+      <c r="V68"/>
+    </row>
+    <row r="69" spans="1:23" s="1" customFormat="1" ht="16.5">
       <c r="A69" s="44"/>
       <c r="B69" s="44"/>
       <c r="C69" s="44"/>
@@ -3406,8 +3640,9 @@
       <c r="S69" s="44"/>
       <c r="T69" s="44"/>
       <c r="U69" s="45"/>
-    </row>
-    <row r="70" spans="1:21" ht="16.5">
+      <c r="V69"/>
+    </row>
+    <row r="70" spans="1:23" s="1" customFormat="1" ht="16.5">
       <c r="A70" s="44"/>
       <c r="B70" s="44"/>
       <c r="C70" s="44"/>
@@ -3429,8 +3664,9 @@
       <c r="S70" s="44"/>
       <c r="T70" s="44"/>
       <c r="U70" s="45"/>
-    </row>
-    <row r="71" spans="1:21" ht="16.5">
+      <c r="V70"/>
+    </row>
+    <row r="71" spans="1:23" s="1" customFormat="1" ht="16.5">
       <c r="A71" s="44"/>
       <c r="B71" s="44"/>
       <c r="C71" s="44"/>
@@ -3452,8 +3688,9 @@
       <c r="S71" s="44"/>
       <c r="T71" s="44"/>
       <c r="U71" s="45"/>
-    </row>
-    <row r="72" spans="1:21" ht="16.5">
+      <c r="V71"/>
+    </row>
+    <row r="72" spans="1:23" s="1" customFormat="1" ht="16.5">
       <c r="A72" s="44"/>
       <c r="B72" s="44"/>
       <c r="C72" s="44"/>
@@ -3475,14 +3712,15 @@
       <c r="S72" s="44"/>
       <c r="T72" s="44"/>
       <c r="U72" s="45"/>
-    </row>
-    <row r="73" spans="1:21" ht="16.5">
+      <c r="V72"/>
+    </row>
+    <row r="73" spans="1:23" s="1" customFormat="1">
       <c r="A73" s="44"/>
       <c r="B73" s="44"/>
       <c r="C73" s="44"/>
       <c r="D73" s="45"/>
       <c r="E73" s="44"/>
-      <c r="F73" s="38"/>
+      <c r="F73" s="44"/>
       <c r="G73" s="44"/>
       <c r="H73" s="46"/>
       <c r="I73" s="44"/>
@@ -3498,8 +3736,9 @@
       <c r="S73" s="44"/>
       <c r="T73" s="44"/>
       <c r="U73" s="45"/>
-    </row>
-    <row r="74" spans="1:21">
+      <c r="V73"/>
+    </row>
+    <row r="74" spans="1:23" s="1" customFormat="1">
       <c r="A74" s="44"/>
       <c r="B74" s="44"/>
       <c r="C74" s="44"/>
@@ -3521,8 +3760,9 @@
       <c r="S74" s="44"/>
       <c r="T74" s="44"/>
       <c r="U74" s="45"/>
-    </row>
-    <row r="75" spans="1:21">
+      <c r="V74"/>
+    </row>
+    <row r="75" spans="1:23" s="1" customFormat="1">
       <c r="A75" s="44"/>
       <c r="B75" s="44"/>
       <c r="C75" s="44"/>
@@ -3544,8 +3784,9 @@
       <c r="S75" s="44"/>
       <c r="T75" s="44"/>
       <c r="U75" s="45"/>
-    </row>
-    <row r="76" spans="1:21">
+      <c r="V75"/>
+    </row>
+    <row r="76" spans="1:23" s="1" customFormat="1">
       <c r="A76" s="44"/>
       <c r="B76" s="44"/>
       <c r="C76" s="44"/>
@@ -3567,8 +3808,9 @@
       <c r="S76" s="44"/>
       <c r="T76" s="44"/>
       <c r="U76" s="45"/>
-    </row>
-    <row r="77" spans="1:21">
+      <c r="V76"/>
+    </row>
+    <row r="77" spans="1:23" s="1" customFormat="1">
       <c r="A77" s="44"/>
       <c r="B77" s="44"/>
       <c r="C77" s="44"/>
@@ -3590,8 +3832,9 @@
       <c r="S77" s="44"/>
       <c r="T77" s="44"/>
       <c r="U77" s="45"/>
-    </row>
-    <row r="78" spans="1:21">
+      <c r="V77"/>
+    </row>
+    <row r="78" spans="1:23" s="1" customFormat="1">
       <c r="A78" s="44"/>
       <c r="B78" s="44"/>
       <c r="C78" s="44"/>
@@ -3613,8 +3856,9 @@
       <c r="S78" s="44"/>
       <c r="T78" s="44"/>
       <c r="U78" s="45"/>
-    </row>
-    <row r="79" spans="1:21">
+      <c r="V78"/>
+    </row>
+    <row r="79" spans="1:23" s="1" customFormat="1">
       <c r="A79" s="44"/>
       <c r="B79" s="44"/>
       <c r="C79" s="44"/>
@@ -3636,8 +3880,9 @@
       <c r="S79" s="44"/>
       <c r="T79" s="44"/>
       <c r="U79" s="45"/>
-    </row>
-    <row r="80" spans="1:21">
+      <c r="V79"/>
+    </row>
+    <row r="80" spans="1:23" s="1" customFormat="1">
       <c r="A80" s="44"/>
       <c r="B80" s="44"/>
       <c r="C80" s="44"/>
@@ -3659,8 +3904,9 @@
       <c r="S80" s="44"/>
       <c r="T80" s="44"/>
       <c r="U80" s="45"/>
-    </row>
-    <row r="81" spans="1:21">
+      <c r="V80"/>
+    </row>
+    <row r="81" spans="1:23" s="1" customFormat="1">
       <c r="A81" s="44"/>
       <c r="B81" s="44"/>
       <c r="C81" s="44"/>
@@ -3682,8 +3928,9 @@
       <c r="S81" s="44"/>
       <c r="T81" s="44"/>
       <c r="U81" s="45"/>
-    </row>
-    <row r="82" spans="1:21">
+      <c r="V81"/>
+    </row>
+    <row r="82" spans="1:23" s="1" customFormat="1">
       <c r="A82" s="44"/>
       <c r="B82" s="44"/>
       <c r="C82" s="44"/>
@@ -3705,8 +3952,9 @@
       <c r="S82" s="44"/>
       <c r="T82" s="44"/>
       <c r="U82" s="45"/>
-    </row>
-    <row r="83" spans="1:21">
+      <c r="V82"/>
+    </row>
+    <row r="83" spans="1:23" s="1" customFormat="1">
       <c r="A83" s="44"/>
       <c r="B83" s="44"/>
       <c r="C83" s="44"/>
@@ -3728,8 +3976,9 @@
       <c r="S83" s="44"/>
       <c r="T83" s="44"/>
       <c r="U83" s="45"/>
-    </row>
-    <row r="84" spans="1:21">
+      <c r="V83"/>
+    </row>
+    <row r="84" spans="1:23" s="1" customFormat="1">
       <c r="A84" s="44"/>
       <c r="B84" s="44"/>
       <c r="C84" s="44"/>
@@ -3751,8 +4000,9 @@
       <c r="S84" s="44"/>
       <c r="T84" s="44"/>
       <c r="U84" s="45"/>
-    </row>
-    <row r="85" spans="1:21">
+      <c r="V84"/>
+    </row>
+    <row r="85" spans="1:23" s="1" customFormat="1">
       <c r="A85" s="44"/>
       <c r="B85" s="44"/>
       <c r="C85" s="44"/>
@@ -3774,8 +4024,9 @@
       <c r="S85" s="44"/>
       <c r="T85" s="44"/>
       <c r="U85" s="45"/>
-    </row>
-    <row r="86" spans="1:21">
+      <c r="V85"/>
+    </row>
+    <row r="86" spans="1:23" s="1" customFormat="1">
       <c r="A86" s="44"/>
       <c r="B86" s="44"/>
       <c r="C86" s="44"/>
@@ -3797,8 +4048,9 @@
       <c r="S86" s="44"/>
       <c r="T86" s="44"/>
       <c r="U86" s="45"/>
-    </row>
-    <row r="87" spans="1:21">
+      <c r="V86"/>
+    </row>
+    <row r="87" spans="1:23" s="1" customFormat="1">
       <c r="A87" s="44"/>
       <c r="B87" s="44"/>
       <c r="C87" s="44"/>
@@ -3820,8 +4072,9 @@
       <c r="S87" s="44"/>
       <c r="T87" s="44"/>
       <c r="U87" s="45"/>
-    </row>
-    <row r="88" spans="1:21">
+      <c r="V87"/>
+    </row>
+    <row r="88" spans="1:23" s="1" customFormat="1">
       <c r="A88" s="44"/>
       <c r="B88" s="44"/>
       <c r="C88" s="44"/>
@@ -3843,8 +4096,9 @@
       <c r="S88" s="44"/>
       <c r="T88" s="44"/>
       <c r="U88" s="45"/>
-    </row>
-    <row r="89" spans="1:21">
+      <c r="V88"/>
+    </row>
+    <row r="89" spans="1:23" s="1" customFormat="1">
       <c r="A89" s="44"/>
       <c r="B89" s="44"/>
       <c r="C89" s="44"/>
@@ -3866,8 +4120,9 @@
       <c r="S89" s="44"/>
       <c r="T89" s="44"/>
       <c r="U89" s="45"/>
-    </row>
-    <row r="90" spans="1:21">
+      <c r="V89"/>
+    </row>
+    <row r="90" spans="1:23" s="1" customFormat="1">
       <c r="A90" s="44"/>
       <c r="B90" s="44"/>
       <c r="C90" s="44"/>
@@ -3889,8 +4144,9 @@
       <c r="S90" s="44"/>
       <c r="T90" s="44"/>
       <c r="U90" s="45"/>
-    </row>
-    <row r="91" spans="1:21">
+      <c r="V90"/>
+    </row>
+    <row r="91" spans="1:23" s="1" customFormat="1">
       <c r="A91" s="44"/>
       <c r="B91" s="44"/>
       <c r="C91" s="44"/>
@@ -3912,8 +4168,9 @@
       <c r="S91" s="44"/>
       <c r="T91" s="44"/>
       <c r="U91" s="45"/>
-    </row>
-    <row r="92" spans="1:21">
+      <c r="V91"/>
+    </row>
+    <row r="92" spans="1:23" s="1" customFormat="1">
       <c r="A92" s="44"/>
       <c r="B92" s="44"/>
       <c r="C92" s="44"/>
@@ -3935,8 +4192,9 @@
       <c r="S92" s="44"/>
       <c r="T92" s="44"/>
       <c r="U92" s="45"/>
-    </row>
-    <row r="93" spans="1:21">
+      <c r="V92"/>
+    </row>
+    <row r="93" spans="1:23" s="1" customFormat="1">
       <c r="A93" s="44"/>
       <c r="B93" s="44"/>
       <c r="C93" s="44"/>
@@ -3958,8 +4216,9 @@
       <c r="S93" s="44"/>
       <c r="T93" s="44"/>
       <c r="U93" s="45"/>
-    </row>
-    <row r="94" spans="1:21">
+      <c r="V93"/>
+    </row>
+    <row r="94" spans="1:23" s="1" customFormat="1">
       <c r="A94" s="44"/>
       <c r="B94" s="44"/>
       <c r="C94" s="44"/>
@@ -3981,8 +4240,9 @@
       <c r="S94" s="44"/>
       <c r="T94" s="44"/>
       <c r="U94" s="45"/>
-    </row>
-    <row r="95" spans="1:21">
+      <c r="V94"/>
+    </row>
+    <row r="95" spans="1:23" s="1" customFormat="1">
       <c r="A95" s="44"/>
       <c r="B95" s="44"/>
       <c r="C95" s="44"/>
@@ -4004,8 +4264,9 @@
       <c r="S95" s="44"/>
       <c r="T95" s="44"/>
       <c r="U95" s="45"/>
-    </row>
-    <row r="96" spans="1:21">
+      <c r="V95"/>
+    </row>
+    <row r="96" spans="1:23" s="1" customFormat="1">
       <c r="A96" s="44"/>
       <c r="B96" s="44"/>
       <c r="C96" s="44"/>
@@ -4027,8 +4288,9 @@
       <c r="S96" s="44"/>
       <c r="T96" s="44"/>
       <c r="U96" s="45"/>
-    </row>
-    <row r="97" spans="1:21">
+      <c r="V96"/>
+    </row>
+    <row r="97" spans="1:23" s="1" customFormat="1">
       <c r="A97" s="44"/>
       <c r="B97" s="44"/>
       <c r="C97" s="44"/>
@@ -4050,8 +4312,9 @@
       <c r="S97" s="44"/>
       <c r="T97" s="44"/>
       <c r="U97" s="45"/>
-    </row>
-    <row r="98" spans="1:21">
+      <c r="V97"/>
+    </row>
+    <row r="98" spans="1:23" s="1" customFormat="1">
       <c r="A98" s="44"/>
       <c r="B98" s="44"/>
       <c r="C98" s="44"/>
@@ -4073,8 +4336,9 @@
       <c r="S98" s="44"/>
       <c r="T98" s="44"/>
       <c r="U98" s="45"/>
-    </row>
-    <row r="99" spans="1:21">
+      <c r="V98"/>
+    </row>
+    <row r="99" spans="1:23" s="1" customFormat="1">
       <c r="A99" s="44"/>
       <c r="B99" s="44"/>
       <c r="C99" s="44"/>
@@ -4096,8 +4360,9 @@
       <c r="S99" s="44"/>
       <c r="T99" s="44"/>
       <c r="U99" s="45"/>
-    </row>
-    <row r="100" spans="1:21">
+      <c r="V99"/>
+    </row>
+    <row r="100" spans="1:23" s="1" customFormat="1">
       <c r="A100" s="44"/>
       <c r="B100" s="44"/>
       <c r="C100" s="44"/>
@@ -4119,8 +4384,9 @@
       <c r="S100" s="44"/>
       <c r="T100" s="44"/>
       <c r="U100" s="45"/>
-    </row>
-    <row r="101" spans="1:21">
+      <c r="V100"/>
+    </row>
+    <row r="101" spans="1:23" s="1" customFormat="1">
       <c r="A101" s="44"/>
       <c r="B101" s="44"/>
       <c r="C101" s="44"/>
@@ -4142,8 +4408,9 @@
       <c r="S101" s="44"/>
       <c r="T101" s="44"/>
       <c r="U101" s="45"/>
-    </row>
-    <row r="102" spans="1:21">
+      <c r="V101"/>
+    </row>
+    <row r="102" spans="1:23" s="1" customFormat="1">
       <c r="A102" s="44"/>
       <c r="B102" s="44"/>
       <c r="C102" s="44"/>
@@ -4165,8 +4432,9 @@
       <c r="S102" s="44"/>
       <c r="T102" s="44"/>
       <c r="U102" s="45"/>
-    </row>
-    <row r="103" spans="1:21">
+      <c r="V102"/>
+    </row>
+    <row r="103" spans="1:23" s="1" customFormat="1">
       <c r="A103" s="44"/>
       <c r="B103" s="44"/>
       <c r="C103" s="44"/>
@@ -4188,8 +4456,9 @@
       <c r="S103" s="44"/>
       <c r="T103" s="44"/>
       <c r="U103" s="45"/>
-    </row>
-    <row r="104" spans="1:21">
+      <c r="V103"/>
+    </row>
+    <row r="104" spans="1:23" s="1" customFormat="1">
       <c r="A104" s="44"/>
       <c r="B104" s="44"/>
       <c r="C104" s="44"/>
@@ -4211,8 +4480,9 @@
       <c r="S104" s="44"/>
       <c r="T104" s="44"/>
       <c r="U104" s="45"/>
-    </row>
-    <row r="105" spans="1:21">
+      <c r="V104"/>
+    </row>
+    <row r="105" spans="1:23" s="1" customFormat="1">
       <c r="A105" s="44"/>
       <c r="B105" s="44"/>
       <c r="C105" s="44"/>
@@ -4234,8 +4504,9 @@
       <c r="S105" s="44"/>
       <c r="T105" s="44"/>
       <c r="U105" s="45"/>
-    </row>
-    <row r="106" spans="1:21">
+      <c r="V105"/>
+    </row>
+    <row r="106" spans="1:23" s="1" customFormat="1">
       <c r="A106" s="44"/>
       <c r="B106" s="44"/>
       <c r="C106" s="44"/>
@@ -4257,8 +4528,9 @@
       <c r="S106" s="44"/>
       <c r="T106" s="44"/>
       <c r="U106" s="45"/>
-    </row>
-    <row r="107" spans="1:21">
+      <c r="V106"/>
+    </row>
+    <row r="107" spans="1:23" s="1" customFormat="1">
       <c r="A107" s="44"/>
       <c r="B107" s="44"/>
       <c r="C107" s="44"/>
@@ -4280,8 +4552,9 @@
       <c r="S107" s="44"/>
       <c r="T107" s="44"/>
       <c r="U107" s="45"/>
-    </row>
-    <row r="108" spans="1:21">
+      <c r="V107"/>
+    </row>
+    <row r="108" spans="1:23" s="1" customFormat="1">
       <c r="A108" s="44"/>
       <c r="B108" s="44"/>
       <c r="C108" s="44"/>
@@ -4303,8 +4576,9 @@
       <c r="S108" s="44"/>
       <c r="T108" s="44"/>
       <c r="U108" s="45"/>
-    </row>
-    <row r="109" spans="1:21">
+      <c r="V108"/>
+    </row>
+    <row r="109" spans="1:23" s="1" customFormat="1">
       <c r="A109" s="44"/>
       <c r="B109" s="44"/>
       <c r="C109" s="44"/>
@@ -4326,8 +4600,9 @@
       <c r="S109" s="44"/>
       <c r="T109" s="44"/>
       <c r="U109" s="45"/>
-    </row>
-    <row r="110" spans="1:21">
+      <c r="V109"/>
+    </row>
+    <row r="110" spans="1:23" s="1" customFormat="1">
       <c r="A110" s="44"/>
       <c r="B110" s="44"/>
       <c r="C110" s="44"/>
@@ -4349,8 +4624,9 @@
       <c r="S110" s="44"/>
       <c r="T110" s="44"/>
       <c r="U110" s="45"/>
-    </row>
-    <row r="111" spans="1:21">
+      <c r="V110"/>
+    </row>
+    <row r="111" spans="1:23" s="1" customFormat="1">
       <c r="A111" s="44"/>
       <c r="B111" s="44"/>
       <c r="C111" s="44"/>
@@ -4372,8 +4648,9 @@
       <c r="S111" s="44"/>
       <c r="T111" s="44"/>
       <c r="U111" s="45"/>
-    </row>
-    <row r="112" spans="1:21">
+      <c r="V111"/>
+    </row>
+    <row r="112" spans="1:23" s="1" customFormat="1">
       <c r="A112" s="44"/>
       <c r="B112" s="44"/>
       <c r="C112" s="44"/>
@@ -4395,8 +4672,9 @@
       <c r="S112" s="44"/>
       <c r="T112" s="44"/>
       <c r="U112" s="45"/>
-    </row>
-    <row r="113" spans="1:21">
+      <c r="V112"/>
+    </row>
+    <row r="113" spans="1:23" s="1" customFormat="1">
       <c r="A113" s="44"/>
       <c r="B113" s="44"/>
       <c r="C113" s="44"/>
@@ -4418,8 +4696,9 @@
       <c r="S113" s="44"/>
       <c r="T113" s="44"/>
       <c r="U113" s="45"/>
-    </row>
-    <row r="114" spans="1:21">
+      <c r="V113"/>
+    </row>
+    <row r="114" spans="1:23" s="1" customFormat="1">
       <c r="A114" s="44"/>
       <c r="B114" s="44"/>
       <c r="C114" s="44"/>
@@ -4441,8 +4720,9 @@
       <c r="S114" s="44"/>
       <c r="T114" s="44"/>
       <c r="U114" s="45"/>
-    </row>
-    <row r="115" spans="1:21">
+      <c r="V114"/>
+    </row>
+    <row r="115" spans="1:23" s="1" customFormat="1">
       <c r="A115" s="44"/>
       <c r="B115" s="44"/>
       <c r="C115" s="44"/>
@@ -4464,8 +4744,9 @@
       <c r="S115" s="44"/>
       <c r="T115" s="44"/>
       <c r="U115" s="45"/>
-    </row>
-    <row r="116" spans="1:21">
+      <c r="V115"/>
+    </row>
+    <row r="116" spans="1:23" s="1" customFormat="1">
       <c r="A116" s="44"/>
       <c r="B116" s="44"/>
       <c r="C116" s="44"/>
@@ -4487,8 +4768,9 @@
       <c r="S116" s="44"/>
       <c r="T116" s="44"/>
       <c r="U116" s="45"/>
-    </row>
-    <row r="117" spans="1:21">
+      <c r="V116"/>
+    </row>
+    <row r="117" spans="1:23" s="1" customFormat="1">
       <c r="A117" s="44"/>
       <c r="B117" s="44"/>
       <c r="C117" s="44"/>
@@ -4510,8 +4792,9 @@
       <c r="S117" s="44"/>
       <c r="T117" s="44"/>
       <c r="U117" s="45"/>
-    </row>
-    <row r="118" spans="1:21">
+      <c r="V117"/>
+    </row>
+    <row r="118" spans="1:23" s="1" customFormat="1">
       <c r="A118" s="44"/>
       <c r="B118" s="44"/>
       <c r="C118" s="44"/>
@@ -4533,8 +4816,9 @@
       <c r="S118" s="44"/>
       <c r="T118" s="44"/>
       <c r="U118" s="45"/>
-    </row>
-    <row r="119" spans="1:21">
+      <c r="V118"/>
+    </row>
+    <row r="119" spans="1:23" s="1" customFormat="1">
       <c r="A119" s="44"/>
       <c r="B119" s="44"/>
       <c r="C119" s="44"/>
@@ -4556,8 +4840,9 @@
       <c r="S119" s="44"/>
       <c r="T119" s="44"/>
       <c r="U119" s="45"/>
-    </row>
-    <row r="120" spans="1:21">
+      <c r="V119"/>
+    </row>
+    <row r="120" spans="1:23" s="1" customFormat="1">
       <c r="A120" s="44"/>
       <c r="B120" s="44"/>
       <c r="C120" s="44"/>
@@ -4579,8 +4864,9 @@
       <c r="S120" s="44"/>
       <c r="T120" s="44"/>
       <c r="U120" s="45"/>
-    </row>
-    <row r="121" spans="1:21">
+      <c r="V120"/>
+    </row>
+    <row r="121" spans="1:23" s="1" customFormat="1">
       <c r="A121" s="44"/>
       <c r="B121" s="44"/>
       <c r="C121" s="44"/>
@@ -4602,8 +4888,9 @@
       <c r="S121" s="44"/>
       <c r="T121" s="44"/>
       <c r="U121" s="45"/>
-    </row>
-    <row r="122" spans="1:21">
+      <c r="V121"/>
+    </row>
+    <row r="122" spans="1:23" s="1" customFormat="1">
       <c r="A122" s="44"/>
       <c r="B122" s="44"/>
       <c r="C122" s="44"/>
@@ -4625,8 +4912,9 @@
       <c r="S122" s="44"/>
       <c r="T122" s="44"/>
       <c r="U122" s="45"/>
-    </row>
-    <row r="123" spans="1:21">
+      <c r="V122"/>
+    </row>
+    <row r="123" spans="1:23" s="1" customFormat="1">
       <c r="A123" s="44"/>
       <c r="B123" s="44"/>
       <c r="C123" s="44"/>
@@ -4648,8 +4936,9 @@
       <c r="S123" s="44"/>
       <c r="T123" s="44"/>
       <c r="U123" s="45"/>
-    </row>
-    <row r="124" spans="1:21">
+      <c r="V123"/>
+    </row>
+    <row r="124" spans="1:23" s="1" customFormat="1">
       <c r="A124" s="44"/>
       <c r="B124" s="44"/>
       <c r="C124" s="44"/>
@@ -4671,8 +4960,9 @@
       <c r="S124" s="44"/>
       <c r="T124" s="44"/>
       <c r="U124" s="45"/>
-    </row>
-    <row r="125" spans="1:21">
+      <c r="V124"/>
+    </row>
+    <row r="125" spans="1:23" s="1" customFormat="1">
       <c r="A125" s="44"/>
       <c r="B125" s="44"/>
       <c r="C125" s="44"/>
@@ -4694,8 +4984,9 @@
       <c r="S125" s="44"/>
       <c r="T125" s="44"/>
       <c r="U125" s="45"/>
-    </row>
-    <row r="126" spans="1:21">
+      <c r="V125"/>
+    </row>
+    <row r="126" spans="1:23" s="1" customFormat="1">
       <c r="A126" s="44"/>
       <c r="B126" s="44"/>
       <c r="C126" s="44"/>
@@ -4717,8 +5008,9 @@
       <c r="S126" s="44"/>
       <c r="T126" s="44"/>
       <c r="U126" s="45"/>
-    </row>
-    <row r="127" spans="1:21">
+      <c r="V126"/>
+    </row>
+    <row r="127" spans="1:23" s="1" customFormat="1">
       <c r="A127" s="44"/>
       <c r="B127" s="44"/>
       <c r="C127" s="44"/>
@@ -4740,8 +5032,9 @@
       <c r="S127" s="44"/>
       <c r="T127" s="44"/>
       <c r="U127" s="45"/>
-    </row>
-    <row r="128" spans="1:21">
+      <c r="V127"/>
+    </row>
+    <row r="128" spans="1:23" s="1" customFormat="1">
       <c r="A128" s="44"/>
       <c r="B128" s="44"/>
       <c r="C128" s="44"/>
@@ -4763,8 +5056,9 @@
       <c r="S128" s="44"/>
       <c r="T128" s="44"/>
       <c r="U128" s="45"/>
-    </row>
-    <row r="129" spans="1:21">
+      <c r="V128"/>
+    </row>
+    <row r="129" spans="1:23" s="1" customFormat="1">
       <c r="A129" s="44"/>
       <c r="B129" s="44"/>
       <c r="C129" s="44"/>
@@ -4786,8 +5080,9 @@
       <c r="S129" s="44"/>
       <c r="T129" s="44"/>
       <c r="U129" s="45"/>
-    </row>
-    <row r="130" spans="1:21">
+      <c r="V129"/>
+    </row>
+    <row r="130" spans="1:23" s="1" customFormat="1">
       <c r="A130" s="44"/>
       <c r="B130" s="44"/>
       <c r="C130" s="44"/>
@@ -4809,8 +5104,9 @@
       <c r="S130" s="44"/>
       <c r="T130" s="44"/>
       <c r="U130" s="45"/>
-    </row>
-    <row r="131" spans="1:21">
+      <c r="V130"/>
+    </row>
+    <row r="131" spans="1:23" s="1" customFormat="1">
       <c r="A131" s="44"/>
       <c r="B131" s="44"/>
       <c r="C131" s="44"/>
@@ -4832,8 +5128,9 @@
       <c r="S131" s="44"/>
       <c r="T131" s="44"/>
       <c r="U131" s="45"/>
-    </row>
-    <row r="132" spans="1:21">
+      <c r="V131"/>
+    </row>
+    <row r="132" spans="1:23" s="1" customFormat="1">
       <c r="A132" s="44"/>
       <c r="B132" s="44"/>
       <c r="C132" s="44"/>
@@ -4855,8 +5152,9 @@
       <c r="S132" s="44"/>
       <c r="T132" s="44"/>
       <c r="U132" s="45"/>
-    </row>
-    <row r="133" spans="1:21">
+      <c r="V132"/>
+    </row>
+    <row r="133" spans="1:23" s="1" customFormat="1">
       <c r="A133" s="44"/>
       <c r="B133" s="44"/>
       <c r="C133" s="44"/>
@@ -4874,12 +5172,13 @@
       <c r="O133" s="44"/>
       <c r="P133" s="46"/>
       <c r="Q133" s="45"/>
-      <c r="R133" s="44"/>
-      <c r="S133" s="44"/>
-      <c r="T133" s="44"/>
+      <c r="R133" s="34"/>
+      <c r="S133" s="34"/>
+      <c r="T133" s="34"/>
       <c r="U133" s="45"/>
-    </row>
-    <row r="134" spans="1:21">
+      <c r="V133"/>
+    </row>
+    <row r="134" spans="1:23" s="1" customFormat="1">
       <c r="A134" s="44"/>
       <c r="B134" s="44"/>
       <c r="C134" s="44"/>
@@ -4897,9 +5196,13 @@
       <c r="O134" s="44"/>
       <c r="P134" s="46"/>
       <c r="Q134" s="45"/>
+      <c r="R134" s="34"/>
+      <c r="S134" s="34"/>
+      <c r="T134" s="34"/>
       <c r="U134" s="45"/>
-    </row>
-    <row r="135" spans="1:21">
+      <c r="V134"/>
+    </row>
+    <row r="135" spans="1:23" s="1" customFormat="1">
       <c r="A135" s="44"/>
       <c r="B135" s="44"/>
       <c r="C135" s="44"/>
@@ -4917,9 +5220,13 @@
       <c r="O135" s="44"/>
       <c r="P135" s="46"/>
       <c r="Q135" s="45"/>
+      <c r="R135" s="34"/>
+      <c r="S135" s="34"/>
+      <c r="T135" s="34"/>
       <c r="U135" s="45"/>
-    </row>
-    <row r="136" spans="1:21">
+      <c r="V135"/>
+    </row>
+    <row r="136" spans="1:23" s="1" customFormat="1">
       <c r="A136" s="44"/>
       <c r="B136" s="44"/>
       <c r="C136" s="44"/>
@@ -4937,9 +5244,13 @@
       <c r="O136" s="44"/>
       <c r="P136" s="46"/>
       <c r="Q136" s="45"/>
+      <c r="R136" s="34"/>
+      <c r="S136" s="34"/>
+      <c r="T136" s="34"/>
       <c r="U136" s="45"/>
-    </row>
-    <row r="137" spans="1:21">
+      <c r="V136"/>
+    </row>
+    <row r="137" spans="1:23" s="1" customFormat="1">
       <c r="A137" s="44"/>
       <c r="B137" s="44"/>
       <c r="C137" s="44"/>
@@ -4957,9 +5268,13 @@
       <c r="O137" s="44"/>
       <c r="P137" s="46"/>
       <c r="Q137" s="45"/>
+      <c r="R137" s="34"/>
+      <c r="S137" s="34"/>
+      <c r="T137" s="34"/>
       <c r="U137" s="45"/>
-    </row>
-    <row r="138" spans="1:21">
+      <c r="V137"/>
+    </row>
+    <row r="138" spans="1:23" s="1" customFormat="1">
       <c r="A138" s="44"/>
       <c r="B138" s="44"/>
       <c r="C138" s="44"/>
@@ -4977,9 +5292,13 @@
       <c r="O138" s="44"/>
       <c r="P138" s="46"/>
       <c r="Q138" s="45"/>
+      <c r="R138" s="34"/>
+      <c r="S138" s="34"/>
+      <c r="T138" s="34"/>
       <c r="U138" s="45"/>
-    </row>
-    <row r="139" spans="1:21">
+      <c r="V138"/>
+    </row>
+    <row r="139" spans="1:23" s="1" customFormat="1">
       <c r="A139" s="44"/>
       <c r="B139" s="44"/>
       <c r="C139" s="44"/>
@@ -4997,9 +5316,13 @@
       <c r="O139" s="44"/>
       <c r="P139" s="46"/>
       <c r="Q139" s="45"/>
+      <c r="R139" s="34"/>
+      <c r="S139" s="34"/>
+      <c r="T139" s="34"/>
       <c r="U139" s="45"/>
-    </row>
-    <row r="140" spans="1:21">
+      <c r="V139"/>
+    </row>
+    <row r="140" spans="1:23" s="1" customFormat="1">
       <c r="A140" s="44"/>
       <c r="B140" s="44"/>
       <c r="C140" s="44"/>
@@ -5017,9 +5340,13 @@
       <c r="O140" s="44"/>
       <c r="P140" s="46"/>
       <c r="Q140" s="45"/>
+      <c r="R140" s="34"/>
+      <c r="S140" s="34"/>
+      <c r="T140" s="34"/>
       <c r="U140" s="45"/>
-    </row>
-    <row r="141" spans="1:21">
+      <c r="V140"/>
+    </row>
+    <row r="141" spans="1:23" s="1" customFormat="1">
       <c r="A141" s="44"/>
       <c r="B141" s="44"/>
       <c r="C141" s="44"/>
@@ -5037,9 +5364,13 @@
       <c r="O141" s="44"/>
       <c r="P141" s="46"/>
       <c r="Q141" s="45"/>
+      <c r="R141" s="34"/>
+      <c r="S141" s="34"/>
+      <c r="T141" s="34"/>
       <c r="U141" s="45"/>
-    </row>
-    <row r="142" spans="1:21">
+      <c r="V141"/>
+    </row>
+    <row r="142" spans="1:23" s="1" customFormat="1">
       <c r="A142" s="44"/>
       <c r="B142" s="44"/>
       <c r="C142" s="44"/>
@@ -5057,9 +5388,13 @@
       <c r="O142" s="44"/>
       <c r="P142" s="46"/>
       <c r="Q142" s="45"/>
+      <c r="R142" s="34"/>
+      <c r="S142" s="34"/>
+      <c r="T142" s="34"/>
       <c r="U142" s="45"/>
-    </row>
-    <row r="143" spans="1:21">
+      <c r="V142"/>
+    </row>
+    <row r="143" spans="1:23" s="1" customFormat="1">
       <c r="A143" s="44"/>
       <c r="B143" s="44"/>
       <c r="C143" s="44"/>
@@ -5077,9 +5412,13 @@
       <c r="O143" s="44"/>
       <c r="P143" s="46"/>
       <c r="Q143" s="45"/>
+      <c r="R143" s="34"/>
+      <c r="S143" s="34"/>
+      <c r="T143" s="34"/>
       <c r="U143" s="45"/>
-    </row>
-    <row r="144" spans="1:21">
+      <c r="V143"/>
+    </row>
+    <row r="144" spans="1:23" s="1" customFormat="1">
       <c r="A144" s="44"/>
       <c r="B144" s="44"/>
       <c r="C144" s="44"/>
@@ -5097,9 +5436,13 @@
       <c r="O144" s="44"/>
       <c r="P144" s="46"/>
       <c r="Q144" s="45"/>
+      <c r="R144" s="34"/>
+      <c r="S144" s="34"/>
+      <c r="T144" s="34"/>
       <c r="U144" s="45"/>
-    </row>
-    <row r="145" spans="1:21">
+      <c r="V144"/>
+    </row>
+    <row r="145" spans="1:23" s="1" customFormat="1">
       <c r="A145" s="44"/>
       <c r="B145" s="44"/>
       <c r="C145" s="44"/>
@@ -5117,9 +5460,13 @@
       <c r="O145" s="44"/>
       <c r="P145" s="46"/>
       <c r="Q145" s="45"/>
+      <c r="R145" s="34"/>
+      <c r="S145" s="34"/>
+      <c r="T145" s="34"/>
       <c r="U145" s="45"/>
-    </row>
-    <row r="146" spans="1:21">
+      <c r="V145"/>
+    </row>
+    <row r="146" spans="1:23" s="1" customFormat="1">
       <c r="A146" s="44"/>
       <c r="B146" s="44"/>
       <c r="C146" s="44"/>
@@ -5137,9 +5484,13 @@
       <c r="O146" s="44"/>
       <c r="P146" s="46"/>
       <c r="Q146" s="45"/>
+      <c r="R146" s="34"/>
+      <c r="S146" s="34"/>
+      <c r="T146" s="34"/>
       <c r="U146" s="45"/>
-    </row>
-    <row r="147" spans="1:21">
+      <c r="V146"/>
+    </row>
+    <row r="147" spans="1:23" s="1" customFormat="1">
       <c r="A147" s="44"/>
       <c r="B147" s="44"/>
       <c r="C147" s="44"/>
@@ -5157,9 +5508,13 @@
       <c r="O147" s="44"/>
       <c r="P147" s="46"/>
       <c r="Q147" s="45"/>
+      <c r="R147" s="34"/>
+      <c r="S147" s="34"/>
+      <c r="T147" s="34"/>
       <c r="U147" s="45"/>
-    </row>
-    <row r="148" spans="1:21">
+      <c r="V147"/>
+    </row>
+    <row r="148" spans="1:23" s="1" customFormat="1">
       <c r="A148" s="44"/>
       <c r="B148" s="44"/>
       <c r="C148" s="44"/>
@@ -5177,9 +5532,13 @@
       <c r="O148" s="44"/>
       <c r="P148" s="46"/>
       <c r="Q148" s="45"/>
+      <c r="R148" s="34"/>
+      <c r="S148" s="34"/>
+      <c r="T148" s="34"/>
       <c r="U148" s="45"/>
-    </row>
-    <row r="149" spans="1:21">
+      <c r="V148"/>
+    </row>
+    <row r="149" spans="1:23" s="1" customFormat="1">
       <c r="A149" s="44"/>
       <c r="B149" s="44"/>
       <c r="C149" s="44"/>
@@ -5197,9 +5556,13 @@
       <c r="O149" s="44"/>
       <c r="P149" s="46"/>
       <c r="Q149" s="45"/>
+      <c r="R149" s="34"/>
+      <c r="S149" s="34"/>
+      <c r="T149" s="34"/>
       <c r="U149" s="45"/>
-    </row>
-    <row r="150" spans="1:21">
+      <c r="V149"/>
+    </row>
+    <row r="150" spans="1:23" s="1" customFormat="1">
       <c r="A150" s="44"/>
       <c r="B150" s="44"/>
       <c r="C150" s="44"/>
@@ -5217,9 +5580,13 @@
       <c r="O150" s="44"/>
       <c r="P150" s="46"/>
       <c r="Q150" s="45"/>
+      <c r="R150" s="34"/>
+      <c r="S150" s="34"/>
+      <c r="T150" s="34"/>
       <c r="U150" s="45"/>
-    </row>
-    <row r="151" spans="1:21">
+      <c r="V150"/>
+    </row>
+    <row r="151" spans="1:23" s="1" customFormat="1">
       <c r="A151" s="44"/>
       <c r="B151" s="44"/>
       <c r="C151" s="44"/>
@@ -5237,9 +5604,13 @@
       <c r="O151" s="44"/>
       <c r="P151" s="46"/>
       <c r="Q151" s="45"/>
+      <c r="R151" s="34"/>
+      <c r="S151" s="34"/>
+      <c r="T151" s="34"/>
       <c r="U151" s="45"/>
-    </row>
-    <row r="152" spans="1:21">
+      <c r="V151"/>
+    </row>
+    <row r="152" spans="1:23" s="1" customFormat="1">
       <c r="A152" s="44"/>
       <c r="B152" s="44"/>
       <c r="C152" s="44"/>
@@ -5257,9 +5628,13 @@
       <c r="O152" s="44"/>
       <c r="P152" s="46"/>
       <c r="Q152" s="45"/>
+      <c r="R152" s="34"/>
+      <c r="S152" s="34"/>
+      <c r="T152" s="34"/>
       <c r="U152" s="45"/>
-    </row>
-    <row r="153" spans="1:21">
+      <c r="V152"/>
+    </row>
+    <row r="153" spans="1:23" s="1" customFormat="1">
       <c r="A153" s="44"/>
       <c r="B153" s="44"/>
       <c r="C153" s="44"/>
@@ -5277,9 +5652,13 @@
       <c r="O153" s="44"/>
       <c r="P153" s="46"/>
       <c r="Q153" s="45"/>
+      <c r="R153" s="34"/>
+      <c r="S153" s="34"/>
+      <c r="T153" s="34"/>
       <c r="U153" s="45"/>
-    </row>
-    <row r="154" spans="1:21">
+      <c r="V153"/>
+    </row>
+    <row r="154" spans="1:23" s="1" customFormat="1">
       <c r="A154" s="44"/>
       <c r="B154" s="44"/>
       <c r="C154" s="44"/>
@@ -5297,9 +5676,13 @@
       <c r="O154" s="44"/>
       <c r="P154" s="46"/>
       <c r="Q154" s="45"/>
+      <c r="R154" s="34"/>
+      <c r="S154" s="34"/>
+      <c r="T154" s="34"/>
       <c r="U154" s="45"/>
-    </row>
-    <row r="155" spans="1:21">
+      <c r="V154"/>
+    </row>
+    <row r="155" spans="1:23" s="1" customFormat="1">
       <c r="A155" s="44"/>
       <c r="B155" s="44"/>
       <c r="C155" s="44"/>
@@ -5317,9 +5700,13 @@
       <c r="O155" s="44"/>
       <c r="P155" s="46"/>
       <c r="Q155" s="45"/>
+      <c r="R155" s="34"/>
+      <c r="S155" s="34"/>
+      <c r="T155" s="34"/>
       <c r="U155" s="45"/>
-    </row>
-    <row r="156" spans="1:21">
+      <c r="V155"/>
+    </row>
+    <row r="156" spans="1:23" s="1" customFormat="1">
       <c r="A156" s="44"/>
       <c r="B156" s="44"/>
       <c r="C156" s="44"/>
@@ -5337,9 +5724,13 @@
       <c r="O156" s="44"/>
       <c r="P156" s="46"/>
       <c r="Q156" s="45"/>
+      <c r="R156" s="34"/>
+      <c r="S156" s="34"/>
+      <c r="T156" s="34"/>
       <c r="U156" s="45"/>
-    </row>
-    <row r="157" spans="1:21">
+      <c r="V156"/>
+    </row>
+    <row r="157" spans="1:23" s="1" customFormat="1">
       <c r="A157" s="44"/>
       <c r="B157" s="44"/>
       <c r="C157" s="44"/>
@@ -5357,9 +5748,13 @@
       <c r="O157" s="44"/>
       <c r="P157" s="46"/>
       <c r="Q157" s="45"/>
+      <c r="R157" s="34"/>
+      <c r="S157" s="34"/>
+      <c r="T157" s="34"/>
       <c r="U157" s="45"/>
-    </row>
-    <row r="158" spans="1:21">
+      <c r="V157"/>
+    </row>
+    <row r="158" spans="1:23" s="1" customFormat="1">
       <c r="A158" s="44"/>
       <c r="B158" s="44"/>
       <c r="C158" s="44"/>
@@ -5377,9 +5772,13 @@
       <c r="O158" s="44"/>
       <c r="P158" s="46"/>
       <c r="Q158" s="45"/>
+      <c r="R158" s="34"/>
+      <c r="S158" s="34"/>
+      <c r="T158" s="34"/>
       <c r="U158" s="45"/>
-    </row>
-    <row r="159" spans="1:21">
+      <c r="V158"/>
+    </row>
+    <row r="159" spans="1:23" s="1" customFormat="1">
       <c r="A159" s="44"/>
       <c r="B159" s="44"/>
       <c r="C159" s="44"/>
@@ -5397,9 +5796,13 @@
       <c r="O159" s="44"/>
       <c r="P159" s="46"/>
       <c r="Q159" s="45"/>
+      <c r="R159" s="34"/>
+      <c r="S159" s="34"/>
+      <c r="T159" s="34"/>
       <c r="U159" s="45"/>
-    </row>
-    <row r="160" spans="1:21">
+      <c r="V159"/>
+    </row>
+    <row r="160" spans="1:23" s="1" customFormat="1">
       <c r="A160" s="44"/>
       <c r="B160" s="44"/>
       <c r="C160" s="44"/>
@@ -5417,9 +5820,13 @@
       <c r="O160" s="44"/>
       <c r="P160" s="46"/>
       <c r="Q160" s="45"/>
+      <c r="R160" s="34"/>
+      <c r="S160" s="34"/>
+      <c r="T160" s="34"/>
       <c r="U160" s="45"/>
-    </row>
-    <row r="161" spans="1:21">
+      <c r="V160"/>
+    </row>
+    <row r="161" spans="1:23" s="1" customFormat="1">
       <c r="A161" s="44"/>
       <c r="B161" s="44"/>
       <c r="C161" s="44"/>
@@ -5437,9 +5844,13 @@
       <c r="O161" s="44"/>
       <c r="P161" s="46"/>
       <c r="Q161" s="45"/>
+      <c r="R161" s="34"/>
+      <c r="S161" s="34"/>
+      <c r="T161" s="34"/>
       <c r="U161" s="45"/>
-    </row>
-    <row r="162" spans="1:21">
+      <c r="V161"/>
+    </row>
+    <row r="162" spans="1:23" s="1" customFormat="1">
       <c r="A162" s="44"/>
       <c r="B162" s="44"/>
       <c r="C162" s="44"/>
@@ -5457,9 +5868,13 @@
       <c r="O162" s="44"/>
       <c r="P162" s="46"/>
       <c r="Q162" s="45"/>
+      <c r="R162" s="34"/>
+      <c r="S162" s="34"/>
+      <c r="T162" s="34"/>
       <c r="U162" s="45"/>
-    </row>
-    <row r="163" spans="1:21">
+      <c r="V162"/>
+    </row>
+    <row r="163" spans="1:23" s="1" customFormat="1">
       <c r="A163" s="44"/>
       <c r="B163" s="44"/>
       <c r="C163" s="44"/>
@@ -5477,9 +5892,13 @@
       <c r="O163" s="44"/>
       <c r="P163" s="46"/>
       <c r="Q163" s="45"/>
+      <c r="R163" s="34"/>
+      <c r="S163" s="34"/>
+      <c r="T163" s="34"/>
       <c r="U163" s="45"/>
-    </row>
-    <row r="164" spans="1:21">
+      <c r="V163"/>
+    </row>
+    <row r="164" spans="1:23" s="1" customFormat="1">
       <c r="A164" s="44"/>
       <c r="B164" s="44"/>
       <c r="C164" s="44"/>
@@ -5497,9 +5916,13 @@
       <c r="O164" s="44"/>
       <c r="P164" s="46"/>
       <c r="Q164" s="45"/>
+      <c r="R164" s="34"/>
+      <c r="S164" s="34"/>
+      <c r="T164" s="34"/>
       <c r="U164" s="45"/>
-    </row>
-    <row r="165" spans="1:21">
+      <c r="V164"/>
+    </row>
+    <row r="165" spans="1:23" s="1" customFormat="1">
       <c r="A165" s="44"/>
       <c r="B165" s="44"/>
       <c r="C165" s="44"/>
@@ -5517,9 +5940,13 @@
       <c r="O165" s="44"/>
       <c r="P165" s="46"/>
       <c r="Q165" s="45"/>
+      <c r="R165" s="34"/>
+      <c r="S165" s="34"/>
+      <c r="T165" s="34"/>
       <c r="U165" s="45"/>
-    </row>
-    <row r="166" spans="1:21">
+      <c r="V165"/>
+    </row>
+    <row r="166" spans="1:23" s="1" customFormat="1">
       <c r="A166" s="44"/>
       <c r="B166" s="44"/>
       <c r="C166" s="44"/>
@@ -5537,9 +5964,13 @@
       <c r="O166" s="44"/>
       <c r="P166" s="46"/>
       <c r="Q166" s="45"/>
+      <c r="R166" s="34"/>
+      <c r="S166" s="34"/>
+      <c r="T166" s="34"/>
       <c r="U166" s="45"/>
-    </row>
-    <row r="167" spans="1:21">
+      <c r="V166"/>
+    </row>
+    <row r="167" spans="1:23" s="1" customFormat="1">
       <c r="A167" s="44"/>
       <c r="B167" s="44"/>
       <c r="C167" s="44"/>
@@ -5557,36 +5988,47 @@
       <c r="O167" s="44"/>
       <c r="P167" s="46"/>
       <c r="Q167" s="45"/>
+      <c r="R167" s="34"/>
+      <c r="S167" s="34"/>
+      <c r="T167" s="34"/>
       <c r="U167" s="45"/>
-    </row>
-    <row r="168" spans="1:21">
-      <c r="A168" s="44"/>
-      <c r="B168" s="44"/>
-      <c r="C168" s="44"/>
-      <c r="D168" s="45"/>
-      <c r="E168" s="44"/>
-      <c r="F168" s="44"/>
-      <c r="G168" s="44"/>
-      <c r="H168" s="46"/>
-      <c r="I168" s="44"/>
-      <c r="J168" s="46"/>
-      <c r="K168" s="48"/>
-      <c r="L168" s="44"/>
-      <c r="M168" s="44"/>
-      <c r="N168" s="44"/>
-      <c r="O168" s="44"/>
-      <c r="P168" s="46"/>
-      <c r="Q168" s="45"/>
-      <c r="U168" s="45"/>
+      <c r="V167"/>
+    </row>
+    <row r="168" spans="1:23" s="1" customFormat="1">
+      <c r="A168" s="32"/>
+      <c r="B168" s="32"/>
+      <c r="C168" s="32"/>
+      <c r="D168" s="33"/>
+      <c r="E168" s="32"/>
+      <c r="F168" s="32"/>
+      <c r="G168" s="32"/>
+      <c r="H168" s="33"/>
+      <c r="I168" s="32"/>
+      <c r="J168" s="33"/>
+      <c r="K168" s="33"/>
+      <c r="L168" s="32"/>
+      <c r="M168" s="32"/>
+      <c r="N168" s="32"/>
+      <c r="O168" s="33"/>
+      <c r="P168" s="33"/>
+      <c r="Q168" s="33"/>
+      <c r="R168" s="34"/>
+      <c r="S168" s="34"/>
+      <c r="T168" s="34"/>
+      <c r="U168" s="33"/>
+      <c r="V168"/>
     </row>
   </sheetData>
   <phoneticPr fontId="15" type="noConversion"/>
   <dataValidations count="7">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T14:T1048576 T9:T10 G1:G1048576 I1:I1048576 T1:T5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T13:T1048576 T8:T9 T1:T2 V3:V5 G1:G1048576 I1:I1048576">
       <formula1>"是,否"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O1:O1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O1:O2 O6:O1048576 P3:P5">
       <formula1>"通过,不通过"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q1:Q2 Q6:Q1048576 R3:R5">
+      <formula1>"能,否"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M1:M1048576">
       <formula1>"架构组,EQ组,捷豹组,马丁组,磐石组,极光组,移动组,野帝组"</formula1>
@@ -5600,10 +6042,10 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C1048576">
       <formula1>"紧急,不紧急"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q1:Q1048576">
-      <formula1>"能,否"</formula1>
-    </dataValidation>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="S4" r:id="rId1" display="http://192.168.60.204/browse/TOPT-725"/>
+  </hyperlinks>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
   <extLst>
@@ -5615,11 +6057,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="R4" sqref="R4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="26.125" defaultRowHeight="13.5"/>
@@ -5699,56 +6141,56 @@
       </c>
     </row>
     <row r="2" spans="1:18" ht="30" customHeight="1">
-      <c r="A2" s="108" t="s">
+      <c r="A2" s="103" t="s">
         <v>83</v>
       </c>
-      <c r="B2" s="109" t="s">
+      <c r="B2" s="104" t="s">
         <v>84</v>
       </c>
-      <c r="C2" s="109"/>
-      <c r="D2" s="110" t="s">
+      <c r="C2" s="104"/>
+      <c r="D2" s="105" t="s">
         <v>85</v>
       </c>
-      <c r="E2" s="109" t="s">
+      <c r="E2" s="104" t="s">
         <v>86</v>
       </c>
-      <c r="F2" s="111" t="s">
+      <c r="F2" s="106" t="s">
         <v>87</v>
       </c>
-      <c r="G2" s="112" t="s">
+      <c r="G2" s="107" t="s">
         <v>88</v>
       </c>
-      <c r="H2" s="113" t="s">
+      <c r="H2" s="108" t="s">
         <v>70</v>
       </c>
       <c r="I2" s="68" t="s">
         <v>71</v>
       </c>
-      <c r="J2" s="114" t="s">
+      <c r="J2" s="109" t="s">
         <v>89</v>
       </c>
       <c r="K2" s="70" t="s">
         <v>72</v>
       </c>
-      <c r="L2" s="114" t="s">
+      <c r="L2" s="109" t="s">
         <v>90</v>
       </c>
-      <c r="M2" s="114" t="s">
+      <c r="M2" s="109" t="s">
         <v>91</v>
       </c>
-      <c r="N2" s="114" t="s">
+      <c r="N2" s="109" t="s">
         <v>73</v>
       </c>
-      <c r="O2" s="115" t="s">
+      <c r="O2" s="110" t="s">
         <v>92</v>
       </c>
-      <c r="P2" s="116" t="s">
+      <c r="P2" s="111" t="s">
         <v>71</v>
       </c>
-      <c r="Q2" s="115" t="s">
+      <c r="Q2" s="110" t="s">
         <v>93</v>
       </c>
-      <c r="R2" s="115"/>
+      <c r="R2" s="110"/>
     </row>
     <row r="3" spans="1:18" ht="30" customHeight="1">
       <c r="A3" s="62"/>
@@ -5803,7 +6245,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5823,19 +6265,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="20.25">
-      <c r="A1" s="117" t="s">
+      <c r="A1" s="119" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="118"/>
-      <c r="C1" s="118"/>
-      <c r="D1" s="118"/>
-      <c r="E1" s="118"/>
-      <c r="F1" s="118"/>
-      <c r="G1" s="118"/>
-      <c r="H1" s="118"/>
-      <c r="I1" s="118"/>
-      <c r="J1" s="118"/>
-      <c r="K1" s="118"/>
+      <c r="B1" s="120"/>
+      <c r="C1" s="120"/>
+      <c r="D1" s="120"/>
+      <c r="E1" s="120"/>
+      <c r="F1" s="120"/>
+      <c r="G1" s="120"/>
+      <c r="H1" s="120"/>
+      <c r="I1" s="120"/>
+      <c r="J1" s="120"/>
+      <c r="K1" s="120"/>
     </row>
     <row r="2" spans="1:11" ht="17.25">
       <c r="A2" s="18" t="s">
@@ -5873,8 +6315,8 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="17.25">
-      <c r="A3" s="119"/>
-      <c r="B3" s="119"/>
+      <c r="A3" s="121"/>
+      <c r="B3" s="121"/>
       <c r="C3" s="20"/>
       <c r="D3" s="21"/>
       <c r="E3" s="21"/>
@@ -5886,8 +6328,8 @@
       <c r="K3" s="28"/>
     </row>
     <row r="4" spans="1:11" ht="17.25">
-      <c r="A4" s="120"/>
-      <c r="B4" s="121"/>
+      <c r="A4" s="122"/>
+      <c r="B4" s="123"/>
       <c r="C4" s="20"/>
       <c r="D4" s="21"/>
       <c r="E4" s="21"/>
@@ -5899,8 +6341,8 @@
       <c r="K4" s="28"/>
     </row>
     <row r="5" spans="1:11" ht="17.25">
-      <c r="A5" s="119"/>
-      <c r="B5" s="119"/>
+      <c r="A5" s="121"/>
+      <c r="B5" s="121"/>
       <c r="C5" s="20"/>
       <c r="D5" s="21"/>
       <c r="E5" s="21"/>
@@ -5912,8 +6354,8 @@
       <c r="K5" s="28"/>
     </row>
     <row r="6" spans="1:11" ht="17.25">
-      <c r="A6" s="121"/>
-      <c r="B6" s="121"/>
+      <c r="A6" s="123"/>
+      <c r="B6" s="123"/>
       <c r="C6" s="20"/>
       <c r="D6" s="21"/>
       <c r="E6" s="21"/>
@@ -5925,8 +6367,8 @@
       <c r="K6" s="28"/>
     </row>
     <row r="7" spans="1:11" ht="17.25">
-      <c r="A7" s="121"/>
-      <c r="B7" s="121"/>
+      <c r="A7" s="123"/>
+      <c r="B7" s="123"/>
       <c r="C7" s="20"/>
       <c r="D7" s="21"/>
       <c r="E7" s="21"/>
@@ -5938,8 +6380,8 @@
       <c r="K7" s="28"/>
     </row>
     <row r="8" spans="1:11" ht="17.25">
-      <c r="A8" s="121"/>
-      <c r="B8" s="121"/>
+      <c r="A8" s="123"/>
+      <c r="B8" s="123"/>
       <c r="C8" s="20"/>
       <c r="D8" s="21"/>
       <c r="E8" s="21"/>
@@ -5951,8 +6393,8 @@
       <c r="K8" s="28"/>
     </row>
     <row r="9" spans="1:11" ht="17.25">
-      <c r="A9" s="121"/>
-      <c r="B9" s="121"/>
+      <c r="A9" s="123"/>
+      <c r="B9" s="123"/>
       <c r="C9" s="20"/>
       <c r="D9" s="21"/>
       <c r="E9" s="21"/>
@@ -5964,8 +6406,8 @@
       <c r="K9" s="28"/>
     </row>
     <row r="10" spans="1:11" ht="17.25">
-      <c r="A10" s="120"/>
-      <c r="B10" s="120"/>
+      <c r="A10" s="122"/>
+      <c r="B10" s="122"/>
       <c r="C10" s="20"/>
       <c r="D10" s="21"/>
       <c r="E10" s="21"/>
@@ -6008,7 +6450,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6031,36 +6473,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="122" t="s">
+      <c r="A1" s="124" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="122"/>
-      <c r="C1" s="122"/>
-      <c r="D1" s="122"/>
-      <c r="E1" s="122"/>
-      <c r="F1" s="122"/>
-      <c r="G1" s="122"/>
-      <c r="H1" s="122"/>
-      <c r="I1" s="122"/>
-      <c r="J1" s="122"/>
-      <c r="K1" s="122"/>
-      <c r="L1" s="122"/>
-      <c r="M1" s="123"/>
+      <c r="B1" s="124"/>
+      <c r="C1" s="124"/>
+      <c r="D1" s="124"/>
+      <c r="E1" s="124"/>
+      <c r="F1" s="124"/>
+      <c r="G1" s="124"/>
+      <c r="H1" s="124"/>
+      <c r="I1" s="124"/>
+      <c r="J1" s="124"/>
+      <c r="K1" s="124"/>
+      <c r="L1" s="124"/>
+      <c r="M1" s="125"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="124"/>
-      <c r="B2" s="124"/>
-      <c r="C2" s="124"/>
-      <c r="D2" s="124"/>
-      <c r="E2" s="124"/>
-      <c r="F2" s="124"/>
-      <c r="G2" s="124"/>
-      <c r="H2" s="124"/>
-      <c r="I2" s="124"/>
-      <c r="J2" s="124"/>
-      <c r="K2" s="124"/>
-      <c r="L2" s="124"/>
-      <c r="M2" s="125"/>
+      <c r="A2" s="126"/>
+      <c r="B2" s="126"/>
+      <c r="C2" s="126"/>
+      <c r="D2" s="126"/>
+      <c r="E2" s="126"/>
+      <c r="F2" s="126"/>
+      <c r="G2" s="126"/>
+      <c r="H2" s="126"/>
+      <c r="I2" s="126"/>
+      <c r="J2" s="126"/>
+      <c r="K2" s="126"/>
+      <c r="L2" s="126"/>
+      <c r="M2" s="127"/>
     </row>
     <row r="3" spans="1:13" ht="16.5">
       <c r="A3" s="8" t="s">
@@ -6327,7 +6769,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6350,36 +6792,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="122" t="s">
+      <c r="A1" s="124" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="122"/>
-      <c r="C1" s="122"/>
-      <c r="D1" s="122"/>
-      <c r="E1" s="122"/>
-      <c r="F1" s="122"/>
-      <c r="G1" s="122"/>
-      <c r="H1" s="122"/>
-      <c r="I1" s="122"/>
-      <c r="J1" s="122"/>
-      <c r="K1" s="122"/>
-      <c r="L1" s="122"/>
-      <c r="M1" s="123"/>
+      <c r="B1" s="124"/>
+      <c r="C1" s="124"/>
+      <c r="D1" s="124"/>
+      <c r="E1" s="124"/>
+      <c r="F1" s="124"/>
+      <c r="G1" s="124"/>
+      <c r="H1" s="124"/>
+      <c r="I1" s="124"/>
+      <c r="J1" s="124"/>
+      <c r="K1" s="124"/>
+      <c r="L1" s="124"/>
+      <c r="M1" s="125"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="124"/>
-      <c r="B2" s="124"/>
-      <c r="C2" s="124"/>
-      <c r="D2" s="124"/>
-      <c r="E2" s="124"/>
-      <c r="F2" s="124"/>
-      <c r="G2" s="124"/>
-      <c r="H2" s="124"/>
-      <c r="I2" s="124"/>
-      <c r="J2" s="124"/>
-      <c r="K2" s="124"/>
-      <c r="L2" s="124"/>
-      <c r="M2" s="125"/>
+      <c r="A2" s="126"/>
+      <c r="B2" s="126"/>
+      <c r="C2" s="126"/>
+      <c r="D2" s="126"/>
+      <c r="E2" s="126"/>
+      <c r="F2" s="126"/>
+      <c r="G2" s="126"/>
+      <c r="H2" s="126"/>
+      <c r="I2" s="126"/>
+      <c r="J2" s="126"/>
+      <c r="K2" s="126"/>
+      <c r="L2" s="126"/>
+      <c r="M2" s="127"/>
     </row>
     <row r="3" spans="1:13" ht="16.5">
       <c r="A3" s="8" t="s">
@@ -6646,7 +7088,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6669,36 +7111,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="122" t="s">
+      <c r="A1" s="124" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="122"/>
-      <c r="C1" s="122"/>
-      <c r="D1" s="122"/>
-      <c r="E1" s="122"/>
-      <c r="F1" s="122"/>
-      <c r="G1" s="122"/>
-      <c r="H1" s="122"/>
-      <c r="I1" s="122"/>
-      <c r="J1" s="122"/>
-      <c r="K1" s="122"/>
-      <c r="L1" s="122"/>
-      <c r="M1" s="123"/>
+      <c r="B1" s="124"/>
+      <c r="C1" s="124"/>
+      <c r="D1" s="124"/>
+      <c r="E1" s="124"/>
+      <c r="F1" s="124"/>
+      <c r="G1" s="124"/>
+      <c r="H1" s="124"/>
+      <c r="I1" s="124"/>
+      <c r="J1" s="124"/>
+      <c r="K1" s="124"/>
+      <c r="L1" s="124"/>
+      <c r="M1" s="125"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="124"/>
-      <c r="B2" s="124"/>
-      <c r="C2" s="124"/>
-      <c r="D2" s="124"/>
-      <c r="E2" s="124"/>
-      <c r="F2" s="124"/>
-      <c r="G2" s="124"/>
-      <c r="H2" s="124"/>
-      <c r="I2" s="124"/>
-      <c r="J2" s="124"/>
-      <c r="K2" s="124"/>
-      <c r="L2" s="124"/>
-      <c r="M2" s="125"/>
+      <c r="A2" s="126"/>
+      <c r="B2" s="126"/>
+      <c r="C2" s="126"/>
+      <c r="D2" s="126"/>
+      <c r="E2" s="126"/>
+      <c r="F2" s="126"/>
+      <c r="G2" s="126"/>
+      <c r="H2" s="126"/>
+      <c r="I2" s="126"/>
+      <c r="J2" s="126"/>
+      <c r="K2" s="126"/>
+      <c r="L2" s="126"/>
+      <c r="M2" s="127"/>
     </row>
     <row r="3" spans="1:13" ht="16.5">
       <c r="A3" s="8" t="s">
@@ -6965,7 +7407,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6990,36 +7432,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="122" t="s">
+      <c r="A1" s="124" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="122"/>
-      <c r="C1" s="122"/>
-      <c r="D1" s="122"/>
-      <c r="E1" s="122"/>
-      <c r="F1" s="122"/>
-      <c r="G1" s="122"/>
-      <c r="H1" s="122"/>
-      <c r="I1" s="122"/>
-      <c r="J1" s="122"/>
-      <c r="K1" s="122"/>
-      <c r="L1" s="122"/>
-      <c r="M1" s="123"/>
+      <c r="B1" s="124"/>
+      <c r="C1" s="124"/>
+      <c r="D1" s="124"/>
+      <c r="E1" s="124"/>
+      <c r="F1" s="124"/>
+      <c r="G1" s="124"/>
+      <c r="H1" s="124"/>
+      <c r="I1" s="124"/>
+      <c r="J1" s="124"/>
+      <c r="K1" s="124"/>
+      <c r="L1" s="124"/>
+      <c r="M1" s="125"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="124"/>
-      <c r="B2" s="124"/>
-      <c r="C2" s="124"/>
-      <c r="D2" s="124"/>
-      <c r="E2" s="124"/>
-      <c r="F2" s="124"/>
-      <c r="G2" s="124"/>
-      <c r="H2" s="124"/>
-      <c r="I2" s="124"/>
-      <c r="J2" s="124"/>
-      <c r="K2" s="124"/>
-      <c r="L2" s="124"/>
-      <c r="M2" s="125"/>
+      <c r="A2" s="126"/>
+      <c r="B2" s="126"/>
+      <c r="C2" s="126"/>
+      <c r="D2" s="126"/>
+      <c r="E2" s="126"/>
+      <c r="F2" s="126"/>
+      <c r="G2" s="126"/>
+      <c r="H2" s="126"/>
+      <c r="I2" s="126"/>
+      <c r="J2" s="126"/>
+      <c r="K2" s="126"/>
+      <c r="L2" s="126"/>
+      <c r="M2" s="127"/>
     </row>
     <row r="3" spans="1:13" ht="16.5">
       <c r="A3" s="8" t="s">
@@ -7286,7 +7728,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/VersionRecords/Version 5.2.10 20170209/版本Bug和特性计划及评审表v5.2.10_架构组.xlsx
+++ b/VersionRecords/Version 5.2.10 20170209/版本Bug和特性计划及评审表v5.2.10_架构组.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21750" windowHeight="6180" tabRatio="813"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21750" windowHeight="6600" tabRatio="813" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="01 版本5.2.10新特性|Fix Bug" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
   <calcPr calcId="0" concurrentCalc="0"/>
-  <oleSize ref="A1:N13"/>
+  <oleSize ref="A1:L16"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="119">
   <si>
     <t>No</t>
   </si>
@@ -348,10 +348,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>com.mogoroom.tasktracker.task.TPMonitorTask</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
     <t>TPMonitorTask</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -450,6 +446,45 @@
   </si>
   <si>
     <t>http://192.168.60.204/browse/FRAME-128</t>
+  </si>
+  <si>
+    <t>短信到达率报告</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>冯银鹏</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>SMSReportTask</t>
+  </si>
+  <si>
+    <t>com.mogoroom.tasktracker.task.TPMonitorTask</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.mogoroom.tasktracker.task.SMSReportTask</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"taskImpl":"com.mogoroom.tasktracker.task.SMSReportTask"}</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>每天上午1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>0点</t>
+    </r>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1002,7 +1037,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="128">
+  <cellXfs count="129">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1386,6 +1421,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="30">
@@ -1790,7 +1828,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W168"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="T4" sqref="T4"/>
     </sheetView>
   </sheetViews>
@@ -1939,7 +1977,7 @@
       </c>
       <c r="R2" s="93"/>
       <c r="S2" s="93" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="T2" s="93" t="s">
         <v>71</v>
@@ -1952,19 +1990,19 @@
         <v>2</v>
       </c>
       <c r="B3" s="80" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C3" s="80" t="s">
         <v>75</v>
       </c>
       <c r="D3" s="112" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E3" s="81" t="s">
         <v>68</v>
       </c>
       <c r="F3" s="81" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G3" s="81" t="s">
         <v>69</v>
@@ -1973,27 +2011,27 @@
         <v>42775</v>
       </c>
       <c r="I3" s="81" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J3" s="84">
         <v>42775</v>
       </c>
       <c r="K3" s="81"/>
       <c r="L3" s="86" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="M3" s="81" t="s">
         <v>78</v>
       </c>
       <c r="N3" s="81" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O3" s="81"/>
       <c r="P3" s="86"/>
       <c r="Q3" s="84"/>
       <c r="R3" s="86"/>
       <c r="S3" s="113" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="T3" s="113"/>
       <c r="U3" s="114"/>
@@ -2008,16 +2046,16 @@
         <v>67</v>
       </c>
       <c r="C4" s="80" t="s">
+        <v>99</v>
+      </c>
+      <c r="D4" s="112" t="s">
         <v>100</v>
-      </c>
-      <c r="D4" s="112" t="s">
-        <v>101</v>
       </c>
       <c r="E4" s="81" t="s">
         <v>68</v>
       </c>
       <c r="F4" s="81" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G4" s="81" t="s">
         <v>69</v>
@@ -2033,20 +2071,20 @@
       </c>
       <c r="K4" s="81"/>
       <c r="L4" s="86" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="M4" s="81" t="s">
         <v>78</v>
       </c>
       <c r="N4" s="81" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O4" s="81"/>
       <c r="P4" s="86"/>
       <c r="Q4" s="84"/>
       <c r="R4" s="86"/>
       <c r="S4" s="117" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="T4" s="113"/>
       <c r="U4" s="114"/>
@@ -2061,16 +2099,16 @@
         <v>67</v>
       </c>
       <c r="C5" s="80" t="s">
+        <v>104</v>
+      </c>
+      <c r="D5" s="116" t="s">
         <v>105</v>
       </c>
-      <c r="D5" s="116" t="s">
+      <c r="E5" s="81" t="s">
+        <v>109</v>
+      </c>
+      <c r="F5" s="81" t="s">
         <v>106</v>
-      </c>
-      <c r="E5" s="81" t="s">
-        <v>110</v>
-      </c>
-      <c r="F5" s="81" t="s">
-        <v>107</v>
       </c>
       <c r="G5" s="81" t="s">
         <v>69</v>
@@ -2086,20 +2124,20 @@
       </c>
       <c r="K5" s="81"/>
       <c r="L5" s="86" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M5" s="81" t="s">
         <v>78</v>
       </c>
       <c r="N5" s="81" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O5" s="81"/>
       <c r="P5" s="86"/>
       <c r="Q5" s="84"/>
       <c r="R5" s="86"/>
       <c r="S5" s="118" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="T5" s="113"/>
       <c r="U5" s="114"/>
@@ -6060,8 +6098,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="Q3" sqref="Q3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="26.125" defaultRowHeight="13.5"/>
@@ -6167,49 +6205,79 @@
         <v>71</v>
       </c>
       <c r="J2" s="109" t="s">
-        <v>89</v>
+        <v>115</v>
       </c>
       <c r="K2" s="70" t="s">
         <v>72</v>
       </c>
       <c r="L2" s="109" t="s">
+        <v>89</v>
+      </c>
+      <c r="M2" s="109" t="s">
         <v>90</v>
-      </c>
-      <c r="M2" s="109" t="s">
-        <v>91</v>
       </c>
       <c r="N2" s="109" t="s">
         <v>73</v>
       </c>
       <c r="O2" s="110" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P2" s="111" t="s">
         <v>71</v>
       </c>
       <c r="Q2" s="110" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="R2" s="110"/>
     </row>
     <row r="3" spans="1:18" ht="30" customHeight="1">
-      <c r="A3" s="62"/>
-      <c r="B3" s="63"/>
+      <c r="A3" s="103" t="s">
+        <v>83</v>
+      </c>
+      <c r="B3" s="104" t="s">
+        <v>84</v>
+      </c>
       <c r="C3" s="63"/>
-      <c r="D3" s="64"/>
-      <c r="E3" s="63"/>
-      <c r="F3" s="65"/>
-      <c r="G3" s="66"/>
-      <c r="H3" s="67"/>
-      <c r="I3" s="68"/>
-      <c r="J3" s="69"/>
+      <c r="D3" s="105" t="s">
+        <v>85</v>
+      </c>
+      <c r="E3" s="104" t="s">
+        <v>112</v>
+      </c>
+      <c r="F3" s="106" t="s">
+        <v>87</v>
+      </c>
+      <c r="G3" s="128" t="s">
+        <v>113</v>
+      </c>
+      <c r="H3" s="108" t="s">
+        <v>70</v>
+      </c>
+      <c r="I3" s="68" t="s">
+        <v>71</v>
+      </c>
+      <c r="J3" s="109" t="s">
+        <v>116</v>
+      </c>
       <c r="K3" s="70"/>
-      <c r="L3" s="69"/>
-      <c r="M3" s="69"/>
-      <c r="N3" s="69"/>
-      <c r="O3" s="71"/>
-      <c r="P3" s="72"/>
-      <c r="Q3" s="71"/>
+      <c r="L3" s="69" t="s">
+        <v>114</v>
+      </c>
+      <c r="M3" s="109" t="s">
+        <v>117</v>
+      </c>
+      <c r="N3" s="109" t="s">
+        <v>73</v>
+      </c>
+      <c r="O3" s="110" t="s">
+        <v>118</v>
+      </c>
+      <c r="P3" s="111" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q3" s="110" t="s">
+        <v>92</v>
+      </c>
       <c r="R3" s="71"/>
     </row>
     <row r="4" spans="1:18" ht="30" customHeight="1">

--- a/VersionRecords/Version 5.2.10 20170209/版本Bug和特性计划及评审表v5.2.10_架构组.xlsx
+++ b/VersionRecords/Version 5.2.10 20170209/版本Bug和特性计划及评审表v5.2.10_架构组.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21750" windowHeight="6180" tabRatio="813"/>
@@ -24,8 +24,7 @@
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="6" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
-  <calcPr calcId="0" concurrentCalc="0"/>
-  <oleSize ref="A1:N13"/>
+  <calcPr calcId="125725" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -449,13 +448,13 @@
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
-    <t>http://192.168.60.204/browse/FRAME-128</t>
+    <t>FRAME-128</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fonts count="37">
     <font>
       <sz val="11"/>
@@ -1002,7 +1001,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="128">
+  <cellXfs count="129">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1386,6 +1385,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="11" xfId="29" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="30">
@@ -1410,6 +1412,7 @@
     <cellStyle name="超链接" xfId="27" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="29" builtinId="8"/>
     <cellStyle name="甘特图" xfId="2"/>
+    <cellStyle name="强调文字颜色 4" xfId="8" builtinId="41"/>
     <cellStyle name="已访问的超链接" xfId="14" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="16" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="18" builtinId="9" hidden="1"/>
@@ -1418,7 +1421,6 @@
     <cellStyle name="已访问的超链接" xfId="24" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="26" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="28" builtinId="9" hidden="1"/>
-    <cellStyle name="着色 4" xfId="8" builtinId="41"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -1787,11 +1789,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W168"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:W167"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T4" sqref="T4"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="S2" sqref="S2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1813,7 +1815,7 @@
     <col min="16" max="16" width="12.5" style="33" customWidth="1"/>
     <col min="17" max="17" width="7.625" style="33" customWidth="1"/>
     <col min="18" max="18" width="12" style="34" customWidth="1"/>
-    <col min="19" max="19" width="17" style="34" customWidth="1"/>
+    <col min="19" max="19" width="20.375" style="34" customWidth="1"/>
     <col min="20" max="20" width="14.125" style="34" customWidth="1"/>
     <col min="21" max="21" width="41.875" style="33" customWidth="1"/>
     <col min="22" max="22" width="8.875" customWidth="1"/>
@@ -1885,7 +1887,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:23" s="31" customFormat="1" ht="24.75" customHeight="1">
+    <row r="2" spans="1:23" s="31" customFormat="1" ht="42" customHeight="1">
       <c r="A2" s="80">
         <v>1</v>
       </c>
@@ -1938,7 +1940,7 @@
         <v>82</v>
       </c>
       <c r="R2" s="93"/>
-      <c r="S2" s="93" t="s">
+      <c r="S2" s="128" t="s">
         <v>112</v>
       </c>
       <c r="T2" s="93" t="s">
@@ -2106,7 +2108,7 @@
       <c r="V5" s="115"/>
       <c r="W5" s="116"/>
     </row>
-    <row r="6" spans="1:23" s="1" customFormat="1" ht="21.75" customHeight="1">
+    <row r="6" spans="1:23" ht="21.75" customHeight="1">
       <c r="A6" s="80"/>
       <c r="B6" s="36"/>
       <c r="C6" s="36"/>
@@ -2128,9 +2130,8 @@
       <c r="S6" s="44"/>
       <c r="T6" s="44"/>
       <c r="U6" s="45"/>
-      <c r="V6"/>
-    </row>
-    <row r="7" spans="1:23" s="1" customFormat="1" ht="16.5">
+    </row>
+    <row r="7" spans="1:23" ht="16.5">
       <c r="A7" s="80"/>
       <c r="B7" s="36"/>
       <c r="C7" s="36"/>
@@ -2152,7 +2153,6 @@
       <c r="S7" s="44"/>
       <c r="T7" s="44"/>
       <c r="U7" s="45"/>
-      <c r="V7"/>
     </row>
     <row r="8" spans="1:23" s="31" customFormat="1" ht="18" customHeight="1">
       <c r="A8" s="80"/>
@@ -2202,7 +2202,7 @@
       <c r="U9" s="100"/>
       <c r="V9" s="51"/>
     </row>
-    <row r="10" spans="1:23" s="1" customFormat="1" ht="16.5">
+    <row r="10" spans="1:23" ht="16.5">
       <c r="A10" s="80"/>
       <c r="B10" s="80"/>
       <c r="C10" s="80"/>
@@ -2224,9 +2224,8 @@
       <c r="S10" s="44"/>
       <c r="T10" s="44"/>
       <c r="U10" s="45"/>
-      <c r="V10"/>
-    </row>
-    <row r="11" spans="1:23" s="1" customFormat="1" ht="16.5">
+    </row>
+    <row r="11" spans="1:23" ht="16.5">
       <c r="A11" s="80"/>
       <c r="B11" s="80"/>
       <c r="C11" s="80"/>
@@ -2248,9 +2247,8 @@
       <c r="S11" s="44"/>
       <c r="T11" s="44"/>
       <c r="U11" s="45"/>
-      <c r="V11"/>
-    </row>
-    <row r="12" spans="1:23" s="1" customFormat="1" ht="16.5">
+    </row>
+    <row r="12" spans="1:23" ht="16.5">
       <c r="A12" s="80"/>
       <c r="B12" s="80"/>
       <c r="C12" s="80"/>
@@ -2272,7 +2270,6 @@
       <c r="S12" s="44"/>
       <c r="T12" s="44"/>
       <c r="U12" s="45"/>
-      <c r="V12"/>
     </row>
     <row r="13" spans="1:23" s="31" customFormat="1" ht="16.5">
       <c r="A13" s="73"/>
@@ -2370,7 +2367,7 @@
       <c r="U16" s="78"/>
       <c r="V16" s="51"/>
     </row>
-    <row r="17" spans="1:23" s="31" customFormat="1" ht="16.5">
+    <row r="17" spans="1:22" s="31" customFormat="1" ht="16.5">
       <c r="A17" s="73"/>
       <c r="B17" s="73"/>
       <c r="C17" s="73"/>
@@ -2394,7 +2391,7 @@
       <c r="U17" s="78"/>
       <c r="V17" s="51"/>
     </row>
-    <row r="18" spans="1:23" s="31" customFormat="1" ht="16.5">
+    <row r="18" spans="1:22" s="31" customFormat="1" ht="16.5">
       <c r="A18" s="73"/>
       <c r="B18" s="73"/>
       <c r="C18" s="73"/>
@@ -2418,7 +2415,7 @@
       <c r="U18" s="78"/>
       <c r="V18" s="51"/>
     </row>
-    <row r="19" spans="1:23" s="1" customFormat="1" ht="16.5">
+    <row r="19" spans="1:22" ht="16.5">
       <c r="A19" s="36"/>
       <c r="B19" s="36"/>
       <c r="C19" s="36"/>
@@ -2440,9 +2437,8 @@
       <c r="S19" s="44"/>
       <c r="T19" s="44"/>
       <c r="U19" s="52"/>
-      <c r="V19"/>
-    </row>
-    <row r="20" spans="1:23" s="1" customFormat="1" ht="16.5">
+    </row>
+    <row r="20" spans="1:22" ht="16.5">
       <c r="A20" s="36"/>
       <c r="B20" s="36"/>
       <c r="C20" s="36"/>
@@ -2464,9 +2460,8 @@
       <c r="S20" s="44"/>
       <c r="T20" s="44"/>
       <c r="U20" s="52"/>
-      <c r="V20"/>
-    </row>
-    <row r="21" spans="1:23" s="1" customFormat="1" ht="16.5">
+    </row>
+    <row r="21" spans="1:22" ht="16.5">
       <c r="A21" s="36"/>
       <c r="B21" s="36"/>
       <c r="C21" s="36"/>
@@ -2488,9 +2483,8 @@
       <c r="S21" s="54"/>
       <c r="T21" s="54"/>
       <c r="U21" s="55"/>
-      <c r="V21"/>
-    </row>
-    <row r="22" spans="1:23" s="1" customFormat="1" ht="16.5">
+    </row>
+    <row r="22" spans="1:22" ht="16.5">
       <c r="A22" s="36"/>
       <c r="B22" s="36"/>
       <c r="C22" s="36"/>
@@ -2512,9 +2506,8 @@
       <c r="S22" s="56"/>
       <c r="T22" s="56"/>
       <c r="U22" s="55"/>
-      <c r="V22"/>
-    </row>
-    <row r="23" spans="1:23" s="1" customFormat="1" ht="16.5">
+    </row>
+    <row r="23" spans="1:22" ht="16.5">
       <c r="A23" s="36"/>
       <c r="B23" s="36"/>
       <c r="C23" s="36"/>
@@ -2536,9 +2529,8 @@
       <c r="S23" s="56"/>
       <c r="T23" s="57"/>
       <c r="U23" s="55"/>
-      <c r="V23"/>
-    </row>
-    <row r="24" spans="1:23" s="1" customFormat="1" ht="16.5">
+    </row>
+    <row r="24" spans="1:22" ht="16.5">
       <c r="A24" s="36"/>
       <c r="B24" s="36"/>
       <c r="C24" s="36"/>
@@ -2560,9 +2552,8 @@
       <c r="S24" s="56"/>
       <c r="T24" s="56"/>
       <c r="U24" s="55"/>
-      <c r="V24"/>
-    </row>
-    <row r="25" spans="1:23" s="1" customFormat="1" ht="16.5">
+    </row>
+    <row r="25" spans="1:22" ht="16.5">
       <c r="A25" s="36"/>
       <c r="B25" s="36"/>
       <c r="C25" s="36"/>
@@ -2584,9 +2575,8 @@
       <c r="S25" s="56"/>
       <c r="T25" s="56"/>
       <c r="U25" s="55"/>
-      <c r="V25"/>
-    </row>
-    <row r="26" spans="1:23" s="1" customFormat="1" ht="16.5">
+    </row>
+    <row r="26" spans="1:22" ht="16.5">
       <c r="A26" s="36"/>
       <c r="B26" s="36"/>
       <c r="C26" s="36"/>
@@ -2608,9 +2598,8 @@
       <c r="S26" s="53"/>
       <c r="T26" s="53"/>
       <c r="U26" s="47"/>
-      <c r="V26"/>
-    </row>
-    <row r="27" spans="1:23" s="1" customFormat="1" ht="16.5">
+    </row>
+    <row r="27" spans="1:22" ht="16.5">
       <c r="A27" s="36"/>
       <c r="B27" s="36"/>
       <c r="C27" s="36"/>
@@ -2632,9 +2621,8 @@
       <c r="S27" s="44"/>
       <c r="T27" s="44"/>
       <c r="U27" s="52"/>
-      <c r="V27"/>
-    </row>
-    <row r="28" spans="1:23" s="1" customFormat="1" ht="16.5">
+    </row>
+    <row r="28" spans="1:22" ht="16.5">
       <c r="A28" s="36"/>
       <c r="B28" s="36"/>
       <c r="C28" s="36"/>
@@ -2656,9 +2644,8 @@
       <c r="S28" s="44"/>
       <c r="T28" s="44"/>
       <c r="U28" s="52"/>
-      <c r="V28"/>
-    </row>
-    <row r="29" spans="1:23" s="1" customFormat="1" ht="16.5">
+    </row>
+    <row r="29" spans="1:22" ht="16.5">
       <c r="A29" s="36"/>
       <c r="B29" s="36"/>
       <c r="C29" s="36"/>
@@ -2680,9 +2667,8 @@
       <c r="S29" s="44"/>
       <c r="T29" s="44"/>
       <c r="U29" s="52"/>
-      <c r="V29"/>
-    </row>
-    <row r="30" spans="1:23" s="1" customFormat="1" ht="16.5">
+    </row>
+    <row r="30" spans="1:22" ht="16.5">
       <c r="A30" s="36"/>
       <c r="B30" s="36"/>
       <c r="C30" s="36"/>
@@ -2704,9 +2690,8 @@
       <c r="S30" s="56"/>
       <c r="T30" s="56"/>
       <c r="U30" s="55"/>
-      <c r="V30"/>
-    </row>
-    <row r="31" spans="1:23" s="1" customFormat="1" ht="16.5">
+    </row>
+    <row r="31" spans="1:22" ht="16.5">
       <c r="A31" s="36"/>
       <c r="B31" s="36"/>
       <c r="C31" s="36"/>
@@ -2728,9 +2713,8 @@
       <c r="S31" s="44"/>
       <c r="T31" s="44"/>
       <c r="U31" s="50"/>
-      <c r="V31"/>
-    </row>
-    <row r="32" spans="1:23" s="1" customFormat="1" ht="16.5">
+    </row>
+    <row r="32" spans="1:22" ht="16.5">
       <c r="A32" s="36"/>
       <c r="B32" s="36"/>
       <c r="C32" s="36"/>
@@ -2752,9 +2736,8 @@
       <c r="S32" s="44"/>
       <c r="T32" s="44"/>
       <c r="U32" s="52"/>
-      <c r="V32"/>
-    </row>
-    <row r="33" spans="1:23" s="1" customFormat="1" ht="16.5">
+    </row>
+    <row r="33" spans="1:21" ht="16.5">
       <c r="A33" s="36"/>
       <c r="B33" s="36"/>
       <c r="C33" s="36"/>
@@ -2776,9 +2759,8 @@
       <c r="S33" s="44"/>
       <c r="T33" s="44"/>
       <c r="U33" s="52"/>
-      <c r="V33"/>
-    </row>
-    <row r="34" spans="1:23" s="1" customFormat="1" ht="16.5">
+    </row>
+    <row r="34" spans="1:21" ht="16.5">
       <c r="A34" s="36"/>
       <c r="B34" s="36"/>
       <c r="C34" s="36"/>
@@ -2800,9 +2782,8 @@
       <c r="S34" s="44"/>
       <c r="T34" s="44"/>
       <c r="U34" s="52"/>
-      <c r="V34"/>
-    </row>
-    <row r="35" spans="1:23" s="1" customFormat="1" ht="16.5">
+    </row>
+    <row r="35" spans="1:21" ht="16.5">
       <c r="A35" s="36"/>
       <c r="B35" s="36"/>
       <c r="C35" s="36"/>
@@ -2824,9 +2805,8 @@
       <c r="S35" s="44"/>
       <c r="T35" s="44"/>
       <c r="U35" s="52"/>
-      <c r="V35"/>
-    </row>
-    <row r="36" spans="1:23" s="1" customFormat="1" ht="16.5">
+    </row>
+    <row r="36" spans="1:21" ht="16.5">
       <c r="A36" s="36"/>
       <c r="B36" s="36"/>
       <c r="C36" s="36"/>
@@ -2848,9 +2828,8 @@
       <c r="S36" s="44"/>
       <c r="T36" s="44"/>
       <c r="U36" s="52"/>
-      <c r="V36"/>
-    </row>
-    <row r="37" spans="1:23" s="1" customFormat="1" ht="16.5">
+    </row>
+    <row r="37" spans="1:21" ht="16.5">
       <c r="A37" s="36"/>
       <c r="B37" s="36"/>
       <c r="C37" s="36"/>
@@ -2872,9 +2851,8 @@
       <c r="S37" s="44"/>
       <c r="T37" s="44"/>
       <c r="U37" s="52"/>
-      <c r="V37"/>
-    </row>
-    <row r="38" spans="1:23" s="1" customFormat="1" ht="16.5">
+    </row>
+    <row r="38" spans="1:21" ht="16.5">
       <c r="A38" s="36"/>
       <c r="B38" s="36"/>
       <c r="C38" s="36"/>
@@ -2896,9 +2874,8 @@
       <c r="S38" s="44"/>
       <c r="T38" s="44"/>
       <c r="U38" s="52"/>
-      <c r="V38"/>
-    </row>
-    <row r="39" spans="1:23" s="1" customFormat="1" ht="16.5">
+    </row>
+    <row r="39" spans="1:21" ht="16.5">
       <c r="A39" s="36"/>
       <c r="B39" s="36"/>
       <c r="C39" s="36"/>
@@ -2920,9 +2897,8 @@
       <c r="S39" s="44"/>
       <c r="T39" s="44"/>
       <c r="U39" s="52"/>
-      <c r="V39"/>
-    </row>
-    <row r="40" spans="1:23" s="1" customFormat="1" ht="16.5">
+    </row>
+    <row r="40" spans="1:21" ht="16.5">
       <c r="A40" s="36"/>
       <c r="B40" s="36"/>
       <c r="C40" s="36"/>
@@ -2944,9 +2920,8 @@
       <c r="S40" s="44"/>
       <c r="T40" s="44"/>
       <c r="U40" s="52"/>
-      <c r="V40"/>
-    </row>
-    <row r="41" spans="1:23" s="1" customFormat="1" ht="16.5">
+    </row>
+    <row r="41" spans="1:21" ht="16.5">
       <c r="A41" s="36"/>
       <c r="B41" s="36"/>
       <c r="C41" s="36"/>
@@ -2968,9 +2943,8 @@
       <c r="S41" s="44"/>
       <c r="T41" s="44"/>
       <c r="U41" s="52"/>
-      <c r="V41"/>
-    </row>
-    <row r="42" spans="1:23" s="1" customFormat="1" ht="16.5">
+    </row>
+    <row r="42" spans="1:21" ht="16.5">
       <c r="A42" s="36"/>
       <c r="B42" s="36"/>
       <c r="C42" s="36"/>
@@ -2992,9 +2966,8 @@
       <c r="S42" s="53"/>
       <c r="T42" s="53"/>
       <c r="U42" s="52"/>
-      <c r="V42"/>
-    </row>
-    <row r="43" spans="1:23" s="1" customFormat="1" ht="16.5">
+    </row>
+    <row r="43" spans="1:21" ht="16.5">
       <c r="A43" s="36"/>
       <c r="B43" s="36"/>
       <c r="C43" s="36"/>
@@ -3016,9 +2989,8 @@
       <c r="S43" s="53"/>
       <c r="T43" s="53"/>
       <c r="U43" s="52"/>
-      <c r="V43"/>
-    </row>
-    <row r="44" spans="1:23" s="1" customFormat="1" ht="16.5">
+    </row>
+    <row r="44" spans="1:21" ht="16.5">
       <c r="A44" s="36"/>
       <c r="B44" s="36"/>
       <c r="C44" s="36"/>
@@ -3040,9 +3012,8 @@
       <c r="S44" s="44"/>
       <c r="T44" s="44"/>
       <c r="U44" s="45"/>
-      <c r="V44"/>
-    </row>
-    <row r="45" spans="1:23" s="1" customFormat="1" ht="16.5">
+    </row>
+    <row r="45" spans="1:21" ht="16.5">
       <c r="A45" s="36"/>
       <c r="B45" s="36"/>
       <c r="C45" s="36"/>
@@ -3064,9 +3035,8 @@
       <c r="S45" s="44"/>
       <c r="T45" s="44"/>
       <c r="U45" s="45"/>
-      <c r="V45"/>
-    </row>
-    <row r="46" spans="1:23" s="1" customFormat="1" ht="16.5">
+    </row>
+    <row r="46" spans="1:21" ht="16.5">
       <c r="A46" s="36"/>
       <c r="B46" s="36"/>
       <c r="C46" s="36"/>
@@ -3088,9 +3058,8 @@
       <c r="S46" s="44"/>
       <c r="T46" s="44"/>
       <c r="U46" s="45"/>
-      <c r="V46"/>
-    </row>
-    <row r="47" spans="1:23" s="1" customFormat="1" ht="16.5">
+    </row>
+    <row r="47" spans="1:21" ht="16.5">
       <c r="A47" s="36"/>
       <c r="B47" s="36"/>
       <c r="C47" s="36"/>
@@ -3112,9 +3081,8 @@
       <c r="S47" s="44"/>
       <c r="T47" s="44"/>
       <c r="U47" s="45"/>
-      <c r="V47"/>
-    </row>
-    <row r="48" spans="1:23" s="1" customFormat="1" ht="16.5">
+    </row>
+    <row r="48" spans="1:21" ht="16.5">
       <c r="A48" s="36"/>
       <c r="B48" s="36"/>
       <c r="C48" s="36"/>
@@ -3136,9 +3104,8 @@
       <c r="S48" s="44"/>
       <c r="T48" s="44"/>
       <c r="U48" s="45"/>
-      <c r="V48"/>
-    </row>
-    <row r="49" spans="1:23" s="1" customFormat="1" ht="16.5">
+    </row>
+    <row r="49" spans="1:21" ht="16.5">
       <c r="A49" s="36"/>
       <c r="B49" s="36"/>
       <c r="C49" s="36"/>
@@ -3160,9 +3127,8 @@
       <c r="S49" s="44"/>
       <c r="T49" s="44"/>
       <c r="U49" s="45"/>
-      <c r="V49"/>
-    </row>
-    <row r="50" spans="1:23" s="1" customFormat="1" ht="16.5">
+    </row>
+    <row r="50" spans="1:21" ht="16.5">
       <c r="A50" s="36"/>
       <c r="B50" s="36"/>
       <c r="C50" s="36"/>
@@ -3184,9 +3150,8 @@
       <c r="S50" s="44"/>
       <c r="T50" s="44"/>
       <c r="U50" s="45"/>
-      <c r="V50"/>
-    </row>
-    <row r="51" spans="1:23" s="1" customFormat="1" ht="16.5">
+    </row>
+    <row r="51" spans="1:21" ht="16.5">
       <c r="A51" s="44"/>
       <c r="B51" s="44"/>
       <c r="C51" s="44"/>
@@ -3208,9 +3173,8 @@
       <c r="S51" s="44"/>
       <c r="T51" s="44"/>
       <c r="U51" s="45"/>
-      <c r="V51"/>
-    </row>
-    <row r="52" spans="1:23" s="1" customFormat="1" ht="16.5">
+    </row>
+    <row r="52" spans="1:21" ht="16.5">
       <c r="A52" s="44"/>
       <c r="B52" s="44"/>
       <c r="C52" s="44"/>
@@ -3232,9 +3196,8 @@
       <c r="S52" s="44"/>
       <c r="T52" s="44"/>
       <c r="U52" s="45"/>
-      <c r="V52"/>
-    </row>
-    <row r="53" spans="1:23" s="1" customFormat="1" ht="16.5">
+    </row>
+    <row r="53" spans="1:21" ht="16.5">
       <c r="A53" s="44"/>
       <c r="B53" s="44"/>
       <c r="C53" s="44"/>
@@ -3256,9 +3219,8 @@
       <c r="S53" s="44"/>
       <c r="T53" s="44"/>
       <c r="U53" s="45"/>
-      <c r="V53"/>
-    </row>
-    <row r="54" spans="1:23" s="1" customFormat="1" ht="16.5">
+    </row>
+    <row r="54" spans="1:21" ht="16.5">
       <c r="A54" s="44"/>
       <c r="B54" s="44"/>
       <c r="C54" s="44"/>
@@ -3280,9 +3242,8 @@
       <c r="S54" s="44"/>
       <c r="T54" s="44"/>
       <c r="U54" s="45"/>
-      <c r="V54"/>
-    </row>
-    <row r="55" spans="1:23" s="1" customFormat="1" ht="16.5">
+    </row>
+    <row r="55" spans="1:21" ht="16.5">
       <c r="A55" s="44"/>
       <c r="B55" s="44"/>
       <c r="C55" s="44"/>
@@ -3304,9 +3265,8 @@
       <c r="S55" s="44"/>
       <c r="T55" s="44"/>
       <c r="U55" s="45"/>
-      <c r="V55"/>
-    </row>
-    <row r="56" spans="1:23" s="1" customFormat="1" ht="16.5">
+    </row>
+    <row r="56" spans="1:21" ht="16.5">
       <c r="A56" s="44"/>
       <c r="B56" s="44"/>
       <c r="C56" s="44"/>
@@ -3328,9 +3288,8 @@
       <c r="S56" s="44"/>
       <c r="T56" s="44"/>
       <c r="U56" s="45"/>
-      <c r="V56"/>
-    </row>
-    <row r="57" spans="1:23" s="1" customFormat="1" ht="16.5">
+    </row>
+    <row r="57" spans="1:21" ht="16.5">
       <c r="A57" s="44"/>
       <c r="B57" s="44"/>
       <c r="C57" s="44"/>
@@ -3352,9 +3311,8 @@
       <c r="S57" s="44"/>
       <c r="T57" s="44"/>
       <c r="U57" s="45"/>
-      <c r="V57"/>
-    </row>
-    <row r="58" spans="1:23" s="1" customFormat="1" ht="16.5">
+    </row>
+    <row r="58" spans="1:21" ht="16.5">
       <c r="A58" s="44"/>
       <c r="B58" s="44"/>
       <c r="C58" s="44"/>
@@ -3376,9 +3334,8 @@
       <c r="S58" s="44"/>
       <c r="T58" s="44"/>
       <c r="U58" s="45"/>
-      <c r="V58"/>
-    </row>
-    <row r="59" spans="1:23" s="1" customFormat="1" ht="16.5">
+    </row>
+    <row r="59" spans="1:21" ht="16.5">
       <c r="A59" s="44"/>
       <c r="B59" s="44"/>
       <c r="C59" s="44"/>
@@ -3400,9 +3357,8 @@
       <c r="S59" s="44"/>
       <c r="T59" s="44"/>
       <c r="U59" s="45"/>
-      <c r="V59"/>
-    </row>
-    <row r="60" spans="1:23" s="1" customFormat="1" ht="16.5">
+    </row>
+    <row r="60" spans="1:21" ht="16.5">
       <c r="A60" s="44"/>
       <c r="B60" s="44"/>
       <c r="C60" s="44"/>
@@ -3424,9 +3380,8 @@
       <c r="S60" s="44"/>
       <c r="T60" s="44"/>
       <c r="U60" s="45"/>
-      <c r="V60"/>
-    </row>
-    <row r="61" spans="1:23" s="1" customFormat="1" ht="16.5">
+    </row>
+    <row r="61" spans="1:21" ht="16.5">
       <c r="A61" s="44"/>
       <c r="B61" s="44"/>
       <c r="C61" s="44"/>
@@ -3448,9 +3403,8 @@
       <c r="S61" s="44"/>
       <c r="T61" s="44"/>
       <c r="U61" s="45"/>
-      <c r="V61"/>
-    </row>
-    <row r="62" spans="1:23" s="1" customFormat="1" ht="16.5">
+    </row>
+    <row r="62" spans="1:21" ht="16.5">
       <c r="A62" s="44"/>
       <c r="B62" s="44"/>
       <c r="C62" s="44"/>
@@ -3472,9 +3426,8 @@
       <c r="S62" s="44"/>
       <c r="T62" s="44"/>
       <c r="U62" s="45"/>
-      <c r="V62"/>
-    </row>
-    <row r="63" spans="1:23" s="1" customFormat="1" ht="16.5">
+    </row>
+    <row r="63" spans="1:21" ht="16.5">
       <c r="A63" s="44"/>
       <c r="B63" s="44"/>
       <c r="C63" s="44"/>
@@ -3496,9 +3449,8 @@
       <c r="S63" s="44"/>
       <c r="T63" s="44"/>
       <c r="U63" s="45"/>
-      <c r="V63"/>
-    </row>
-    <row r="64" spans="1:23" s="1" customFormat="1" ht="16.5">
+    </row>
+    <row r="64" spans="1:21" ht="16.5">
       <c r="A64" s="44"/>
       <c r="B64" s="44"/>
       <c r="C64" s="44"/>
@@ -3520,9 +3472,8 @@
       <c r="S64" s="44"/>
       <c r="T64" s="44"/>
       <c r="U64" s="45"/>
-      <c r="V64"/>
-    </row>
-    <row r="65" spans="1:23" s="1" customFormat="1" ht="16.5">
+    </row>
+    <row r="65" spans="1:21" ht="16.5">
       <c r="A65" s="44"/>
       <c r="B65" s="44"/>
       <c r="C65" s="44"/>
@@ -3544,9 +3495,8 @@
       <c r="S65" s="44"/>
       <c r="T65" s="44"/>
       <c r="U65" s="45"/>
-      <c r="V65"/>
-    </row>
-    <row r="66" spans="1:23" s="1" customFormat="1" ht="16.5">
+    </row>
+    <row r="66" spans="1:21" ht="16.5">
       <c r="A66" s="44"/>
       <c r="B66" s="44"/>
       <c r="C66" s="44"/>
@@ -3568,9 +3518,8 @@
       <c r="S66" s="44"/>
       <c r="T66" s="44"/>
       <c r="U66" s="45"/>
-      <c r="V66"/>
-    </row>
-    <row r="67" spans="1:23" s="1" customFormat="1" ht="16.5">
+    </row>
+    <row r="67" spans="1:21" ht="16.5">
       <c r="A67" s="44"/>
       <c r="B67" s="44"/>
       <c r="C67" s="44"/>
@@ -3592,9 +3541,8 @@
       <c r="S67" s="44"/>
       <c r="T67" s="44"/>
       <c r="U67" s="45"/>
-      <c r="V67"/>
-    </row>
-    <row r="68" spans="1:23" s="1" customFormat="1" ht="16.5">
+    </row>
+    <row r="68" spans="1:21" ht="16.5">
       <c r="A68" s="44"/>
       <c r="B68" s="44"/>
       <c r="C68" s="44"/>
@@ -3616,9 +3564,8 @@
       <c r="S68" s="44"/>
       <c r="T68" s="44"/>
       <c r="U68" s="45"/>
-      <c r="V68"/>
-    </row>
-    <row r="69" spans="1:23" s="1" customFormat="1" ht="16.5">
+    </row>
+    <row r="69" spans="1:21" ht="16.5">
       <c r="A69" s="44"/>
       <c r="B69" s="44"/>
       <c r="C69" s="44"/>
@@ -3640,9 +3587,8 @@
       <c r="S69" s="44"/>
       <c r="T69" s="44"/>
       <c r="U69" s="45"/>
-      <c r="V69"/>
-    </row>
-    <row r="70" spans="1:23" s="1" customFormat="1" ht="16.5">
+    </row>
+    <row r="70" spans="1:21" ht="16.5">
       <c r="A70" s="44"/>
       <c r="B70" s="44"/>
       <c r="C70" s="44"/>
@@ -3664,9 +3610,8 @@
       <c r="S70" s="44"/>
       <c r="T70" s="44"/>
       <c r="U70" s="45"/>
-      <c r="V70"/>
-    </row>
-    <row r="71" spans="1:23" s="1" customFormat="1" ht="16.5">
+    </row>
+    <row r="71" spans="1:21" ht="16.5">
       <c r="A71" s="44"/>
       <c r="B71" s="44"/>
       <c r="C71" s="44"/>
@@ -3688,9 +3633,8 @@
       <c r="S71" s="44"/>
       <c r="T71" s="44"/>
       <c r="U71" s="45"/>
-      <c r="V71"/>
-    </row>
-    <row r="72" spans="1:23" s="1" customFormat="1" ht="16.5">
+    </row>
+    <row r="72" spans="1:21" ht="16.5">
       <c r="A72" s="44"/>
       <c r="B72" s="44"/>
       <c r="C72" s="44"/>
@@ -3712,9 +3656,8 @@
       <c r="S72" s="44"/>
       <c r="T72" s="44"/>
       <c r="U72" s="45"/>
-      <c r="V72"/>
-    </row>
-    <row r="73" spans="1:23" s="1" customFormat="1">
+    </row>
+    <row r="73" spans="1:21">
       <c r="A73" s="44"/>
       <c r="B73" s="44"/>
       <c r="C73" s="44"/>
@@ -3736,9 +3679,8 @@
       <c r="S73" s="44"/>
       <c r="T73" s="44"/>
       <c r="U73" s="45"/>
-      <c r="V73"/>
-    </row>
-    <row r="74" spans="1:23" s="1" customFormat="1">
+    </row>
+    <row r="74" spans="1:21">
       <c r="A74" s="44"/>
       <c r="B74" s="44"/>
       <c r="C74" s="44"/>
@@ -3760,9 +3702,8 @@
       <c r="S74" s="44"/>
       <c r="T74" s="44"/>
       <c r="U74" s="45"/>
-      <c r="V74"/>
-    </row>
-    <row r="75" spans="1:23" s="1" customFormat="1">
+    </row>
+    <row r="75" spans="1:21">
       <c r="A75" s="44"/>
       <c r="B75" s="44"/>
       <c r="C75" s="44"/>
@@ -3784,9 +3725,8 @@
       <c r="S75" s="44"/>
       <c r="T75" s="44"/>
       <c r="U75" s="45"/>
-      <c r="V75"/>
-    </row>
-    <row r="76" spans="1:23" s="1" customFormat="1">
+    </row>
+    <row r="76" spans="1:21">
       <c r="A76" s="44"/>
       <c r="B76" s="44"/>
       <c r="C76" s="44"/>
@@ -3808,9 +3748,8 @@
       <c r="S76" s="44"/>
       <c r="T76" s="44"/>
       <c r="U76" s="45"/>
-      <c r="V76"/>
-    </row>
-    <row r="77" spans="1:23" s="1" customFormat="1">
+    </row>
+    <row r="77" spans="1:21">
       <c r="A77" s="44"/>
       <c r="B77" s="44"/>
       <c r="C77" s="44"/>
@@ -3832,9 +3771,8 @@
       <c r="S77" s="44"/>
       <c r="T77" s="44"/>
       <c r="U77" s="45"/>
-      <c r="V77"/>
-    </row>
-    <row r="78" spans="1:23" s="1" customFormat="1">
+    </row>
+    <row r="78" spans="1:21">
       <c r="A78" s="44"/>
       <c r="B78" s="44"/>
       <c r="C78" s="44"/>
@@ -3856,9 +3794,8 @@
       <c r="S78" s="44"/>
       <c r="T78" s="44"/>
       <c r="U78" s="45"/>
-      <c r="V78"/>
-    </row>
-    <row r="79" spans="1:23" s="1" customFormat="1">
+    </row>
+    <row r="79" spans="1:21">
       <c r="A79" s="44"/>
       <c r="B79" s="44"/>
       <c r="C79" s="44"/>
@@ -3880,9 +3817,8 @@
       <c r="S79" s="44"/>
       <c r="T79" s="44"/>
       <c r="U79" s="45"/>
-      <c r="V79"/>
-    </row>
-    <row r="80" spans="1:23" s="1" customFormat="1">
+    </row>
+    <row r="80" spans="1:21">
       <c r="A80" s="44"/>
       <c r="B80" s="44"/>
       <c r="C80" s="44"/>
@@ -3904,9 +3840,8 @@
       <c r="S80" s="44"/>
       <c r="T80" s="44"/>
       <c r="U80" s="45"/>
-      <c r="V80"/>
-    </row>
-    <row r="81" spans="1:23" s="1" customFormat="1">
+    </row>
+    <row r="81" spans="1:21">
       <c r="A81" s="44"/>
       <c r="B81" s="44"/>
       <c r="C81" s="44"/>
@@ -3928,9 +3863,8 @@
       <c r="S81" s="44"/>
       <c r="T81" s="44"/>
       <c r="U81" s="45"/>
-      <c r="V81"/>
-    </row>
-    <row r="82" spans="1:23" s="1" customFormat="1">
+    </row>
+    <row r="82" spans="1:21">
       <c r="A82" s="44"/>
       <c r="B82" s="44"/>
       <c r="C82" s="44"/>
@@ -3952,9 +3886,8 @@
       <c r="S82" s="44"/>
       <c r="T82" s="44"/>
       <c r="U82" s="45"/>
-      <c r="V82"/>
-    </row>
-    <row r="83" spans="1:23" s="1" customFormat="1">
+    </row>
+    <row r="83" spans="1:21">
       <c r="A83" s="44"/>
       <c r="B83" s="44"/>
       <c r="C83" s="44"/>
@@ -3976,9 +3909,8 @@
       <c r="S83" s="44"/>
       <c r="T83" s="44"/>
       <c r="U83" s="45"/>
-      <c r="V83"/>
-    </row>
-    <row r="84" spans="1:23" s="1" customFormat="1">
+    </row>
+    <row r="84" spans="1:21">
       <c r="A84" s="44"/>
       <c r="B84" s="44"/>
       <c r="C84" s="44"/>
@@ -4000,9 +3932,8 @@
       <c r="S84" s="44"/>
       <c r="T84" s="44"/>
       <c r="U84" s="45"/>
-      <c r="V84"/>
-    </row>
-    <row r="85" spans="1:23" s="1" customFormat="1">
+    </row>
+    <row r="85" spans="1:21">
       <c r="A85" s="44"/>
       <c r="B85" s="44"/>
       <c r="C85" s="44"/>
@@ -4024,9 +3955,8 @@
       <c r="S85" s="44"/>
       <c r="T85" s="44"/>
       <c r="U85" s="45"/>
-      <c r="V85"/>
-    </row>
-    <row r="86" spans="1:23" s="1" customFormat="1">
+    </row>
+    <row r="86" spans="1:21">
       <c r="A86" s="44"/>
       <c r="B86" s="44"/>
       <c r="C86" s="44"/>
@@ -4048,9 +3978,8 @@
       <c r="S86" s="44"/>
       <c r="T86" s="44"/>
       <c r="U86" s="45"/>
-      <c r="V86"/>
-    </row>
-    <row r="87" spans="1:23" s="1" customFormat="1">
+    </row>
+    <row r="87" spans="1:21">
       <c r="A87" s="44"/>
       <c r="B87" s="44"/>
       <c r="C87" s="44"/>
@@ -4072,9 +4001,8 @@
       <c r="S87" s="44"/>
       <c r="T87" s="44"/>
       <c r="U87" s="45"/>
-      <c r="V87"/>
-    </row>
-    <row r="88" spans="1:23" s="1" customFormat="1">
+    </row>
+    <row r="88" spans="1:21">
       <c r="A88" s="44"/>
       <c r="B88" s="44"/>
       <c r="C88" s="44"/>
@@ -4096,9 +4024,8 @@
       <c r="S88" s="44"/>
       <c r="T88" s="44"/>
       <c r="U88" s="45"/>
-      <c r="V88"/>
-    </row>
-    <row r="89" spans="1:23" s="1" customFormat="1">
+    </row>
+    <row r="89" spans="1:21">
       <c r="A89" s="44"/>
       <c r="B89" s="44"/>
       <c r="C89" s="44"/>
@@ -4120,9 +4047,8 @@
       <c r="S89" s="44"/>
       <c r="T89" s="44"/>
       <c r="U89" s="45"/>
-      <c r="V89"/>
-    </row>
-    <row r="90" spans="1:23" s="1" customFormat="1">
+    </row>
+    <row r="90" spans="1:21">
       <c r="A90" s="44"/>
       <c r="B90" s="44"/>
       <c r="C90" s="44"/>
@@ -4144,9 +4070,8 @@
       <c r="S90" s="44"/>
       <c r="T90" s="44"/>
       <c r="U90" s="45"/>
-      <c r="V90"/>
-    </row>
-    <row r="91" spans="1:23" s="1" customFormat="1">
+    </row>
+    <row r="91" spans="1:21">
       <c r="A91" s="44"/>
       <c r="B91" s="44"/>
       <c r="C91" s="44"/>
@@ -4168,9 +4093,8 @@
       <c r="S91" s="44"/>
       <c r="T91" s="44"/>
       <c r="U91" s="45"/>
-      <c r="V91"/>
-    </row>
-    <row r="92" spans="1:23" s="1" customFormat="1">
+    </row>
+    <row r="92" spans="1:21">
       <c r="A92" s="44"/>
       <c r="B92" s="44"/>
       <c r="C92" s="44"/>
@@ -4192,9 +4116,8 @@
       <c r="S92" s="44"/>
       <c r="T92" s="44"/>
       <c r="U92" s="45"/>
-      <c r="V92"/>
-    </row>
-    <row r="93" spans="1:23" s="1" customFormat="1">
+    </row>
+    <row r="93" spans="1:21">
       <c r="A93" s="44"/>
       <c r="B93" s="44"/>
       <c r="C93" s="44"/>
@@ -4216,9 +4139,8 @@
       <c r="S93" s="44"/>
       <c r="T93" s="44"/>
       <c r="U93" s="45"/>
-      <c r="V93"/>
-    </row>
-    <row r="94" spans="1:23" s="1" customFormat="1">
+    </row>
+    <row r="94" spans="1:21">
       <c r="A94" s="44"/>
       <c r="B94" s="44"/>
       <c r="C94" s="44"/>
@@ -4240,9 +4162,8 @@
       <c r="S94" s="44"/>
       <c r="T94" s="44"/>
       <c r="U94" s="45"/>
-      <c r="V94"/>
-    </row>
-    <row r="95" spans="1:23" s="1" customFormat="1">
+    </row>
+    <row r="95" spans="1:21">
       <c r="A95" s="44"/>
       <c r="B95" s="44"/>
       <c r="C95" s="44"/>
@@ -4264,9 +4185,8 @@
       <c r="S95" s="44"/>
       <c r="T95" s="44"/>
       <c r="U95" s="45"/>
-      <c r="V95"/>
-    </row>
-    <row r="96" spans="1:23" s="1" customFormat="1">
+    </row>
+    <row r="96" spans="1:21">
       <c r="A96" s="44"/>
       <c r="B96" s="44"/>
       <c r="C96" s="44"/>
@@ -4288,9 +4208,8 @@
       <c r="S96" s="44"/>
       <c r="T96" s="44"/>
       <c r="U96" s="45"/>
-      <c r="V96"/>
-    </row>
-    <row r="97" spans="1:23" s="1" customFormat="1">
+    </row>
+    <row r="97" spans="1:21">
       <c r="A97" s="44"/>
       <c r="B97" s="44"/>
       <c r="C97" s="44"/>
@@ -4312,9 +4231,8 @@
       <c r="S97" s="44"/>
       <c r="T97" s="44"/>
       <c r="U97" s="45"/>
-      <c r="V97"/>
-    </row>
-    <row r="98" spans="1:23" s="1" customFormat="1">
+    </row>
+    <row r="98" spans="1:21">
       <c r="A98" s="44"/>
       <c r="B98" s="44"/>
       <c r="C98" s="44"/>
@@ -4336,9 +4254,8 @@
       <c r="S98" s="44"/>
       <c r="T98" s="44"/>
       <c r="U98" s="45"/>
-      <c r="V98"/>
-    </row>
-    <row r="99" spans="1:23" s="1" customFormat="1">
+    </row>
+    <row r="99" spans="1:21">
       <c r="A99" s="44"/>
       <c r="B99" s="44"/>
       <c r="C99" s="44"/>
@@ -4360,9 +4277,8 @@
       <c r="S99" s="44"/>
       <c r="T99" s="44"/>
       <c r="U99" s="45"/>
-      <c r="V99"/>
-    </row>
-    <row r="100" spans="1:23" s="1" customFormat="1">
+    </row>
+    <row r="100" spans="1:21">
       <c r="A100" s="44"/>
       <c r="B100" s="44"/>
       <c r="C100" s="44"/>
@@ -4384,9 +4300,8 @@
       <c r="S100" s="44"/>
       <c r="T100" s="44"/>
       <c r="U100" s="45"/>
-      <c r="V100"/>
-    </row>
-    <row r="101" spans="1:23" s="1" customFormat="1">
+    </row>
+    <row r="101" spans="1:21">
       <c r="A101" s="44"/>
       <c r="B101" s="44"/>
       <c r="C101" s="44"/>
@@ -4408,9 +4323,8 @@
       <c r="S101" s="44"/>
       <c r="T101" s="44"/>
       <c r="U101" s="45"/>
-      <c r="V101"/>
-    </row>
-    <row r="102" spans="1:23" s="1" customFormat="1">
+    </row>
+    <row r="102" spans="1:21">
       <c r="A102" s="44"/>
       <c r="B102" s="44"/>
       <c r="C102" s="44"/>
@@ -4432,9 +4346,8 @@
       <c r="S102" s="44"/>
       <c r="T102" s="44"/>
       <c r="U102" s="45"/>
-      <c r="V102"/>
-    </row>
-    <row r="103" spans="1:23" s="1" customFormat="1">
+    </row>
+    <row r="103" spans="1:21">
       <c r="A103" s="44"/>
       <c r="B103" s="44"/>
       <c r="C103" s="44"/>
@@ -4456,9 +4369,8 @@
       <c r="S103" s="44"/>
       <c r="T103" s="44"/>
       <c r="U103" s="45"/>
-      <c r="V103"/>
-    </row>
-    <row r="104" spans="1:23" s="1" customFormat="1">
+    </row>
+    <row r="104" spans="1:21">
       <c r="A104" s="44"/>
       <c r="B104" s="44"/>
       <c r="C104" s="44"/>
@@ -4480,9 +4392,8 @@
       <c r="S104" s="44"/>
       <c r="T104" s="44"/>
       <c r="U104" s="45"/>
-      <c r="V104"/>
-    </row>
-    <row r="105" spans="1:23" s="1" customFormat="1">
+    </row>
+    <row r="105" spans="1:21">
       <c r="A105" s="44"/>
       <c r="B105" s="44"/>
       <c r="C105" s="44"/>
@@ -4504,9 +4415,8 @@
       <c r="S105" s="44"/>
       <c r="T105" s="44"/>
       <c r="U105" s="45"/>
-      <c r="V105"/>
-    </row>
-    <row r="106" spans="1:23" s="1" customFormat="1">
+    </row>
+    <row r="106" spans="1:21">
       <c r="A106" s="44"/>
       <c r="B106" s="44"/>
       <c r="C106" s="44"/>
@@ -4528,9 +4438,8 @@
       <c r="S106" s="44"/>
       <c r="T106" s="44"/>
       <c r="U106" s="45"/>
-      <c r="V106"/>
-    </row>
-    <row r="107" spans="1:23" s="1" customFormat="1">
+    </row>
+    <row r="107" spans="1:21">
       <c r="A107" s="44"/>
       <c r="B107" s="44"/>
       <c r="C107" s="44"/>
@@ -4552,9 +4461,8 @@
       <c r="S107" s="44"/>
       <c r="T107" s="44"/>
       <c r="U107" s="45"/>
-      <c r="V107"/>
-    </row>
-    <row r="108" spans="1:23" s="1" customFormat="1">
+    </row>
+    <row r="108" spans="1:21">
       <c r="A108" s="44"/>
       <c r="B108" s="44"/>
       <c r="C108" s="44"/>
@@ -4576,9 +4484,8 @@
       <c r="S108" s="44"/>
       <c r="T108" s="44"/>
       <c r="U108" s="45"/>
-      <c r="V108"/>
-    </row>
-    <row r="109" spans="1:23" s="1" customFormat="1">
+    </row>
+    <row r="109" spans="1:21">
       <c r="A109" s="44"/>
       <c r="B109" s="44"/>
       <c r="C109" s="44"/>
@@ -4600,9 +4507,8 @@
       <c r="S109" s="44"/>
       <c r="T109" s="44"/>
       <c r="U109" s="45"/>
-      <c r="V109"/>
-    </row>
-    <row r="110" spans="1:23" s="1" customFormat="1">
+    </row>
+    <row r="110" spans="1:21">
       <c r="A110" s="44"/>
       <c r="B110" s="44"/>
       <c r="C110" s="44"/>
@@ -4624,9 +4530,8 @@
       <c r="S110" s="44"/>
       <c r="T110" s="44"/>
       <c r="U110" s="45"/>
-      <c r="V110"/>
-    </row>
-    <row r="111" spans="1:23" s="1" customFormat="1">
+    </row>
+    <row r="111" spans="1:21">
       <c r="A111" s="44"/>
       <c r="B111" s="44"/>
       <c r="C111" s="44"/>
@@ -4648,9 +4553,8 @@
       <c r="S111" s="44"/>
       <c r="T111" s="44"/>
       <c r="U111" s="45"/>
-      <c r="V111"/>
-    </row>
-    <row r="112" spans="1:23" s="1" customFormat="1">
+    </row>
+    <row r="112" spans="1:21">
       <c r="A112" s="44"/>
       <c r="B112" s="44"/>
       <c r="C112" s="44"/>
@@ -4672,9 +4576,8 @@
       <c r="S112" s="44"/>
       <c r="T112" s="44"/>
       <c r="U112" s="45"/>
-      <c r="V112"/>
-    </row>
-    <row r="113" spans="1:23" s="1" customFormat="1">
+    </row>
+    <row r="113" spans="1:21">
       <c r="A113" s="44"/>
       <c r="B113" s="44"/>
       <c r="C113" s="44"/>
@@ -4696,9 +4599,8 @@
       <c r="S113" s="44"/>
       <c r="T113" s="44"/>
       <c r="U113" s="45"/>
-      <c r="V113"/>
-    </row>
-    <row r="114" spans="1:23" s="1" customFormat="1">
+    </row>
+    <row r="114" spans="1:21">
       <c r="A114" s="44"/>
       <c r="B114" s="44"/>
       <c r="C114" s="44"/>
@@ -4720,9 +4622,8 @@
       <c r="S114" s="44"/>
       <c r="T114" s="44"/>
       <c r="U114" s="45"/>
-      <c r="V114"/>
-    </row>
-    <row r="115" spans="1:23" s="1" customFormat="1">
+    </row>
+    <row r="115" spans="1:21">
       <c r="A115" s="44"/>
       <c r="B115" s="44"/>
       <c r="C115" s="44"/>
@@ -4744,9 +4645,8 @@
       <c r="S115" s="44"/>
       <c r="T115" s="44"/>
       <c r="U115" s="45"/>
-      <c r="V115"/>
-    </row>
-    <row r="116" spans="1:23" s="1" customFormat="1">
+    </row>
+    <row r="116" spans="1:21">
       <c r="A116" s="44"/>
       <c r="B116" s="44"/>
       <c r="C116" s="44"/>
@@ -4768,9 +4668,8 @@
       <c r="S116" s="44"/>
       <c r="T116" s="44"/>
       <c r="U116" s="45"/>
-      <c r="V116"/>
-    </row>
-    <row r="117" spans="1:23" s="1" customFormat="1">
+    </row>
+    <row r="117" spans="1:21">
       <c r="A117" s="44"/>
       <c r="B117" s="44"/>
       <c r="C117" s="44"/>
@@ -4792,9 +4691,8 @@
       <c r="S117" s="44"/>
       <c r="T117" s="44"/>
       <c r="U117" s="45"/>
-      <c r="V117"/>
-    </row>
-    <row r="118" spans="1:23" s="1" customFormat="1">
+    </row>
+    <row r="118" spans="1:21">
       <c r="A118" s="44"/>
       <c r="B118" s="44"/>
       <c r="C118" s="44"/>
@@ -4816,9 +4714,8 @@
       <c r="S118" s="44"/>
       <c r="T118" s="44"/>
       <c r="U118" s="45"/>
-      <c r="V118"/>
-    </row>
-    <row r="119" spans="1:23" s="1" customFormat="1">
+    </row>
+    <row r="119" spans="1:21">
       <c r="A119" s="44"/>
       <c r="B119" s="44"/>
       <c r="C119" s="44"/>
@@ -4840,9 +4737,8 @@
       <c r="S119" s="44"/>
       <c r="T119" s="44"/>
       <c r="U119" s="45"/>
-      <c r="V119"/>
-    </row>
-    <row r="120" spans="1:23" s="1" customFormat="1">
+    </row>
+    <row r="120" spans="1:21">
       <c r="A120" s="44"/>
       <c r="B120" s="44"/>
       <c r="C120" s="44"/>
@@ -4864,9 +4760,8 @@
       <c r="S120" s="44"/>
       <c r="T120" s="44"/>
       <c r="U120" s="45"/>
-      <c r="V120"/>
-    </row>
-    <row r="121" spans="1:23" s="1" customFormat="1">
+    </row>
+    <row r="121" spans="1:21">
       <c r="A121" s="44"/>
       <c r="B121" s="44"/>
       <c r="C121" s="44"/>
@@ -4888,9 +4783,8 @@
       <c r="S121" s="44"/>
       <c r="T121" s="44"/>
       <c r="U121" s="45"/>
-      <c r="V121"/>
-    </row>
-    <row r="122" spans="1:23" s="1" customFormat="1">
+    </row>
+    <row r="122" spans="1:21">
       <c r="A122" s="44"/>
       <c r="B122" s="44"/>
       <c r="C122" s="44"/>
@@ -4912,9 +4806,8 @@
       <c r="S122" s="44"/>
       <c r="T122" s="44"/>
       <c r="U122" s="45"/>
-      <c r="V122"/>
-    </row>
-    <row r="123" spans="1:23" s="1" customFormat="1">
+    </row>
+    <row r="123" spans="1:21">
       <c r="A123" s="44"/>
       <c r="B123" s="44"/>
       <c r="C123" s="44"/>
@@ -4936,9 +4829,8 @@
       <c r="S123" s="44"/>
       <c r="T123" s="44"/>
       <c r="U123" s="45"/>
-      <c r="V123"/>
-    </row>
-    <row r="124" spans="1:23" s="1" customFormat="1">
+    </row>
+    <row r="124" spans="1:21">
       <c r="A124" s="44"/>
       <c r="B124" s="44"/>
       <c r="C124" s="44"/>
@@ -4960,9 +4852,8 @@
       <c r="S124" s="44"/>
       <c r="T124" s="44"/>
       <c r="U124" s="45"/>
-      <c r="V124"/>
-    </row>
-    <row r="125" spans="1:23" s="1" customFormat="1">
+    </row>
+    <row r="125" spans="1:21">
       <c r="A125" s="44"/>
       <c r="B125" s="44"/>
       <c r="C125" s="44"/>
@@ -4984,9 +4875,8 @@
       <c r="S125" s="44"/>
       <c r="T125" s="44"/>
       <c r="U125" s="45"/>
-      <c r="V125"/>
-    </row>
-    <row r="126" spans="1:23" s="1" customFormat="1">
+    </row>
+    <row r="126" spans="1:21">
       <c r="A126" s="44"/>
       <c r="B126" s="44"/>
       <c r="C126" s="44"/>
@@ -5008,9 +4898,8 @@
       <c r="S126" s="44"/>
       <c r="T126" s="44"/>
       <c r="U126" s="45"/>
-      <c r="V126"/>
-    </row>
-    <row r="127" spans="1:23" s="1" customFormat="1">
+    </row>
+    <row r="127" spans="1:21">
       <c r="A127" s="44"/>
       <c r="B127" s="44"/>
       <c r="C127" s="44"/>
@@ -5032,9 +4921,8 @@
       <c r="S127" s="44"/>
       <c r="T127" s="44"/>
       <c r="U127" s="45"/>
-      <c r="V127"/>
-    </row>
-    <row r="128" spans="1:23" s="1" customFormat="1">
+    </row>
+    <row r="128" spans="1:21">
       <c r="A128" s="44"/>
       <c r="B128" s="44"/>
       <c r="C128" s="44"/>
@@ -5056,9 +4944,8 @@
       <c r="S128" s="44"/>
       <c r="T128" s="44"/>
       <c r="U128" s="45"/>
-      <c r="V128"/>
-    </row>
-    <row r="129" spans="1:23" s="1" customFormat="1">
+    </row>
+    <row r="129" spans="1:21">
       <c r="A129" s="44"/>
       <c r="B129" s="44"/>
       <c r="C129" s="44"/>
@@ -5080,9 +4967,8 @@
       <c r="S129" s="44"/>
       <c r="T129" s="44"/>
       <c r="U129" s="45"/>
-      <c r="V129"/>
-    </row>
-    <row r="130" spans="1:23" s="1" customFormat="1">
+    </row>
+    <row r="130" spans="1:21">
       <c r="A130" s="44"/>
       <c r="B130" s="44"/>
       <c r="C130" s="44"/>
@@ -5104,9 +4990,8 @@
       <c r="S130" s="44"/>
       <c r="T130" s="44"/>
       <c r="U130" s="45"/>
-      <c r="V130"/>
-    </row>
-    <row r="131" spans="1:23" s="1" customFormat="1">
+    </row>
+    <row r="131" spans="1:21">
       <c r="A131" s="44"/>
       <c r="B131" s="44"/>
       <c r="C131" s="44"/>
@@ -5128,9 +5013,8 @@
       <c r="S131" s="44"/>
       <c r="T131" s="44"/>
       <c r="U131" s="45"/>
-      <c r="V131"/>
-    </row>
-    <row r="132" spans="1:23" s="1" customFormat="1">
+    </row>
+    <row r="132" spans="1:21">
       <c r="A132" s="44"/>
       <c r="B132" s="44"/>
       <c r="C132" s="44"/>
@@ -5152,9 +5036,8 @@
       <c r="S132" s="44"/>
       <c r="T132" s="44"/>
       <c r="U132" s="45"/>
-      <c r="V132"/>
-    </row>
-    <row r="133" spans="1:23" s="1" customFormat="1">
+    </row>
+    <row r="133" spans="1:21">
       <c r="A133" s="44"/>
       <c r="B133" s="44"/>
       <c r="C133" s="44"/>
@@ -5172,13 +5055,9 @@
       <c r="O133" s="44"/>
       <c r="P133" s="46"/>
       <c r="Q133" s="45"/>
-      <c r="R133" s="34"/>
-      <c r="S133" s="34"/>
-      <c r="T133" s="34"/>
       <c r="U133" s="45"/>
-      <c r="V133"/>
-    </row>
-    <row r="134" spans="1:23" s="1" customFormat="1">
+    </row>
+    <row r="134" spans="1:21">
       <c r="A134" s="44"/>
       <c r="B134" s="44"/>
       <c r="C134" s="44"/>
@@ -5196,13 +5075,9 @@
       <c r="O134" s="44"/>
       <c r="P134" s="46"/>
       <c r="Q134" s="45"/>
-      <c r="R134" s="34"/>
-      <c r="S134" s="34"/>
-      <c r="T134" s="34"/>
       <c r="U134" s="45"/>
-      <c r="V134"/>
-    </row>
-    <row r="135" spans="1:23" s="1" customFormat="1">
+    </row>
+    <row r="135" spans="1:21">
       <c r="A135" s="44"/>
       <c r="B135" s="44"/>
       <c r="C135" s="44"/>
@@ -5220,13 +5095,9 @@
       <c r="O135" s="44"/>
       <c r="P135" s="46"/>
       <c r="Q135" s="45"/>
-      <c r="R135" s="34"/>
-      <c r="S135" s="34"/>
-      <c r="T135" s="34"/>
       <c r="U135" s="45"/>
-      <c r="V135"/>
-    </row>
-    <row r="136" spans="1:23" s="1" customFormat="1">
+    </row>
+    <row r="136" spans="1:21">
       <c r="A136" s="44"/>
       <c r="B136" s="44"/>
       <c r="C136" s="44"/>
@@ -5244,13 +5115,9 @@
       <c r="O136" s="44"/>
       <c r="P136" s="46"/>
       <c r="Q136" s="45"/>
-      <c r="R136" s="34"/>
-      <c r="S136" s="34"/>
-      <c r="T136" s="34"/>
       <c r="U136" s="45"/>
-      <c r="V136"/>
-    </row>
-    <row r="137" spans="1:23" s="1" customFormat="1">
+    </row>
+    <row r="137" spans="1:21">
       <c r="A137" s="44"/>
       <c r="B137" s="44"/>
       <c r="C137" s="44"/>
@@ -5268,13 +5135,9 @@
       <c r="O137" s="44"/>
       <c r="P137" s="46"/>
       <c r="Q137" s="45"/>
-      <c r="R137" s="34"/>
-      <c r="S137" s="34"/>
-      <c r="T137" s="34"/>
       <c r="U137" s="45"/>
-      <c r="V137"/>
-    </row>
-    <row r="138" spans="1:23" s="1" customFormat="1">
+    </row>
+    <row r="138" spans="1:21">
       <c r="A138" s="44"/>
       <c r="B138" s="44"/>
       <c r="C138" s="44"/>
@@ -5292,13 +5155,9 @@
       <c r="O138" s="44"/>
       <c r="P138" s="46"/>
       <c r="Q138" s="45"/>
-      <c r="R138" s="34"/>
-      <c r="S138" s="34"/>
-      <c r="T138" s="34"/>
       <c r="U138" s="45"/>
-      <c r="V138"/>
-    </row>
-    <row r="139" spans="1:23" s="1" customFormat="1">
+    </row>
+    <row r="139" spans="1:21">
       <c r="A139" s="44"/>
       <c r="B139" s="44"/>
       <c r="C139" s="44"/>
@@ -5316,13 +5175,9 @@
       <c r="O139" s="44"/>
       <c r="P139" s="46"/>
       <c r="Q139" s="45"/>
-      <c r="R139" s="34"/>
-      <c r="S139" s="34"/>
-      <c r="T139" s="34"/>
       <c r="U139" s="45"/>
-      <c r="V139"/>
-    </row>
-    <row r="140" spans="1:23" s="1" customFormat="1">
+    </row>
+    <row r="140" spans="1:21">
       <c r="A140" s="44"/>
       <c r="B140" s="44"/>
       <c r="C140" s="44"/>
@@ -5340,13 +5195,9 @@
       <c r="O140" s="44"/>
       <c r="P140" s="46"/>
       <c r="Q140" s="45"/>
-      <c r="R140" s="34"/>
-      <c r="S140" s="34"/>
-      <c r="T140" s="34"/>
       <c r="U140" s="45"/>
-      <c r="V140"/>
-    </row>
-    <row r="141" spans="1:23" s="1" customFormat="1">
+    </row>
+    <row r="141" spans="1:21">
       <c r="A141" s="44"/>
       <c r="B141" s="44"/>
       <c r="C141" s="44"/>
@@ -5364,13 +5215,9 @@
       <c r="O141" s="44"/>
       <c r="P141" s="46"/>
       <c r="Q141" s="45"/>
-      <c r="R141" s="34"/>
-      <c r="S141" s="34"/>
-      <c r="T141" s="34"/>
       <c r="U141" s="45"/>
-      <c r="V141"/>
-    </row>
-    <row r="142" spans="1:23" s="1" customFormat="1">
+    </row>
+    <row r="142" spans="1:21">
       <c r="A142" s="44"/>
       <c r="B142" s="44"/>
       <c r="C142" s="44"/>
@@ -5388,13 +5235,9 @@
       <c r="O142" s="44"/>
       <c r="P142" s="46"/>
       <c r="Q142" s="45"/>
-      <c r="R142" s="34"/>
-      <c r="S142" s="34"/>
-      <c r="T142" s="34"/>
       <c r="U142" s="45"/>
-      <c r="V142"/>
-    </row>
-    <row r="143" spans="1:23" s="1" customFormat="1">
+    </row>
+    <row r="143" spans="1:21">
       <c r="A143" s="44"/>
       <c r="B143" s="44"/>
       <c r="C143" s="44"/>
@@ -5412,13 +5255,9 @@
       <c r="O143" s="44"/>
       <c r="P143" s="46"/>
       <c r="Q143" s="45"/>
-      <c r="R143" s="34"/>
-      <c r="S143" s="34"/>
-      <c r="T143" s="34"/>
       <c r="U143" s="45"/>
-      <c r="V143"/>
-    </row>
-    <row r="144" spans="1:23" s="1" customFormat="1">
+    </row>
+    <row r="144" spans="1:21">
       <c r="A144" s="44"/>
       <c r="B144" s="44"/>
       <c r="C144" s="44"/>
@@ -5436,13 +5275,9 @@
       <c r="O144" s="44"/>
       <c r="P144" s="46"/>
       <c r="Q144" s="45"/>
-      <c r="R144" s="34"/>
-      <c r="S144" s="34"/>
-      <c r="T144" s="34"/>
       <c r="U144" s="45"/>
-      <c r="V144"/>
-    </row>
-    <row r="145" spans="1:23" s="1" customFormat="1">
+    </row>
+    <row r="145" spans="1:21">
       <c r="A145" s="44"/>
       <c r="B145" s="44"/>
       <c r="C145" s="44"/>
@@ -5460,13 +5295,9 @@
       <c r="O145" s="44"/>
       <c r="P145" s="46"/>
       <c r="Q145" s="45"/>
-      <c r="R145" s="34"/>
-      <c r="S145" s="34"/>
-      <c r="T145" s="34"/>
       <c r="U145" s="45"/>
-      <c r="V145"/>
-    </row>
-    <row r="146" spans="1:23" s="1" customFormat="1">
+    </row>
+    <row r="146" spans="1:21">
       <c r="A146" s="44"/>
       <c r="B146" s="44"/>
       <c r="C146" s="44"/>
@@ -5484,13 +5315,9 @@
       <c r="O146" s="44"/>
       <c r="P146" s="46"/>
       <c r="Q146" s="45"/>
-      <c r="R146" s="34"/>
-      <c r="S146" s="34"/>
-      <c r="T146" s="34"/>
       <c r="U146" s="45"/>
-      <c r="V146"/>
-    </row>
-    <row r="147" spans="1:23" s="1" customFormat="1">
+    </row>
+    <row r="147" spans="1:21">
       <c r="A147" s="44"/>
       <c r="B147" s="44"/>
       <c r="C147" s="44"/>
@@ -5508,13 +5335,9 @@
       <c r="O147" s="44"/>
       <c r="P147" s="46"/>
       <c r="Q147" s="45"/>
-      <c r="R147" s="34"/>
-      <c r="S147" s="34"/>
-      <c r="T147" s="34"/>
       <c r="U147" s="45"/>
-      <c r="V147"/>
-    </row>
-    <row r="148" spans="1:23" s="1" customFormat="1">
+    </row>
+    <row r="148" spans="1:21">
       <c r="A148" s="44"/>
       <c r="B148" s="44"/>
       <c r="C148" s="44"/>
@@ -5532,13 +5355,9 @@
       <c r="O148" s="44"/>
       <c r="P148" s="46"/>
       <c r="Q148" s="45"/>
-      <c r="R148" s="34"/>
-      <c r="S148" s="34"/>
-      <c r="T148" s="34"/>
       <c r="U148" s="45"/>
-      <c r="V148"/>
-    </row>
-    <row r="149" spans="1:23" s="1" customFormat="1">
+    </row>
+    <row r="149" spans="1:21">
       <c r="A149" s="44"/>
       <c r="B149" s="44"/>
       <c r="C149" s="44"/>
@@ -5556,13 +5375,9 @@
       <c r="O149" s="44"/>
       <c r="P149" s="46"/>
       <c r="Q149" s="45"/>
-      <c r="R149" s="34"/>
-      <c r="S149" s="34"/>
-      <c r="T149" s="34"/>
       <c r="U149" s="45"/>
-      <c r="V149"/>
-    </row>
-    <row r="150" spans="1:23" s="1" customFormat="1">
+    </row>
+    <row r="150" spans="1:21">
       <c r="A150" s="44"/>
       <c r="B150" s="44"/>
       <c r="C150" s="44"/>
@@ -5580,13 +5395,9 @@
       <c r="O150" s="44"/>
       <c r="P150" s="46"/>
       <c r="Q150" s="45"/>
-      <c r="R150" s="34"/>
-      <c r="S150" s="34"/>
-      <c r="T150" s="34"/>
       <c r="U150" s="45"/>
-      <c r="V150"/>
-    </row>
-    <row r="151" spans="1:23" s="1" customFormat="1">
+    </row>
+    <row r="151" spans="1:21">
       <c r="A151" s="44"/>
       <c r="B151" s="44"/>
       <c r="C151" s="44"/>
@@ -5604,13 +5415,9 @@
       <c r="O151" s="44"/>
       <c r="P151" s="46"/>
       <c r="Q151" s="45"/>
-      <c r="R151" s="34"/>
-      <c r="S151" s="34"/>
-      <c r="T151" s="34"/>
       <c r="U151" s="45"/>
-      <c r="V151"/>
-    </row>
-    <row r="152" spans="1:23" s="1" customFormat="1">
+    </row>
+    <row r="152" spans="1:21">
       <c r="A152" s="44"/>
       <c r="B152" s="44"/>
       <c r="C152" s="44"/>
@@ -5628,13 +5435,9 @@
       <c r="O152" s="44"/>
       <c r="P152" s="46"/>
       <c r="Q152" s="45"/>
-      <c r="R152" s="34"/>
-      <c r="S152" s="34"/>
-      <c r="T152" s="34"/>
       <c r="U152" s="45"/>
-      <c r="V152"/>
-    </row>
-    <row r="153" spans="1:23" s="1" customFormat="1">
+    </row>
+    <row r="153" spans="1:21">
       <c r="A153" s="44"/>
       <c r="B153" s="44"/>
       <c r="C153" s="44"/>
@@ -5652,13 +5455,9 @@
       <c r="O153" s="44"/>
       <c r="P153" s="46"/>
       <c r="Q153" s="45"/>
-      <c r="R153" s="34"/>
-      <c r="S153" s="34"/>
-      <c r="T153" s="34"/>
       <c r="U153" s="45"/>
-      <c r="V153"/>
-    </row>
-    <row r="154" spans="1:23" s="1" customFormat="1">
+    </row>
+    <row r="154" spans="1:21">
       <c r="A154" s="44"/>
       <c r="B154" s="44"/>
       <c r="C154" s="44"/>
@@ -5676,13 +5475,9 @@
       <c r="O154" s="44"/>
       <c r="P154" s="46"/>
       <c r="Q154" s="45"/>
-      <c r="R154" s="34"/>
-      <c r="S154" s="34"/>
-      <c r="T154" s="34"/>
       <c r="U154" s="45"/>
-      <c r="V154"/>
-    </row>
-    <row r="155" spans="1:23" s="1" customFormat="1">
+    </row>
+    <row r="155" spans="1:21">
       <c r="A155" s="44"/>
       <c r="B155" s="44"/>
       <c r="C155" s="44"/>
@@ -5700,13 +5495,9 @@
       <c r="O155" s="44"/>
       <c r="P155" s="46"/>
       <c r="Q155" s="45"/>
-      <c r="R155" s="34"/>
-      <c r="S155" s="34"/>
-      <c r="T155" s="34"/>
       <c r="U155" s="45"/>
-      <c r="V155"/>
-    </row>
-    <row r="156" spans="1:23" s="1" customFormat="1">
+    </row>
+    <row r="156" spans="1:21">
       <c r="A156" s="44"/>
       <c r="B156" s="44"/>
       <c r="C156" s="44"/>
@@ -5724,13 +5515,9 @@
       <c r="O156" s="44"/>
       <c r="P156" s="46"/>
       <c r="Q156" s="45"/>
-      <c r="R156" s="34"/>
-      <c r="S156" s="34"/>
-      <c r="T156" s="34"/>
       <c r="U156" s="45"/>
-      <c r="V156"/>
-    </row>
-    <row r="157" spans="1:23" s="1" customFormat="1">
+    </row>
+    <row r="157" spans="1:21">
       <c r="A157" s="44"/>
       <c r="B157" s="44"/>
       <c r="C157" s="44"/>
@@ -5748,13 +5535,9 @@
       <c r="O157" s="44"/>
       <c r="P157" s="46"/>
       <c r="Q157" s="45"/>
-      <c r="R157" s="34"/>
-      <c r="S157" s="34"/>
-      <c r="T157" s="34"/>
       <c r="U157" s="45"/>
-      <c r="V157"/>
-    </row>
-    <row r="158" spans="1:23" s="1" customFormat="1">
+    </row>
+    <row r="158" spans="1:21">
       <c r="A158" s="44"/>
       <c r="B158" s="44"/>
       <c r="C158" s="44"/>
@@ -5772,13 +5555,9 @@
       <c r="O158" s="44"/>
       <c r="P158" s="46"/>
       <c r="Q158" s="45"/>
-      <c r="R158" s="34"/>
-      <c r="S158" s="34"/>
-      <c r="T158" s="34"/>
       <c r="U158" s="45"/>
-      <c r="V158"/>
-    </row>
-    <row r="159" spans="1:23" s="1" customFormat="1">
+    </row>
+    <row r="159" spans="1:21">
       <c r="A159" s="44"/>
       <c r="B159" s="44"/>
       <c r="C159" s="44"/>
@@ -5796,13 +5575,9 @@
       <c r="O159" s="44"/>
       <c r="P159" s="46"/>
       <c r="Q159" s="45"/>
-      <c r="R159" s="34"/>
-      <c r="S159" s="34"/>
-      <c r="T159" s="34"/>
       <c r="U159" s="45"/>
-      <c r="V159"/>
-    </row>
-    <row r="160" spans="1:23" s="1" customFormat="1">
+    </row>
+    <row r="160" spans="1:21">
       <c r="A160" s="44"/>
       <c r="B160" s="44"/>
       <c r="C160" s="44"/>
@@ -5820,13 +5595,9 @@
       <c r="O160" s="44"/>
       <c r="P160" s="46"/>
       <c r="Q160" s="45"/>
-      <c r="R160" s="34"/>
-      <c r="S160" s="34"/>
-      <c r="T160" s="34"/>
       <c r="U160" s="45"/>
-      <c r="V160"/>
-    </row>
-    <row r="161" spans="1:23" s="1" customFormat="1">
+    </row>
+    <row r="161" spans="1:21">
       <c r="A161" s="44"/>
       <c r="B161" s="44"/>
       <c r="C161" s="44"/>
@@ -5844,13 +5615,9 @@
       <c r="O161" s="44"/>
       <c r="P161" s="46"/>
       <c r="Q161" s="45"/>
-      <c r="R161" s="34"/>
-      <c r="S161" s="34"/>
-      <c r="T161" s="34"/>
       <c r="U161" s="45"/>
-      <c r="V161"/>
-    </row>
-    <row r="162" spans="1:23" s="1" customFormat="1">
+    </row>
+    <row r="162" spans="1:21">
       <c r="A162" s="44"/>
       <c r="B162" s="44"/>
       <c r="C162" s="44"/>
@@ -5868,13 +5635,9 @@
       <c r="O162" s="44"/>
       <c r="P162" s="46"/>
       <c r="Q162" s="45"/>
-      <c r="R162" s="34"/>
-      <c r="S162" s="34"/>
-      <c r="T162" s="34"/>
       <c r="U162" s="45"/>
-      <c r="V162"/>
-    </row>
-    <row r="163" spans="1:23" s="1" customFormat="1">
+    </row>
+    <row r="163" spans="1:21">
       <c r="A163" s="44"/>
       <c r="B163" s="44"/>
       <c r="C163" s="44"/>
@@ -5892,13 +5655,9 @@
       <c r="O163" s="44"/>
       <c r="P163" s="46"/>
       <c r="Q163" s="45"/>
-      <c r="R163" s="34"/>
-      <c r="S163" s="34"/>
-      <c r="T163" s="34"/>
       <c r="U163" s="45"/>
-      <c r="V163"/>
-    </row>
-    <row r="164" spans="1:23" s="1" customFormat="1">
+    </row>
+    <row r="164" spans="1:21">
       <c r="A164" s="44"/>
       <c r="B164" s="44"/>
       <c r="C164" s="44"/>
@@ -5916,13 +5675,9 @@
       <c r="O164" s="44"/>
       <c r="P164" s="46"/>
       <c r="Q164" s="45"/>
-      <c r="R164" s="34"/>
-      <c r="S164" s="34"/>
-      <c r="T164" s="34"/>
       <c r="U164" s="45"/>
-      <c r="V164"/>
-    </row>
-    <row r="165" spans="1:23" s="1" customFormat="1">
+    </row>
+    <row r="165" spans="1:21">
       <c r="A165" s="44"/>
       <c r="B165" s="44"/>
       <c r="C165" s="44"/>
@@ -5940,13 +5695,9 @@
       <c r="O165" s="44"/>
       <c r="P165" s="46"/>
       <c r="Q165" s="45"/>
-      <c r="R165" s="34"/>
-      <c r="S165" s="34"/>
-      <c r="T165" s="34"/>
       <c r="U165" s="45"/>
-      <c r="V165"/>
-    </row>
-    <row r="166" spans="1:23" s="1" customFormat="1">
+    </row>
+    <row r="166" spans="1:21">
       <c r="A166" s="44"/>
       <c r="B166" s="44"/>
       <c r="C166" s="44"/>
@@ -5964,13 +5715,9 @@
       <c r="O166" s="44"/>
       <c r="P166" s="46"/>
       <c r="Q166" s="45"/>
-      <c r="R166" s="34"/>
-      <c r="S166" s="34"/>
-      <c r="T166" s="34"/>
       <c r="U166" s="45"/>
-      <c r="V166"/>
-    </row>
-    <row r="167" spans="1:23" s="1" customFormat="1">
+    </row>
+    <row r="167" spans="1:21">
       <c r="A167" s="44"/>
       <c r="B167" s="44"/>
       <c r="C167" s="44"/>
@@ -5988,35 +5735,7 @@
       <c r="O167" s="44"/>
       <c r="P167" s="46"/>
       <c r="Q167" s="45"/>
-      <c r="R167" s="34"/>
-      <c r="S167" s="34"/>
-      <c r="T167" s="34"/>
       <c r="U167" s="45"/>
-      <c r="V167"/>
-    </row>
-    <row r="168" spans="1:23" s="1" customFormat="1">
-      <c r="A168" s="32"/>
-      <c r="B168" s="32"/>
-      <c r="C168" s="32"/>
-      <c r="D168" s="33"/>
-      <c r="E168" s="32"/>
-      <c r="F168" s="32"/>
-      <c r="G168" s="32"/>
-      <c r="H168" s="33"/>
-      <c r="I168" s="32"/>
-      <c r="J168" s="33"/>
-      <c r="K168" s="33"/>
-      <c r="L168" s="32"/>
-      <c r="M168" s="32"/>
-      <c r="N168" s="32"/>
-      <c r="O168" s="33"/>
-      <c r="P168" s="33"/>
-      <c r="Q168" s="33"/>
-      <c r="R168" s="34"/>
-      <c r="S168" s="34"/>
-      <c r="T168" s="34"/>
-      <c r="U168" s="33"/>
-      <c r="V168"/>
     </row>
   </sheetData>
   <phoneticPr fontId="15" type="noConversion"/>
@@ -6045,6 +5764,7 @@
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="S4" r:id="rId1" display="http://192.168.60.204/browse/TOPT-725"/>
+    <hyperlink ref="S2" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
@@ -6057,7 +5777,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6245,7 +5965,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6450,7 +6170,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6769,7 +6489,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7088,7 +6808,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7407,7 +7127,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7728,7 +7448,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/VersionRecords/Version 5.2.10 20170209/版本Bug和特性计划及评审表v5.2.10_架构组.xlsx
+++ b/VersionRecords/Version 5.2.10 20170209/版本Bug和特性计划及评审表v5.2.10_架构组.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21750" windowHeight="6600" tabRatio="813" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21750" windowHeight="6600" tabRatio="813"/>
   </bookViews>
   <sheets>
     <sheet name="01 版本5.2.10新特性|Fix Bug" sheetId="1" r:id="rId1"/>
@@ -24,8 +24,7 @@
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="6" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
-  <calcPr calcId="0" concurrentCalc="0"/>
-  <oleSize ref="A1:L16"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -426,10 +425,6 @@
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
-    <t>BS</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
     <t>TOPT-727</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
@@ -484,6 +479,10 @@
       </rPr>
       <t>0点</t>
     </r>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>payapi</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
 </sst>
@@ -1395,6 +1394,9 @@
     <xf numFmtId="0" fontId="35" fillId="0" borderId="10" xfId="29" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1421,9 +1423,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="30">
@@ -1448,6 +1447,7 @@
     <cellStyle name="超链接" xfId="27" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="29" builtinId="8"/>
     <cellStyle name="甘特图" xfId="2"/>
+    <cellStyle name="强调文字颜色 4" xfId="8" builtinId="41"/>
     <cellStyle name="已访问的超链接" xfId="14" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="16" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="18" builtinId="9" hidden="1"/>
@@ -1456,7 +1456,6 @@
     <cellStyle name="已访问的超链接" xfId="24" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="26" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="28" builtinId="9" hidden="1"/>
-    <cellStyle name="着色 4" xfId="8" builtinId="41"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -1826,10 +1825,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W168"/>
+  <dimension ref="A1:W167"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="T4" sqref="T4"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1977,7 +1976,7 @@
       </c>
       <c r="R2" s="93"/>
       <c r="S2" s="93" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="T2" s="93" t="s">
         <v>71</v>
@@ -1996,7 +1995,7 @@
         <v>75</v>
       </c>
       <c r="D3" s="112" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E3" s="81" t="s">
         <v>68</v>
@@ -2105,10 +2104,10 @@
         <v>105</v>
       </c>
       <c r="E5" s="81" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F5" s="81" t="s">
-        <v>106</v>
+        <v>118</v>
       </c>
       <c r="G5" s="81" t="s">
         <v>69</v>
@@ -2124,7 +2123,7 @@
       </c>
       <c r="K5" s="81"/>
       <c r="L5" s="86" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="M5" s="81" t="s">
         <v>78</v>
@@ -2137,14 +2136,14 @@
       <c r="Q5" s="84"/>
       <c r="R5" s="86"/>
       <c r="S5" s="118" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="T5" s="113"/>
       <c r="U5" s="114"/>
       <c r="V5" s="115"/>
       <c r="W5" s="116"/>
     </row>
-    <row r="6" spans="1:23" s="1" customFormat="1" ht="21.75" customHeight="1">
+    <row r="6" spans="1:23" ht="21.75" customHeight="1">
       <c r="A6" s="80"/>
       <c r="B6" s="36"/>
       <c r="C6" s="36"/>
@@ -2166,9 +2165,8 @@
       <c r="S6" s="44"/>
       <c r="T6" s="44"/>
       <c r="U6" s="45"/>
-      <c r="V6"/>
-    </row>
-    <row r="7" spans="1:23" s="1" customFormat="1" ht="16.5">
+    </row>
+    <row r="7" spans="1:23" ht="16.5">
       <c r="A7" s="80"/>
       <c r="B7" s="36"/>
       <c r="C7" s="36"/>
@@ -2190,7 +2188,6 @@
       <c r="S7" s="44"/>
       <c r="T7" s="44"/>
       <c r="U7" s="45"/>
-      <c r="V7"/>
     </row>
     <row r="8" spans="1:23" s="31" customFormat="1" ht="18" customHeight="1">
       <c r="A8" s="80"/>
@@ -2240,7 +2237,7 @@
       <c r="U9" s="100"/>
       <c r="V9" s="51"/>
     </row>
-    <row r="10" spans="1:23" s="1" customFormat="1" ht="16.5">
+    <row r="10" spans="1:23" ht="16.5">
       <c r="A10" s="80"/>
       <c r="B10" s="80"/>
       <c r="C10" s="80"/>
@@ -2262,9 +2259,8 @@
       <c r="S10" s="44"/>
       <c r="T10" s="44"/>
       <c r="U10" s="45"/>
-      <c r="V10"/>
-    </row>
-    <row r="11" spans="1:23" s="1" customFormat="1" ht="16.5">
+    </row>
+    <row r="11" spans="1:23" ht="16.5">
       <c r="A11" s="80"/>
       <c r="B11" s="80"/>
       <c r="C11" s="80"/>
@@ -2286,9 +2282,8 @@
       <c r="S11" s="44"/>
       <c r="T11" s="44"/>
       <c r="U11" s="45"/>
-      <c r="V11"/>
-    </row>
-    <row r="12" spans="1:23" s="1" customFormat="1" ht="16.5">
+    </row>
+    <row r="12" spans="1:23" ht="16.5">
       <c r="A12" s="80"/>
       <c r="B12" s="80"/>
       <c r="C12" s="80"/>
@@ -2310,7 +2305,6 @@
       <c r="S12" s="44"/>
       <c r="T12" s="44"/>
       <c r="U12" s="45"/>
-      <c r="V12"/>
     </row>
     <row r="13" spans="1:23" s="31" customFormat="1" ht="16.5">
       <c r="A13" s="73"/>
@@ -2408,7 +2402,7 @@
       <c r="U16" s="78"/>
       <c r="V16" s="51"/>
     </row>
-    <row r="17" spans="1:23" s="31" customFormat="1" ht="16.5">
+    <row r="17" spans="1:22" s="31" customFormat="1" ht="16.5">
       <c r="A17" s="73"/>
       <c r="B17" s="73"/>
       <c r="C17" s="73"/>
@@ -2432,7 +2426,7 @@
       <c r="U17" s="78"/>
       <c r="V17" s="51"/>
     </row>
-    <row r="18" spans="1:23" s="31" customFormat="1" ht="16.5">
+    <row r="18" spans="1:22" s="31" customFormat="1" ht="16.5">
       <c r="A18" s="73"/>
       <c r="B18" s="73"/>
       <c r="C18" s="73"/>
@@ -2456,7 +2450,7 @@
       <c r="U18" s="78"/>
       <c r="V18" s="51"/>
     </row>
-    <row r="19" spans="1:23" s="1" customFormat="1" ht="16.5">
+    <row r="19" spans="1:22" ht="16.5">
       <c r="A19" s="36"/>
       <c r="B19" s="36"/>
       <c r="C19" s="36"/>
@@ -2478,9 +2472,8 @@
       <c r="S19" s="44"/>
       <c r="T19" s="44"/>
       <c r="U19" s="52"/>
-      <c r="V19"/>
-    </row>
-    <row r="20" spans="1:23" s="1" customFormat="1" ht="16.5">
+    </row>
+    <row r="20" spans="1:22" ht="16.5">
       <c r="A20" s="36"/>
       <c r="B20" s="36"/>
       <c r="C20" s="36"/>
@@ -2502,9 +2495,8 @@
       <c r="S20" s="44"/>
       <c r="T20" s="44"/>
       <c r="U20" s="52"/>
-      <c r="V20"/>
-    </row>
-    <row r="21" spans="1:23" s="1" customFormat="1" ht="16.5">
+    </row>
+    <row r="21" spans="1:22" ht="16.5">
       <c r="A21" s="36"/>
       <c r="B21" s="36"/>
       <c r="C21" s="36"/>
@@ -2526,9 +2518,8 @@
       <c r="S21" s="54"/>
       <c r="T21" s="54"/>
       <c r="U21" s="55"/>
-      <c r="V21"/>
-    </row>
-    <row r="22" spans="1:23" s="1" customFormat="1" ht="16.5">
+    </row>
+    <row r="22" spans="1:22" ht="16.5">
       <c r="A22" s="36"/>
       <c r="B22" s="36"/>
       <c r="C22" s="36"/>
@@ -2550,9 +2541,8 @@
       <c r="S22" s="56"/>
       <c r="T22" s="56"/>
       <c r="U22" s="55"/>
-      <c r="V22"/>
-    </row>
-    <row r="23" spans="1:23" s="1" customFormat="1" ht="16.5">
+    </row>
+    <row r="23" spans="1:22" ht="16.5">
       <c r="A23" s="36"/>
       <c r="B23" s="36"/>
       <c r="C23" s="36"/>
@@ -2574,9 +2564,8 @@
       <c r="S23" s="56"/>
       <c r="T23" s="57"/>
       <c r="U23" s="55"/>
-      <c r="V23"/>
-    </row>
-    <row r="24" spans="1:23" s="1" customFormat="1" ht="16.5">
+    </row>
+    <row r="24" spans="1:22" ht="16.5">
       <c r="A24" s="36"/>
       <c r="B24" s="36"/>
       <c r="C24" s="36"/>
@@ -2598,9 +2587,8 @@
       <c r="S24" s="56"/>
       <c r="T24" s="56"/>
       <c r="U24" s="55"/>
-      <c r="V24"/>
-    </row>
-    <row r="25" spans="1:23" s="1" customFormat="1" ht="16.5">
+    </row>
+    <row r="25" spans="1:22" ht="16.5">
       <c r="A25" s="36"/>
       <c r="B25" s="36"/>
       <c r="C25" s="36"/>
@@ -2622,9 +2610,8 @@
       <c r="S25" s="56"/>
       <c r="T25" s="56"/>
       <c r="U25" s="55"/>
-      <c r="V25"/>
-    </row>
-    <row r="26" spans="1:23" s="1" customFormat="1" ht="16.5">
+    </row>
+    <row r="26" spans="1:22" ht="16.5">
       <c r="A26" s="36"/>
       <c r="B26" s="36"/>
       <c r="C26" s="36"/>
@@ -2646,9 +2633,8 @@
       <c r="S26" s="53"/>
       <c r="T26" s="53"/>
       <c r="U26" s="47"/>
-      <c r="V26"/>
-    </row>
-    <row r="27" spans="1:23" s="1" customFormat="1" ht="16.5">
+    </row>
+    <row r="27" spans="1:22" ht="16.5">
       <c r="A27" s="36"/>
       <c r="B27" s="36"/>
       <c r="C27" s="36"/>
@@ -2670,9 +2656,8 @@
       <c r="S27" s="44"/>
       <c r="T27" s="44"/>
       <c r="U27" s="52"/>
-      <c r="V27"/>
-    </row>
-    <row r="28" spans="1:23" s="1" customFormat="1" ht="16.5">
+    </row>
+    <row r="28" spans="1:22" ht="16.5">
       <c r="A28" s="36"/>
       <c r="B28" s="36"/>
       <c r="C28" s="36"/>
@@ -2694,9 +2679,8 @@
       <c r="S28" s="44"/>
       <c r="T28" s="44"/>
       <c r="U28" s="52"/>
-      <c r="V28"/>
-    </row>
-    <row r="29" spans="1:23" s="1" customFormat="1" ht="16.5">
+    </row>
+    <row r="29" spans="1:22" ht="16.5">
       <c r="A29" s="36"/>
       <c r="B29" s="36"/>
       <c r="C29" s="36"/>
@@ -2718,9 +2702,8 @@
       <c r="S29" s="44"/>
       <c r="T29" s="44"/>
       <c r="U29" s="52"/>
-      <c r="V29"/>
-    </row>
-    <row r="30" spans="1:23" s="1" customFormat="1" ht="16.5">
+    </row>
+    <row r="30" spans="1:22" ht="16.5">
       <c r="A30" s="36"/>
       <c r="B30" s="36"/>
       <c r="C30" s="36"/>
@@ -2742,9 +2725,8 @@
       <c r="S30" s="56"/>
       <c r="T30" s="56"/>
       <c r="U30" s="55"/>
-      <c r="V30"/>
-    </row>
-    <row r="31" spans="1:23" s="1" customFormat="1" ht="16.5">
+    </row>
+    <row r="31" spans="1:22" ht="16.5">
       <c r="A31" s="36"/>
       <c r="B31" s="36"/>
       <c r="C31" s="36"/>
@@ -2766,9 +2748,8 @@
       <c r="S31" s="44"/>
       <c r="T31" s="44"/>
       <c r="U31" s="50"/>
-      <c r="V31"/>
-    </row>
-    <row r="32" spans="1:23" s="1" customFormat="1" ht="16.5">
+    </row>
+    <row r="32" spans="1:22" ht="16.5">
       <c r="A32" s="36"/>
       <c r="B32" s="36"/>
       <c r="C32" s="36"/>
@@ -2790,9 +2771,8 @@
       <c r="S32" s="44"/>
       <c r="T32" s="44"/>
       <c r="U32" s="52"/>
-      <c r="V32"/>
-    </row>
-    <row r="33" spans="1:23" s="1" customFormat="1" ht="16.5">
+    </row>
+    <row r="33" spans="1:21" ht="16.5">
       <c r="A33" s="36"/>
       <c r="B33" s="36"/>
       <c r="C33" s="36"/>
@@ -2814,9 +2794,8 @@
       <c r="S33" s="44"/>
       <c r="T33" s="44"/>
       <c r="U33" s="52"/>
-      <c r="V33"/>
-    </row>
-    <row r="34" spans="1:23" s="1" customFormat="1" ht="16.5">
+    </row>
+    <row r="34" spans="1:21" ht="16.5">
       <c r="A34" s="36"/>
       <c r="B34" s="36"/>
       <c r="C34" s="36"/>
@@ -2838,9 +2817,8 @@
       <c r="S34" s="44"/>
       <c r="T34" s="44"/>
       <c r="U34" s="52"/>
-      <c r="V34"/>
-    </row>
-    <row r="35" spans="1:23" s="1" customFormat="1" ht="16.5">
+    </row>
+    <row r="35" spans="1:21" ht="16.5">
       <c r="A35" s="36"/>
       <c r="B35" s="36"/>
       <c r="C35" s="36"/>
@@ -2862,9 +2840,8 @@
       <c r="S35" s="44"/>
       <c r="T35" s="44"/>
       <c r="U35" s="52"/>
-      <c r="V35"/>
-    </row>
-    <row r="36" spans="1:23" s="1" customFormat="1" ht="16.5">
+    </row>
+    <row r="36" spans="1:21" ht="16.5">
       <c r="A36" s="36"/>
       <c r="B36" s="36"/>
       <c r="C36" s="36"/>
@@ -2886,9 +2863,8 @@
       <c r="S36" s="44"/>
       <c r="T36" s="44"/>
       <c r="U36" s="52"/>
-      <c r="V36"/>
-    </row>
-    <row r="37" spans="1:23" s="1" customFormat="1" ht="16.5">
+    </row>
+    <row r="37" spans="1:21" ht="16.5">
       <c r="A37" s="36"/>
       <c r="B37" s="36"/>
       <c r="C37" s="36"/>
@@ -2910,9 +2886,8 @@
       <c r="S37" s="44"/>
       <c r="T37" s="44"/>
       <c r="U37" s="52"/>
-      <c r="V37"/>
-    </row>
-    <row r="38" spans="1:23" s="1" customFormat="1" ht="16.5">
+    </row>
+    <row r="38" spans="1:21" ht="16.5">
       <c r="A38" s="36"/>
       <c r="B38" s="36"/>
       <c r="C38" s="36"/>
@@ -2934,9 +2909,8 @@
       <c r="S38" s="44"/>
       <c r="T38" s="44"/>
       <c r="U38" s="52"/>
-      <c r="V38"/>
-    </row>
-    <row r="39" spans="1:23" s="1" customFormat="1" ht="16.5">
+    </row>
+    <row r="39" spans="1:21" ht="16.5">
       <c r="A39" s="36"/>
       <c r="B39" s="36"/>
       <c r="C39" s="36"/>
@@ -2958,9 +2932,8 @@
       <c r="S39" s="44"/>
       <c r="T39" s="44"/>
       <c r="U39" s="52"/>
-      <c r="V39"/>
-    </row>
-    <row r="40" spans="1:23" s="1" customFormat="1" ht="16.5">
+    </row>
+    <row r="40" spans="1:21" ht="16.5">
       <c r="A40" s="36"/>
       <c r="B40" s="36"/>
       <c r="C40" s="36"/>
@@ -2982,9 +2955,8 @@
       <c r="S40" s="44"/>
       <c r="T40" s="44"/>
       <c r="U40" s="52"/>
-      <c r="V40"/>
-    </row>
-    <row r="41" spans="1:23" s="1" customFormat="1" ht="16.5">
+    </row>
+    <row r="41" spans="1:21" ht="16.5">
       <c r="A41" s="36"/>
       <c r="B41" s="36"/>
       <c r="C41" s="36"/>
@@ -3006,9 +2978,8 @@
       <c r="S41" s="44"/>
       <c r="T41" s="44"/>
       <c r="U41" s="52"/>
-      <c r="V41"/>
-    </row>
-    <row r="42" spans="1:23" s="1" customFormat="1" ht="16.5">
+    </row>
+    <row r="42" spans="1:21" ht="16.5">
       <c r="A42" s="36"/>
       <c r="B42" s="36"/>
       <c r="C42" s="36"/>
@@ -3030,9 +3001,8 @@
       <c r="S42" s="53"/>
       <c r="T42" s="53"/>
       <c r="U42" s="52"/>
-      <c r="V42"/>
-    </row>
-    <row r="43" spans="1:23" s="1" customFormat="1" ht="16.5">
+    </row>
+    <row r="43" spans="1:21" ht="16.5">
       <c r="A43" s="36"/>
       <c r="B43" s="36"/>
       <c r="C43" s="36"/>
@@ -3054,9 +3024,8 @@
       <c r="S43" s="53"/>
       <c r="T43" s="53"/>
       <c r="U43" s="52"/>
-      <c r="V43"/>
-    </row>
-    <row r="44" spans="1:23" s="1" customFormat="1" ht="16.5">
+    </row>
+    <row r="44" spans="1:21" ht="16.5">
       <c r="A44" s="36"/>
       <c r="B44" s="36"/>
       <c r="C44" s="36"/>
@@ -3078,9 +3047,8 @@
       <c r="S44" s="44"/>
       <c r="T44" s="44"/>
       <c r="U44" s="45"/>
-      <c r="V44"/>
-    </row>
-    <row r="45" spans="1:23" s="1" customFormat="1" ht="16.5">
+    </row>
+    <row r="45" spans="1:21" ht="16.5">
       <c r="A45" s="36"/>
       <c r="B45" s="36"/>
       <c r="C45" s="36"/>
@@ -3102,9 +3070,8 @@
       <c r="S45" s="44"/>
       <c r="T45" s="44"/>
       <c r="U45" s="45"/>
-      <c r="V45"/>
-    </row>
-    <row r="46" spans="1:23" s="1" customFormat="1" ht="16.5">
+    </row>
+    <row r="46" spans="1:21" ht="16.5">
       <c r="A46" s="36"/>
       <c r="B46" s="36"/>
       <c r="C46" s="36"/>
@@ -3126,9 +3093,8 @@
       <c r="S46" s="44"/>
       <c r="T46" s="44"/>
       <c r="U46" s="45"/>
-      <c r="V46"/>
-    </row>
-    <row r="47" spans="1:23" s="1" customFormat="1" ht="16.5">
+    </row>
+    <row r="47" spans="1:21" ht="16.5">
       <c r="A47" s="36"/>
       <c r="B47" s="36"/>
       <c r="C47" s="36"/>
@@ -3150,9 +3116,8 @@
       <c r="S47" s="44"/>
       <c r="T47" s="44"/>
       <c r="U47" s="45"/>
-      <c r="V47"/>
-    </row>
-    <row r="48" spans="1:23" s="1" customFormat="1" ht="16.5">
+    </row>
+    <row r="48" spans="1:21" ht="16.5">
       <c r="A48" s="36"/>
       <c r="B48" s="36"/>
       <c r="C48" s="36"/>
@@ -3174,9 +3139,8 @@
       <c r="S48" s="44"/>
       <c r="T48" s="44"/>
       <c r="U48" s="45"/>
-      <c r="V48"/>
-    </row>
-    <row r="49" spans="1:23" s="1" customFormat="1" ht="16.5">
+    </row>
+    <row r="49" spans="1:21" ht="16.5">
       <c r="A49" s="36"/>
       <c r="B49" s="36"/>
       <c r="C49" s="36"/>
@@ -3198,9 +3162,8 @@
       <c r="S49" s="44"/>
       <c r="T49" s="44"/>
       <c r="U49" s="45"/>
-      <c r="V49"/>
-    </row>
-    <row r="50" spans="1:23" s="1" customFormat="1" ht="16.5">
+    </row>
+    <row r="50" spans="1:21" ht="16.5">
       <c r="A50" s="36"/>
       <c r="B50" s="36"/>
       <c r="C50" s="36"/>
@@ -3222,9 +3185,8 @@
       <c r="S50" s="44"/>
       <c r="T50" s="44"/>
       <c r="U50" s="45"/>
-      <c r="V50"/>
-    </row>
-    <row r="51" spans="1:23" s="1" customFormat="1" ht="16.5">
+    </row>
+    <row r="51" spans="1:21" ht="16.5">
       <c r="A51" s="44"/>
       <c r="B51" s="44"/>
       <c r="C51" s="44"/>
@@ -3246,9 +3208,8 @@
       <c r="S51" s="44"/>
       <c r="T51" s="44"/>
       <c r="U51" s="45"/>
-      <c r="V51"/>
-    </row>
-    <row r="52" spans="1:23" s="1" customFormat="1" ht="16.5">
+    </row>
+    <row r="52" spans="1:21" ht="16.5">
       <c r="A52" s="44"/>
       <c r="B52" s="44"/>
       <c r="C52" s="44"/>
@@ -3270,9 +3231,8 @@
       <c r="S52" s="44"/>
       <c r="T52" s="44"/>
       <c r="U52" s="45"/>
-      <c r="V52"/>
-    </row>
-    <row r="53" spans="1:23" s="1" customFormat="1" ht="16.5">
+    </row>
+    <row r="53" spans="1:21" ht="16.5">
       <c r="A53" s="44"/>
       <c r="B53" s="44"/>
       <c r="C53" s="44"/>
@@ -3294,9 +3254,8 @@
       <c r="S53" s="44"/>
       <c r="T53" s="44"/>
       <c r="U53" s="45"/>
-      <c r="V53"/>
-    </row>
-    <row r="54" spans="1:23" s="1" customFormat="1" ht="16.5">
+    </row>
+    <row r="54" spans="1:21" ht="16.5">
       <c r="A54" s="44"/>
       <c r="B54" s="44"/>
       <c r="C54" s="44"/>
@@ -3318,9 +3277,8 @@
       <c r="S54" s="44"/>
       <c r="T54" s="44"/>
       <c r="U54" s="45"/>
-      <c r="V54"/>
-    </row>
-    <row r="55" spans="1:23" s="1" customFormat="1" ht="16.5">
+    </row>
+    <row r="55" spans="1:21" ht="16.5">
       <c r="A55" s="44"/>
       <c r="B55" s="44"/>
       <c r="C55" s="44"/>
@@ -3342,9 +3300,8 @@
       <c r="S55" s="44"/>
       <c r="T55" s="44"/>
       <c r="U55" s="45"/>
-      <c r="V55"/>
-    </row>
-    <row r="56" spans="1:23" s="1" customFormat="1" ht="16.5">
+    </row>
+    <row r="56" spans="1:21" ht="16.5">
       <c r="A56" s="44"/>
       <c r="B56" s="44"/>
       <c r="C56" s="44"/>
@@ -3366,9 +3323,8 @@
       <c r="S56" s="44"/>
       <c r="T56" s="44"/>
       <c r="U56" s="45"/>
-      <c r="V56"/>
-    </row>
-    <row r="57" spans="1:23" s="1" customFormat="1" ht="16.5">
+    </row>
+    <row r="57" spans="1:21" ht="16.5">
       <c r="A57" s="44"/>
       <c r="B57" s="44"/>
       <c r="C57" s="44"/>
@@ -3390,9 +3346,8 @@
       <c r="S57" s="44"/>
       <c r="T57" s="44"/>
       <c r="U57" s="45"/>
-      <c r="V57"/>
-    </row>
-    <row r="58" spans="1:23" s="1" customFormat="1" ht="16.5">
+    </row>
+    <row r="58" spans="1:21" ht="16.5">
       <c r="A58" s="44"/>
       <c r="B58" s="44"/>
       <c r="C58" s="44"/>
@@ -3414,9 +3369,8 @@
       <c r="S58" s="44"/>
       <c r="T58" s="44"/>
       <c r="U58" s="45"/>
-      <c r="V58"/>
-    </row>
-    <row r="59" spans="1:23" s="1" customFormat="1" ht="16.5">
+    </row>
+    <row r="59" spans="1:21" ht="16.5">
       <c r="A59" s="44"/>
       <c r="B59" s="44"/>
       <c r="C59" s="44"/>
@@ -3438,9 +3392,8 @@
       <c r="S59" s="44"/>
       <c r="T59" s="44"/>
       <c r="U59" s="45"/>
-      <c r="V59"/>
-    </row>
-    <row r="60" spans="1:23" s="1" customFormat="1" ht="16.5">
+    </row>
+    <row r="60" spans="1:21" ht="16.5">
       <c r="A60" s="44"/>
       <c r="B60" s="44"/>
       <c r="C60" s="44"/>
@@ -3462,9 +3415,8 @@
       <c r="S60" s="44"/>
       <c r="T60" s="44"/>
       <c r="U60" s="45"/>
-      <c r="V60"/>
-    </row>
-    <row r="61" spans="1:23" s="1" customFormat="1" ht="16.5">
+    </row>
+    <row r="61" spans="1:21" ht="16.5">
       <c r="A61" s="44"/>
       <c r="B61" s="44"/>
       <c r="C61" s="44"/>
@@ -3486,9 +3438,8 @@
       <c r="S61" s="44"/>
       <c r="T61" s="44"/>
       <c r="U61" s="45"/>
-      <c r="V61"/>
-    </row>
-    <row r="62" spans="1:23" s="1" customFormat="1" ht="16.5">
+    </row>
+    <row r="62" spans="1:21" ht="16.5">
       <c r="A62" s="44"/>
       <c r="B62" s="44"/>
       <c r="C62" s="44"/>
@@ -3510,9 +3461,8 @@
       <c r="S62" s="44"/>
       <c r="T62" s="44"/>
       <c r="U62" s="45"/>
-      <c r="V62"/>
-    </row>
-    <row r="63" spans="1:23" s="1" customFormat="1" ht="16.5">
+    </row>
+    <row r="63" spans="1:21" ht="16.5">
       <c r="A63" s="44"/>
       <c r="B63" s="44"/>
       <c r="C63" s="44"/>
@@ -3534,9 +3484,8 @@
       <c r="S63" s="44"/>
       <c r="T63" s="44"/>
       <c r="U63" s="45"/>
-      <c r="V63"/>
-    </row>
-    <row r="64" spans="1:23" s="1" customFormat="1" ht="16.5">
+    </row>
+    <row r="64" spans="1:21" ht="16.5">
       <c r="A64" s="44"/>
       <c r="B64" s="44"/>
       <c r="C64" s="44"/>
@@ -3558,9 +3507,8 @@
       <c r="S64" s="44"/>
       <c r="T64" s="44"/>
       <c r="U64" s="45"/>
-      <c r="V64"/>
-    </row>
-    <row r="65" spans="1:23" s="1" customFormat="1" ht="16.5">
+    </row>
+    <row r="65" spans="1:21" ht="16.5">
       <c r="A65" s="44"/>
       <c r="B65" s="44"/>
       <c r="C65" s="44"/>
@@ -3582,9 +3530,8 @@
       <c r="S65" s="44"/>
       <c r="T65" s="44"/>
       <c r="U65" s="45"/>
-      <c r="V65"/>
-    </row>
-    <row r="66" spans="1:23" s="1" customFormat="1" ht="16.5">
+    </row>
+    <row r="66" spans="1:21" ht="16.5">
       <c r="A66" s="44"/>
       <c r="B66" s="44"/>
       <c r="C66" s="44"/>
@@ -3606,9 +3553,8 @@
       <c r="S66" s="44"/>
       <c r="T66" s="44"/>
       <c r="U66" s="45"/>
-      <c r="V66"/>
-    </row>
-    <row r="67" spans="1:23" s="1" customFormat="1" ht="16.5">
+    </row>
+    <row r="67" spans="1:21" ht="16.5">
       <c r="A67" s="44"/>
       <c r="B67" s="44"/>
       <c r="C67" s="44"/>
@@ -3630,9 +3576,8 @@
       <c r="S67" s="44"/>
       <c r="T67" s="44"/>
       <c r="U67" s="45"/>
-      <c r="V67"/>
-    </row>
-    <row r="68" spans="1:23" s="1" customFormat="1" ht="16.5">
+    </row>
+    <row r="68" spans="1:21" ht="16.5">
       <c r="A68" s="44"/>
       <c r="B68" s="44"/>
       <c r="C68" s="44"/>
@@ -3654,9 +3599,8 @@
       <c r="S68" s="44"/>
       <c r="T68" s="44"/>
       <c r="U68" s="45"/>
-      <c r="V68"/>
-    </row>
-    <row r="69" spans="1:23" s="1" customFormat="1" ht="16.5">
+    </row>
+    <row r="69" spans="1:21" ht="16.5">
       <c r="A69" s="44"/>
       <c r="B69" s="44"/>
       <c r="C69" s="44"/>
@@ -3678,9 +3622,8 @@
       <c r="S69" s="44"/>
       <c r="T69" s="44"/>
       <c r="U69" s="45"/>
-      <c r="V69"/>
-    </row>
-    <row r="70" spans="1:23" s="1" customFormat="1" ht="16.5">
+    </row>
+    <row r="70" spans="1:21" ht="16.5">
       <c r="A70" s="44"/>
       <c r="B70" s="44"/>
       <c r="C70" s="44"/>
@@ -3702,9 +3645,8 @@
       <c r="S70" s="44"/>
       <c r="T70" s="44"/>
       <c r="U70" s="45"/>
-      <c r="V70"/>
-    </row>
-    <row r="71" spans="1:23" s="1" customFormat="1" ht="16.5">
+    </row>
+    <row r="71" spans="1:21" ht="16.5">
       <c r="A71" s="44"/>
       <c r="B71" s="44"/>
       <c r="C71" s="44"/>
@@ -3726,9 +3668,8 @@
       <c r="S71" s="44"/>
       <c r="T71" s="44"/>
       <c r="U71" s="45"/>
-      <c r="V71"/>
-    </row>
-    <row r="72" spans="1:23" s="1" customFormat="1" ht="16.5">
+    </row>
+    <row r="72" spans="1:21" ht="16.5">
       <c r="A72" s="44"/>
       <c r="B72" s="44"/>
       <c r="C72" s="44"/>
@@ -3750,9 +3691,8 @@
       <c r="S72" s="44"/>
       <c r="T72" s="44"/>
       <c r="U72" s="45"/>
-      <c r="V72"/>
-    </row>
-    <row r="73" spans="1:23" s="1" customFormat="1">
+    </row>
+    <row r="73" spans="1:21">
       <c r="A73" s="44"/>
       <c r="B73" s="44"/>
       <c r="C73" s="44"/>
@@ -3774,9 +3714,8 @@
       <c r="S73" s="44"/>
       <c r="T73" s="44"/>
       <c r="U73" s="45"/>
-      <c r="V73"/>
-    </row>
-    <row r="74" spans="1:23" s="1" customFormat="1">
+    </row>
+    <row r="74" spans="1:21">
       <c r="A74" s="44"/>
       <c r="B74" s="44"/>
       <c r="C74" s="44"/>
@@ -3798,9 +3737,8 @@
       <c r="S74" s="44"/>
       <c r="T74" s="44"/>
       <c r="U74" s="45"/>
-      <c r="V74"/>
-    </row>
-    <row r="75" spans="1:23" s="1" customFormat="1">
+    </row>
+    <row r="75" spans="1:21">
       <c r="A75" s="44"/>
       <c r="B75" s="44"/>
       <c r="C75" s="44"/>
@@ -3822,9 +3760,8 @@
       <c r="S75" s="44"/>
       <c r="T75" s="44"/>
       <c r="U75" s="45"/>
-      <c r="V75"/>
-    </row>
-    <row r="76" spans="1:23" s="1" customFormat="1">
+    </row>
+    <row r="76" spans="1:21">
       <c r="A76" s="44"/>
       <c r="B76" s="44"/>
       <c r="C76" s="44"/>
@@ -3846,9 +3783,8 @@
       <c r="S76" s="44"/>
       <c r="T76" s="44"/>
       <c r="U76" s="45"/>
-      <c r="V76"/>
-    </row>
-    <row r="77" spans="1:23" s="1" customFormat="1">
+    </row>
+    <row r="77" spans="1:21">
       <c r="A77" s="44"/>
       <c r="B77" s="44"/>
       <c r="C77" s="44"/>
@@ -3870,9 +3806,8 @@
       <c r="S77" s="44"/>
       <c r="T77" s="44"/>
       <c r="U77" s="45"/>
-      <c r="V77"/>
-    </row>
-    <row r="78" spans="1:23" s="1" customFormat="1">
+    </row>
+    <row r="78" spans="1:21">
       <c r="A78" s="44"/>
       <c r="B78" s="44"/>
       <c r="C78" s="44"/>
@@ -3894,9 +3829,8 @@
       <c r="S78" s="44"/>
       <c r="T78" s="44"/>
       <c r="U78" s="45"/>
-      <c r="V78"/>
-    </row>
-    <row r="79" spans="1:23" s="1" customFormat="1">
+    </row>
+    <row r="79" spans="1:21">
       <c r="A79" s="44"/>
       <c r="B79" s="44"/>
       <c r="C79" s="44"/>
@@ -3918,9 +3852,8 @@
       <c r="S79" s="44"/>
       <c r="T79" s="44"/>
       <c r="U79" s="45"/>
-      <c r="V79"/>
-    </row>
-    <row r="80" spans="1:23" s="1" customFormat="1">
+    </row>
+    <row r="80" spans="1:21">
       <c r="A80" s="44"/>
       <c r="B80" s="44"/>
       <c r="C80" s="44"/>
@@ -3942,9 +3875,8 @@
       <c r="S80" s="44"/>
       <c r="T80" s="44"/>
       <c r="U80" s="45"/>
-      <c r="V80"/>
-    </row>
-    <row r="81" spans="1:23" s="1" customFormat="1">
+    </row>
+    <row r="81" spans="1:21">
       <c r="A81" s="44"/>
       <c r="B81" s="44"/>
       <c r="C81" s="44"/>
@@ -3966,9 +3898,8 @@
       <c r="S81" s="44"/>
       <c r="T81" s="44"/>
       <c r="U81" s="45"/>
-      <c r="V81"/>
-    </row>
-    <row r="82" spans="1:23" s="1" customFormat="1">
+    </row>
+    <row r="82" spans="1:21">
       <c r="A82" s="44"/>
       <c r="B82" s="44"/>
       <c r="C82" s="44"/>
@@ -3990,9 +3921,8 @@
       <c r="S82" s="44"/>
       <c r="T82" s="44"/>
       <c r="U82" s="45"/>
-      <c r="V82"/>
-    </row>
-    <row r="83" spans="1:23" s="1" customFormat="1">
+    </row>
+    <row r="83" spans="1:21">
       <c r="A83" s="44"/>
       <c r="B83" s="44"/>
       <c r="C83" s="44"/>
@@ -4014,9 +3944,8 @@
       <c r="S83" s="44"/>
       <c r="T83" s="44"/>
       <c r="U83" s="45"/>
-      <c r="V83"/>
-    </row>
-    <row r="84" spans="1:23" s="1" customFormat="1">
+    </row>
+    <row r="84" spans="1:21">
       <c r="A84" s="44"/>
       <c r="B84" s="44"/>
       <c r="C84" s="44"/>
@@ -4038,9 +3967,8 @@
       <c r="S84" s="44"/>
       <c r="T84" s="44"/>
       <c r="U84" s="45"/>
-      <c r="V84"/>
-    </row>
-    <row r="85" spans="1:23" s="1" customFormat="1">
+    </row>
+    <row r="85" spans="1:21">
       <c r="A85" s="44"/>
       <c r="B85" s="44"/>
       <c r="C85" s="44"/>
@@ -4062,9 +3990,8 @@
       <c r="S85" s="44"/>
       <c r="T85" s="44"/>
       <c r="U85" s="45"/>
-      <c r="V85"/>
-    </row>
-    <row r="86" spans="1:23" s="1" customFormat="1">
+    </row>
+    <row r="86" spans="1:21">
       <c r="A86" s="44"/>
       <c r="B86" s="44"/>
       <c r="C86" s="44"/>
@@ -4086,9 +4013,8 @@
       <c r="S86" s="44"/>
       <c r="T86" s="44"/>
       <c r="U86" s="45"/>
-      <c r="V86"/>
-    </row>
-    <row r="87" spans="1:23" s="1" customFormat="1">
+    </row>
+    <row r="87" spans="1:21">
       <c r="A87" s="44"/>
       <c r="B87" s="44"/>
       <c r="C87" s="44"/>
@@ -4110,9 +4036,8 @@
       <c r="S87" s="44"/>
       <c r="T87" s="44"/>
       <c r="U87" s="45"/>
-      <c r="V87"/>
-    </row>
-    <row r="88" spans="1:23" s="1" customFormat="1">
+    </row>
+    <row r="88" spans="1:21">
       <c r="A88" s="44"/>
       <c r="B88" s="44"/>
       <c r="C88" s="44"/>
@@ -4134,9 +4059,8 @@
       <c r="S88" s="44"/>
       <c r="T88" s="44"/>
       <c r="U88" s="45"/>
-      <c r="V88"/>
-    </row>
-    <row r="89" spans="1:23" s="1" customFormat="1">
+    </row>
+    <row r="89" spans="1:21">
       <c r="A89" s="44"/>
       <c r="B89" s="44"/>
       <c r="C89" s="44"/>
@@ -4158,9 +4082,8 @@
       <c r="S89" s="44"/>
       <c r="T89" s="44"/>
       <c r="U89" s="45"/>
-      <c r="V89"/>
-    </row>
-    <row r="90" spans="1:23" s="1" customFormat="1">
+    </row>
+    <row r="90" spans="1:21">
       <c r="A90" s="44"/>
       <c r="B90" s="44"/>
       <c r="C90" s="44"/>
@@ -4182,9 +4105,8 @@
       <c r="S90" s="44"/>
       <c r="T90" s="44"/>
       <c r="U90" s="45"/>
-      <c r="V90"/>
-    </row>
-    <row r="91" spans="1:23" s="1" customFormat="1">
+    </row>
+    <row r="91" spans="1:21">
       <c r="A91" s="44"/>
       <c r="B91" s="44"/>
       <c r="C91" s="44"/>
@@ -4206,9 +4128,8 @@
       <c r="S91" s="44"/>
       <c r="T91" s="44"/>
       <c r="U91" s="45"/>
-      <c r="V91"/>
-    </row>
-    <row r="92" spans="1:23" s="1" customFormat="1">
+    </row>
+    <row r="92" spans="1:21">
       <c r="A92" s="44"/>
       <c r="B92" s="44"/>
       <c r="C92" s="44"/>
@@ -4230,9 +4151,8 @@
       <c r="S92" s="44"/>
       <c r="T92" s="44"/>
       <c r="U92" s="45"/>
-      <c r="V92"/>
-    </row>
-    <row r="93" spans="1:23" s="1" customFormat="1">
+    </row>
+    <row r="93" spans="1:21">
       <c r="A93" s="44"/>
       <c r="B93" s="44"/>
       <c r="C93" s="44"/>
@@ -4254,9 +4174,8 @@
       <c r="S93" s="44"/>
       <c r="T93" s="44"/>
       <c r="U93" s="45"/>
-      <c r="V93"/>
-    </row>
-    <row r="94" spans="1:23" s="1" customFormat="1">
+    </row>
+    <row r="94" spans="1:21">
       <c r="A94" s="44"/>
       <c r="B94" s="44"/>
       <c r="C94" s="44"/>
@@ -4278,9 +4197,8 @@
       <c r="S94" s="44"/>
       <c r="T94" s="44"/>
       <c r="U94" s="45"/>
-      <c r="V94"/>
-    </row>
-    <row r="95" spans="1:23" s="1" customFormat="1">
+    </row>
+    <row r="95" spans="1:21">
       <c r="A95" s="44"/>
       <c r="B95" s="44"/>
       <c r="C95" s="44"/>
@@ -4302,9 +4220,8 @@
       <c r="S95" s="44"/>
       <c r="T95" s="44"/>
       <c r="U95" s="45"/>
-      <c r="V95"/>
-    </row>
-    <row r="96" spans="1:23" s="1" customFormat="1">
+    </row>
+    <row r="96" spans="1:21">
       <c r="A96" s="44"/>
       <c r="B96" s="44"/>
       <c r="C96" s="44"/>
@@ -4326,9 +4243,8 @@
       <c r="S96" s="44"/>
       <c r="T96" s="44"/>
       <c r="U96" s="45"/>
-      <c r="V96"/>
-    </row>
-    <row r="97" spans="1:23" s="1" customFormat="1">
+    </row>
+    <row r="97" spans="1:21">
       <c r="A97" s="44"/>
       <c r="B97" s="44"/>
       <c r="C97" s="44"/>
@@ -4350,9 +4266,8 @@
       <c r="S97" s="44"/>
       <c r="T97" s="44"/>
       <c r="U97" s="45"/>
-      <c r="V97"/>
-    </row>
-    <row r="98" spans="1:23" s="1" customFormat="1">
+    </row>
+    <row r="98" spans="1:21">
       <c r="A98" s="44"/>
       <c r="B98" s="44"/>
       <c r="C98" s="44"/>
@@ -4374,9 +4289,8 @@
       <c r="S98" s="44"/>
       <c r="T98" s="44"/>
       <c r="U98" s="45"/>
-      <c r="V98"/>
-    </row>
-    <row r="99" spans="1:23" s="1" customFormat="1">
+    </row>
+    <row r="99" spans="1:21">
       <c r="A99" s="44"/>
       <c r="B99" s="44"/>
       <c r="C99" s="44"/>
@@ -4398,9 +4312,8 @@
       <c r="S99" s="44"/>
       <c r="T99" s="44"/>
       <c r="U99" s="45"/>
-      <c r="V99"/>
-    </row>
-    <row r="100" spans="1:23" s="1" customFormat="1">
+    </row>
+    <row r="100" spans="1:21">
       <c r="A100" s="44"/>
       <c r="B100" s="44"/>
       <c r="C100" s="44"/>
@@ -4422,9 +4335,8 @@
       <c r="S100" s="44"/>
       <c r="T100" s="44"/>
       <c r="U100" s="45"/>
-      <c r="V100"/>
-    </row>
-    <row r="101" spans="1:23" s="1" customFormat="1">
+    </row>
+    <row r="101" spans="1:21">
       <c r="A101" s="44"/>
       <c r="B101" s="44"/>
       <c r="C101" s="44"/>
@@ -4446,9 +4358,8 @@
       <c r="S101" s="44"/>
       <c r="T101" s="44"/>
       <c r="U101" s="45"/>
-      <c r="V101"/>
-    </row>
-    <row r="102" spans="1:23" s="1" customFormat="1">
+    </row>
+    <row r="102" spans="1:21">
       <c r="A102" s="44"/>
       <c r="B102" s="44"/>
       <c r="C102" s="44"/>
@@ -4470,9 +4381,8 @@
       <c r="S102" s="44"/>
       <c r="T102" s="44"/>
       <c r="U102" s="45"/>
-      <c r="V102"/>
-    </row>
-    <row r="103" spans="1:23" s="1" customFormat="1">
+    </row>
+    <row r="103" spans="1:21">
       <c r="A103" s="44"/>
       <c r="B103" s="44"/>
       <c r="C103" s="44"/>
@@ -4494,9 +4404,8 @@
       <c r="S103" s="44"/>
       <c r="T103" s="44"/>
       <c r="U103" s="45"/>
-      <c r="V103"/>
-    </row>
-    <row r="104" spans="1:23" s="1" customFormat="1">
+    </row>
+    <row r="104" spans="1:21">
       <c r="A104" s="44"/>
       <c r="B104" s="44"/>
       <c r="C104" s="44"/>
@@ -4518,9 +4427,8 @@
       <c r="S104" s="44"/>
       <c r="T104" s="44"/>
       <c r="U104" s="45"/>
-      <c r="V104"/>
-    </row>
-    <row r="105" spans="1:23" s="1" customFormat="1">
+    </row>
+    <row r="105" spans="1:21">
       <c r="A105" s="44"/>
       <c r="B105" s="44"/>
       <c r="C105" s="44"/>
@@ -4542,9 +4450,8 @@
       <c r="S105" s="44"/>
       <c r="T105" s="44"/>
       <c r="U105" s="45"/>
-      <c r="V105"/>
-    </row>
-    <row r="106" spans="1:23" s="1" customFormat="1">
+    </row>
+    <row r="106" spans="1:21">
       <c r="A106" s="44"/>
       <c r="B106" s="44"/>
       <c r="C106" s="44"/>
@@ -4566,9 +4473,8 @@
       <c r="S106" s="44"/>
       <c r="T106" s="44"/>
       <c r="U106" s="45"/>
-      <c r="V106"/>
-    </row>
-    <row r="107" spans="1:23" s="1" customFormat="1">
+    </row>
+    <row r="107" spans="1:21">
       <c r="A107" s="44"/>
       <c r="B107" s="44"/>
       <c r="C107" s="44"/>
@@ -4590,9 +4496,8 @@
       <c r="S107" s="44"/>
       <c r="T107" s="44"/>
       <c r="U107" s="45"/>
-      <c r="V107"/>
-    </row>
-    <row r="108" spans="1:23" s="1" customFormat="1">
+    </row>
+    <row r="108" spans="1:21">
       <c r="A108" s="44"/>
       <c r="B108" s="44"/>
       <c r="C108" s="44"/>
@@ -4614,9 +4519,8 @@
       <c r="S108" s="44"/>
       <c r="T108" s="44"/>
       <c r="U108" s="45"/>
-      <c r="V108"/>
-    </row>
-    <row r="109" spans="1:23" s="1" customFormat="1">
+    </row>
+    <row r="109" spans="1:21">
       <c r="A109" s="44"/>
       <c r="B109" s="44"/>
       <c r="C109" s="44"/>
@@ -4638,9 +4542,8 @@
       <c r="S109" s="44"/>
       <c r="T109" s="44"/>
       <c r="U109" s="45"/>
-      <c r="V109"/>
-    </row>
-    <row r="110" spans="1:23" s="1" customFormat="1">
+    </row>
+    <row r="110" spans="1:21">
       <c r="A110" s="44"/>
       <c r="B110" s="44"/>
       <c r="C110" s="44"/>
@@ -4662,9 +4565,8 @@
       <c r="S110" s="44"/>
       <c r="T110" s="44"/>
       <c r="U110" s="45"/>
-      <c r="V110"/>
-    </row>
-    <row r="111" spans="1:23" s="1" customFormat="1">
+    </row>
+    <row r="111" spans="1:21">
       <c r="A111" s="44"/>
       <c r="B111" s="44"/>
       <c r="C111" s="44"/>
@@ -4686,9 +4588,8 @@
       <c r="S111" s="44"/>
       <c r="T111" s="44"/>
       <c r="U111" s="45"/>
-      <c r="V111"/>
-    </row>
-    <row r="112" spans="1:23" s="1" customFormat="1">
+    </row>
+    <row r="112" spans="1:21">
       <c r="A112" s="44"/>
       <c r="B112" s="44"/>
       <c r="C112" s="44"/>
@@ -4710,9 +4611,8 @@
       <c r="S112" s="44"/>
       <c r="T112" s="44"/>
       <c r="U112" s="45"/>
-      <c r="V112"/>
-    </row>
-    <row r="113" spans="1:23" s="1" customFormat="1">
+    </row>
+    <row r="113" spans="1:21">
       <c r="A113" s="44"/>
       <c r="B113" s="44"/>
       <c r="C113" s="44"/>
@@ -4734,9 +4634,8 @@
       <c r="S113" s="44"/>
       <c r="T113" s="44"/>
       <c r="U113" s="45"/>
-      <c r="V113"/>
-    </row>
-    <row r="114" spans="1:23" s="1" customFormat="1">
+    </row>
+    <row r="114" spans="1:21">
       <c r="A114" s="44"/>
       <c r="B114" s="44"/>
       <c r="C114" s="44"/>
@@ -4758,9 +4657,8 @@
       <c r="S114" s="44"/>
       <c r="T114" s="44"/>
       <c r="U114" s="45"/>
-      <c r="V114"/>
-    </row>
-    <row r="115" spans="1:23" s="1" customFormat="1">
+    </row>
+    <row r="115" spans="1:21">
       <c r="A115" s="44"/>
       <c r="B115" s="44"/>
       <c r="C115" s="44"/>
@@ -4782,9 +4680,8 @@
       <c r="S115" s="44"/>
       <c r="T115" s="44"/>
       <c r="U115" s="45"/>
-      <c r="V115"/>
-    </row>
-    <row r="116" spans="1:23" s="1" customFormat="1">
+    </row>
+    <row r="116" spans="1:21">
       <c r="A116" s="44"/>
       <c r="B116" s="44"/>
       <c r="C116" s="44"/>
@@ -4806,9 +4703,8 @@
       <c r="S116" s="44"/>
       <c r="T116" s="44"/>
       <c r="U116" s="45"/>
-      <c r="V116"/>
-    </row>
-    <row r="117" spans="1:23" s="1" customFormat="1">
+    </row>
+    <row r="117" spans="1:21">
       <c r="A117" s="44"/>
       <c r="B117" s="44"/>
       <c r="C117" s="44"/>
@@ -4830,9 +4726,8 @@
       <c r="S117" s="44"/>
       <c r="T117" s="44"/>
       <c r="U117" s="45"/>
-      <c r="V117"/>
-    </row>
-    <row r="118" spans="1:23" s="1" customFormat="1">
+    </row>
+    <row r="118" spans="1:21">
       <c r="A118" s="44"/>
       <c r="B118" s="44"/>
       <c r="C118" s="44"/>
@@ -4854,9 +4749,8 @@
       <c r="S118" s="44"/>
       <c r="T118" s="44"/>
       <c r="U118" s="45"/>
-      <c r="V118"/>
-    </row>
-    <row r="119" spans="1:23" s="1" customFormat="1">
+    </row>
+    <row r="119" spans="1:21">
       <c r="A119" s="44"/>
       <c r="B119" s="44"/>
       <c r="C119" s="44"/>
@@ -4878,9 +4772,8 @@
       <c r="S119" s="44"/>
       <c r="T119" s="44"/>
       <c r="U119" s="45"/>
-      <c r="V119"/>
-    </row>
-    <row r="120" spans="1:23" s="1" customFormat="1">
+    </row>
+    <row r="120" spans="1:21">
       <c r="A120" s="44"/>
       <c r="B120" s="44"/>
       <c r="C120" s="44"/>
@@ -4902,9 +4795,8 @@
       <c r="S120" s="44"/>
       <c r="T120" s="44"/>
       <c r="U120" s="45"/>
-      <c r="V120"/>
-    </row>
-    <row r="121" spans="1:23" s="1" customFormat="1">
+    </row>
+    <row r="121" spans="1:21">
       <c r="A121" s="44"/>
       <c r="B121" s="44"/>
       <c r="C121" s="44"/>
@@ -4926,9 +4818,8 @@
       <c r="S121" s="44"/>
       <c r="T121" s="44"/>
       <c r="U121" s="45"/>
-      <c r="V121"/>
-    </row>
-    <row r="122" spans="1:23" s="1" customFormat="1">
+    </row>
+    <row r="122" spans="1:21">
       <c r="A122" s="44"/>
       <c r="B122" s="44"/>
       <c r="C122" s="44"/>
@@ -4950,9 +4841,8 @@
       <c r="S122" s="44"/>
       <c r="T122" s="44"/>
       <c r="U122" s="45"/>
-      <c r="V122"/>
-    </row>
-    <row r="123" spans="1:23" s="1" customFormat="1">
+    </row>
+    <row r="123" spans="1:21">
       <c r="A123" s="44"/>
       <c r="B123" s="44"/>
       <c r="C123" s="44"/>
@@ -4974,9 +4864,8 @@
       <c r="S123" s="44"/>
       <c r="T123" s="44"/>
       <c r="U123" s="45"/>
-      <c r="V123"/>
-    </row>
-    <row r="124" spans="1:23" s="1" customFormat="1">
+    </row>
+    <row r="124" spans="1:21">
       <c r="A124" s="44"/>
       <c r="B124" s="44"/>
       <c r="C124" s="44"/>
@@ -4998,9 +4887,8 @@
       <c r="S124" s="44"/>
       <c r="T124" s="44"/>
       <c r="U124" s="45"/>
-      <c r="V124"/>
-    </row>
-    <row r="125" spans="1:23" s="1" customFormat="1">
+    </row>
+    <row r="125" spans="1:21">
       <c r="A125" s="44"/>
       <c r="B125" s="44"/>
       <c r="C125" s="44"/>
@@ -5022,9 +4910,8 @@
       <c r="S125" s="44"/>
       <c r="T125" s="44"/>
       <c r="U125" s="45"/>
-      <c r="V125"/>
-    </row>
-    <row r="126" spans="1:23" s="1" customFormat="1">
+    </row>
+    <row r="126" spans="1:21">
       <c r="A126" s="44"/>
       <c r="B126" s="44"/>
       <c r="C126" s="44"/>
@@ -5046,9 +4933,8 @@
       <c r="S126" s="44"/>
       <c r="T126" s="44"/>
       <c r="U126" s="45"/>
-      <c r="V126"/>
-    </row>
-    <row r="127" spans="1:23" s="1" customFormat="1">
+    </row>
+    <row r="127" spans="1:21">
       <c r="A127" s="44"/>
       <c r="B127" s="44"/>
       <c r="C127" s="44"/>
@@ -5070,9 +4956,8 @@
       <c r="S127" s="44"/>
       <c r="T127" s="44"/>
       <c r="U127" s="45"/>
-      <c r="V127"/>
-    </row>
-    <row r="128" spans="1:23" s="1" customFormat="1">
+    </row>
+    <row r="128" spans="1:21">
       <c r="A128" s="44"/>
       <c r="B128" s="44"/>
       <c r="C128" s="44"/>
@@ -5094,9 +4979,8 @@
       <c r="S128" s="44"/>
       <c r="T128" s="44"/>
       <c r="U128" s="45"/>
-      <c r="V128"/>
-    </row>
-    <row r="129" spans="1:23" s="1" customFormat="1">
+    </row>
+    <row r="129" spans="1:21">
       <c r="A129" s="44"/>
       <c r="B129" s="44"/>
       <c r="C129" s="44"/>
@@ -5118,9 +5002,8 @@
       <c r="S129" s="44"/>
       <c r="T129" s="44"/>
       <c r="U129" s="45"/>
-      <c r="V129"/>
-    </row>
-    <row r="130" spans="1:23" s="1" customFormat="1">
+    </row>
+    <row r="130" spans="1:21">
       <c r="A130" s="44"/>
       <c r="B130" s="44"/>
       <c r="C130" s="44"/>
@@ -5142,9 +5025,8 @@
       <c r="S130" s="44"/>
       <c r="T130" s="44"/>
       <c r="U130" s="45"/>
-      <c r="V130"/>
-    </row>
-    <row r="131" spans="1:23" s="1" customFormat="1">
+    </row>
+    <row r="131" spans="1:21">
       <c r="A131" s="44"/>
       <c r="B131" s="44"/>
       <c r="C131" s="44"/>
@@ -5166,9 +5048,8 @@
       <c r="S131" s="44"/>
       <c r="T131" s="44"/>
       <c r="U131" s="45"/>
-      <c r="V131"/>
-    </row>
-    <row r="132" spans="1:23" s="1" customFormat="1">
+    </row>
+    <row r="132" spans="1:21">
       <c r="A132" s="44"/>
       <c r="B132" s="44"/>
       <c r="C132" s="44"/>
@@ -5190,9 +5071,8 @@
       <c r="S132" s="44"/>
       <c r="T132" s="44"/>
       <c r="U132" s="45"/>
-      <c r="V132"/>
-    </row>
-    <row r="133" spans="1:23" s="1" customFormat="1">
+    </row>
+    <row r="133" spans="1:21">
       <c r="A133" s="44"/>
       <c r="B133" s="44"/>
       <c r="C133" s="44"/>
@@ -5210,13 +5090,9 @@
       <c r="O133" s="44"/>
       <c r="P133" s="46"/>
       <c r="Q133" s="45"/>
-      <c r="R133" s="34"/>
-      <c r="S133" s="34"/>
-      <c r="T133" s="34"/>
       <c r="U133" s="45"/>
-      <c r="V133"/>
-    </row>
-    <row r="134" spans="1:23" s="1" customFormat="1">
+    </row>
+    <row r="134" spans="1:21">
       <c r="A134" s="44"/>
       <c r="B134" s="44"/>
       <c r="C134" s="44"/>
@@ -5234,13 +5110,9 @@
       <c r="O134" s="44"/>
       <c r="P134" s="46"/>
       <c r="Q134" s="45"/>
-      <c r="R134" s="34"/>
-      <c r="S134" s="34"/>
-      <c r="T134" s="34"/>
       <c r="U134" s="45"/>
-      <c r="V134"/>
-    </row>
-    <row r="135" spans="1:23" s="1" customFormat="1">
+    </row>
+    <row r="135" spans="1:21">
       <c r="A135" s="44"/>
       <c r="B135" s="44"/>
       <c r="C135" s="44"/>
@@ -5258,13 +5130,9 @@
       <c r="O135" s="44"/>
       <c r="P135" s="46"/>
       <c r="Q135" s="45"/>
-      <c r="R135" s="34"/>
-      <c r="S135" s="34"/>
-      <c r="T135" s="34"/>
       <c r="U135" s="45"/>
-      <c r="V135"/>
-    </row>
-    <row r="136" spans="1:23" s="1" customFormat="1">
+    </row>
+    <row r="136" spans="1:21">
       <c r="A136" s="44"/>
       <c r="B136" s="44"/>
       <c r="C136" s="44"/>
@@ -5282,13 +5150,9 @@
       <c r="O136" s="44"/>
       <c r="P136" s="46"/>
       <c r="Q136" s="45"/>
-      <c r="R136" s="34"/>
-      <c r="S136" s="34"/>
-      <c r="T136" s="34"/>
       <c r="U136" s="45"/>
-      <c r="V136"/>
-    </row>
-    <row r="137" spans="1:23" s="1" customFormat="1">
+    </row>
+    <row r="137" spans="1:21">
       <c r="A137" s="44"/>
       <c r="B137" s="44"/>
       <c r="C137" s="44"/>
@@ -5306,13 +5170,9 @@
       <c r="O137" s="44"/>
       <c r="P137" s="46"/>
       <c r="Q137" s="45"/>
-      <c r="R137" s="34"/>
-      <c r="S137" s="34"/>
-      <c r="T137" s="34"/>
       <c r="U137" s="45"/>
-      <c r="V137"/>
-    </row>
-    <row r="138" spans="1:23" s="1" customFormat="1">
+    </row>
+    <row r="138" spans="1:21">
       <c r="A138" s="44"/>
       <c r="B138" s="44"/>
       <c r="C138" s="44"/>
@@ -5330,13 +5190,9 @@
       <c r="O138" s="44"/>
       <c r="P138" s="46"/>
       <c r="Q138" s="45"/>
-      <c r="R138" s="34"/>
-      <c r="S138" s="34"/>
-      <c r="T138" s="34"/>
       <c r="U138" s="45"/>
-      <c r="V138"/>
-    </row>
-    <row r="139" spans="1:23" s="1" customFormat="1">
+    </row>
+    <row r="139" spans="1:21">
       <c r="A139" s="44"/>
       <c r="B139" s="44"/>
       <c r="C139" s="44"/>
@@ -5354,13 +5210,9 @@
       <c r="O139" s="44"/>
       <c r="P139" s="46"/>
       <c r="Q139" s="45"/>
-      <c r="R139" s="34"/>
-      <c r="S139" s="34"/>
-      <c r="T139" s="34"/>
       <c r="U139" s="45"/>
-      <c r="V139"/>
-    </row>
-    <row r="140" spans="1:23" s="1" customFormat="1">
+    </row>
+    <row r="140" spans="1:21">
       <c r="A140" s="44"/>
       <c r="B140" s="44"/>
       <c r="C140" s="44"/>
@@ -5378,13 +5230,9 @@
       <c r="O140" s="44"/>
       <c r="P140" s="46"/>
       <c r="Q140" s="45"/>
-      <c r="R140" s="34"/>
-      <c r="S140" s="34"/>
-      <c r="T140" s="34"/>
       <c r="U140" s="45"/>
-      <c r="V140"/>
-    </row>
-    <row r="141" spans="1:23" s="1" customFormat="1">
+    </row>
+    <row r="141" spans="1:21">
       <c r="A141" s="44"/>
       <c r="B141" s="44"/>
       <c r="C141" s="44"/>
@@ -5402,13 +5250,9 @@
       <c r="O141" s="44"/>
       <c r="P141" s="46"/>
       <c r="Q141" s="45"/>
-      <c r="R141" s="34"/>
-      <c r="S141" s="34"/>
-      <c r="T141" s="34"/>
       <c r="U141" s="45"/>
-      <c r="V141"/>
-    </row>
-    <row r="142" spans="1:23" s="1" customFormat="1">
+    </row>
+    <row r="142" spans="1:21">
       <c r="A142" s="44"/>
       <c r="B142" s="44"/>
       <c r="C142" s="44"/>
@@ -5426,13 +5270,9 @@
       <c r="O142" s="44"/>
       <c r="P142" s="46"/>
       <c r="Q142" s="45"/>
-      <c r="R142" s="34"/>
-      <c r="S142" s="34"/>
-      <c r="T142" s="34"/>
       <c r="U142" s="45"/>
-      <c r="V142"/>
-    </row>
-    <row r="143" spans="1:23" s="1" customFormat="1">
+    </row>
+    <row r="143" spans="1:21">
       <c r="A143" s="44"/>
       <c r="B143" s="44"/>
       <c r="C143" s="44"/>
@@ -5450,13 +5290,9 @@
       <c r="O143" s="44"/>
       <c r="P143" s="46"/>
       <c r="Q143" s="45"/>
-      <c r="R143" s="34"/>
-      <c r="S143" s="34"/>
-      <c r="T143" s="34"/>
       <c r="U143" s="45"/>
-      <c r="V143"/>
-    </row>
-    <row r="144" spans="1:23" s="1" customFormat="1">
+    </row>
+    <row r="144" spans="1:21">
       <c r="A144" s="44"/>
       <c r="B144" s="44"/>
       <c r="C144" s="44"/>
@@ -5474,13 +5310,9 @@
       <c r="O144" s="44"/>
       <c r="P144" s="46"/>
       <c r="Q144" s="45"/>
-      <c r="R144" s="34"/>
-      <c r="S144" s="34"/>
-      <c r="T144" s="34"/>
       <c r="U144" s="45"/>
-      <c r="V144"/>
-    </row>
-    <row r="145" spans="1:23" s="1" customFormat="1">
+    </row>
+    <row r="145" spans="1:21">
       <c r="A145" s="44"/>
       <c r="B145" s="44"/>
       <c r="C145" s="44"/>
@@ -5498,13 +5330,9 @@
       <c r="O145" s="44"/>
       <c r="P145" s="46"/>
       <c r="Q145" s="45"/>
-      <c r="R145" s="34"/>
-      <c r="S145" s="34"/>
-      <c r="T145" s="34"/>
       <c r="U145" s="45"/>
-      <c r="V145"/>
-    </row>
-    <row r="146" spans="1:23" s="1" customFormat="1">
+    </row>
+    <row r="146" spans="1:21">
       <c r="A146" s="44"/>
       <c r="B146" s="44"/>
       <c r="C146" s="44"/>
@@ -5522,13 +5350,9 @@
       <c r="O146" s="44"/>
       <c r="P146" s="46"/>
       <c r="Q146" s="45"/>
-      <c r="R146" s="34"/>
-      <c r="S146" s="34"/>
-      <c r="T146" s="34"/>
       <c r="U146" s="45"/>
-      <c r="V146"/>
-    </row>
-    <row r="147" spans="1:23" s="1" customFormat="1">
+    </row>
+    <row r="147" spans="1:21">
       <c r="A147" s="44"/>
       <c r="B147" s="44"/>
       <c r="C147" s="44"/>
@@ -5546,13 +5370,9 @@
       <c r="O147" s="44"/>
       <c r="P147" s="46"/>
       <c r="Q147" s="45"/>
-      <c r="R147" s="34"/>
-      <c r="S147" s="34"/>
-      <c r="T147" s="34"/>
       <c r="U147" s="45"/>
-      <c r="V147"/>
-    </row>
-    <row r="148" spans="1:23" s="1" customFormat="1">
+    </row>
+    <row r="148" spans="1:21">
       <c r="A148" s="44"/>
       <c r="B148" s="44"/>
       <c r="C148" s="44"/>
@@ -5570,13 +5390,9 @@
       <c r="O148" s="44"/>
       <c r="P148" s="46"/>
       <c r="Q148" s="45"/>
-      <c r="R148" s="34"/>
-      <c r="S148" s="34"/>
-      <c r="T148" s="34"/>
       <c r="U148" s="45"/>
-      <c r="V148"/>
-    </row>
-    <row r="149" spans="1:23" s="1" customFormat="1">
+    </row>
+    <row r="149" spans="1:21">
       <c r="A149" s="44"/>
       <c r="B149" s="44"/>
       <c r="C149" s="44"/>
@@ -5594,13 +5410,9 @@
       <c r="O149" s="44"/>
       <c r="P149" s="46"/>
       <c r="Q149" s="45"/>
-      <c r="R149" s="34"/>
-      <c r="S149" s="34"/>
-      <c r="T149" s="34"/>
       <c r="U149" s="45"/>
-      <c r="V149"/>
-    </row>
-    <row r="150" spans="1:23" s="1" customFormat="1">
+    </row>
+    <row r="150" spans="1:21">
       <c r="A150" s="44"/>
       <c r="B150" s="44"/>
       <c r="C150" s="44"/>
@@ -5618,13 +5430,9 @@
       <c r="O150" s="44"/>
       <c r="P150" s="46"/>
       <c r="Q150" s="45"/>
-      <c r="R150" s="34"/>
-      <c r="S150" s="34"/>
-      <c r="T150" s="34"/>
       <c r="U150" s="45"/>
-      <c r="V150"/>
-    </row>
-    <row r="151" spans="1:23" s="1" customFormat="1">
+    </row>
+    <row r="151" spans="1:21">
       <c r="A151" s="44"/>
       <c r="B151" s="44"/>
       <c r="C151" s="44"/>
@@ -5642,13 +5450,9 @@
       <c r="O151" s="44"/>
       <c r="P151" s="46"/>
       <c r="Q151" s="45"/>
-      <c r="R151" s="34"/>
-      <c r="S151" s="34"/>
-      <c r="T151" s="34"/>
       <c r="U151" s="45"/>
-      <c r="V151"/>
-    </row>
-    <row r="152" spans="1:23" s="1" customFormat="1">
+    </row>
+    <row r="152" spans="1:21">
       <c r="A152" s="44"/>
       <c r="B152" s="44"/>
       <c r="C152" s="44"/>
@@ -5666,13 +5470,9 @@
       <c r="O152" s="44"/>
       <c r="P152" s="46"/>
       <c r="Q152" s="45"/>
-      <c r="R152" s="34"/>
-      <c r="S152" s="34"/>
-      <c r="T152" s="34"/>
       <c r="U152" s="45"/>
-      <c r="V152"/>
-    </row>
-    <row r="153" spans="1:23" s="1" customFormat="1">
+    </row>
+    <row r="153" spans="1:21">
       <c r="A153" s="44"/>
       <c r="B153" s="44"/>
       <c r="C153" s="44"/>
@@ -5690,13 +5490,9 @@
       <c r="O153" s="44"/>
       <c r="P153" s="46"/>
       <c r="Q153" s="45"/>
-      <c r="R153" s="34"/>
-      <c r="S153" s="34"/>
-      <c r="T153" s="34"/>
       <c r="U153" s="45"/>
-      <c r="V153"/>
-    </row>
-    <row r="154" spans="1:23" s="1" customFormat="1">
+    </row>
+    <row r="154" spans="1:21">
       <c r="A154" s="44"/>
       <c r="B154" s="44"/>
       <c r="C154" s="44"/>
@@ -5714,13 +5510,9 @@
       <c r="O154" s="44"/>
       <c r="P154" s="46"/>
       <c r="Q154" s="45"/>
-      <c r="R154" s="34"/>
-      <c r="S154" s="34"/>
-      <c r="T154" s="34"/>
       <c r="U154" s="45"/>
-      <c r="V154"/>
-    </row>
-    <row r="155" spans="1:23" s="1" customFormat="1">
+    </row>
+    <row r="155" spans="1:21">
       <c r="A155" s="44"/>
       <c r="B155" s="44"/>
       <c r="C155" s="44"/>
@@ -5738,13 +5530,9 @@
       <c r="O155" s="44"/>
       <c r="P155" s="46"/>
       <c r="Q155" s="45"/>
-      <c r="R155" s="34"/>
-      <c r="S155" s="34"/>
-      <c r="T155" s="34"/>
       <c r="U155" s="45"/>
-      <c r="V155"/>
-    </row>
-    <row r="156" spans="1:23" s="1" customFormat="1">
+    </row>
+    <row r="156" spans="1:21">
       <c r="A156" s="44"/>
       <c r="B156" s="44"/>
       <c r="C156" s="44"/>
@@ -5762,13 +5550,9 @@
       <c r="O156" s="44"/>
       <c r="P156" s="46"/>
       <c r="Q156" s="45"/>
-      <c r="R156" s="34"/>
-      <c r="S156" s="34"/>
-      <c r="T156" s="34"/>
       <c r="U156" s="45"/>
-      <c r="V156"/>
-    </row>
-    <row r="157" spans="1:23" s="1" customFormat="1">
+    </row>
+    <row r="157" spans="1:21">
       <c r="A157" s="44"/>
       <c r="B157" s="44"/>
       <c r="C157" s="44"/>
@@ -5786,13 +5570,9 @@
       <c r="O157" s="44"/>
       <c r="P157" s="46"/>
       <c r="Q157" s="45"/>
-      <c r="R157" s="34"/>
-      <c r="S157" s="34"/>
-      <c r="T157" s="34"/>
       <c r="U157" s="45"/>
-      <c r="V157"/>
-    </row>
-    <row r="158" spans="1:23" s="1" customFormat="1">
+    </row>
+    <row r="158" spans="1:21">
       <c r="A158" s="44"/>
       <c r="B158" s="44"/>
       <c r="C158" s="44"/>
@@ -5810,13 +5590,9 @@
       <c r="O158" s="44"/>
       <c r="P158" s="46"/>
       <c r="Q158" s="45"/>
-      <c r="R158" s="34"/>
-      <c r="S158" s="34"/>
-      <c r="T158" s="34"/>
       <c r="U158" s="45"/>
-      <c r="V158"/>
-    </row>
-    <row r="159" spans="1:23" s="1" customFormat="1">
+    </row>
+    <row r="159" spans="1:21">
       <c r="A159" s="44"/>
       <c r="B159" s="44"/>
       <c r="C159" s="44"/>
@@ -5834,13 +5610,9 @@
       <c r="O159" s="44"/>
       <c r="P159" s="46"/>
       <c r="Q159" s="45"/>
-      <c r="R159" s="34"/>
-      <c r="S159" s="34"/>
-      <c r="T159" s="34"/>
       <c r="U159" s="45"/>
-      <c r="V159"/>
-    </row>
-    <row r="160" spans="1:23" s="1" customFormat="1">
+    </row>
+    <row r="160" spans="1:21">
       <c r="A160" s="44"/>
       <c r="B160" s="44"/>
       <c r="C160" s="44"/>
@@ -5858,13 +5630,9 @@
       <c r="O160" s="44"/>
       <c r="P160" s="46"/>
       <c r="Q160" s="45"/>
-      <c r="R160" s="34"/>
-      <c r="S160" s="34"/>
-      <c r="T160" s="34"/>
       <c r="U160" s="45"/>
-      <c r="V160"/>
-    </row>
-    <row r="161" spans="1:23" s="1" customFormat="1">
+    </row>
+    <row r="161" spans="1:21">
       <c r="A161" s="44"/>
       <c r="B161" s="44"/>
       <c r="C161" s="44"/>
@@ -5882,13 +5650,9 @@
       <c r="O161" s="44"/>
       <c r="P161" s="46"/>
       <c r="Q161" s="45"/>
-      <c r="R161" s="34"/>
-      <c r="S161" s="34"/>
-      <c r="T161" s="34"/>
       <c r="U161" s="45"/>
-      <c r="V161"/>
-    </row>
-    <row r="162" spans="1:23" s="1" customFormat="1">
+    </row>
+    <row r="162" spans="1:21">
       <c r="A162" s="44"/>
       <c r="B162" s="44"/>
       <c r="C162" s="44"/>
@@ -5906,13 +5670,9 @@
       <c r="O162" s="44"/>
       <c r="P162" s="46"/>
       <c r="Q162" s="45"/>
-      <c r="R162" s="34"/>
-      <c r="S162" s="34"/>
-      <c r="T162" s="34"/>
       <c r="U162" s="45"/>
-      <c r="V162"/>
-    </row>
-    <row r="163" spans="1:23" s="1" customFormat="1">
+    </row>
+    <row r="163" spans="1:21">
       <c r="A163" s="44"/>
       <c r="B163" s="44"/>
       <c r="C163" s="44"/>
@@ -5930,13 +5690,9 @@
       <c r="O163" s="44"/>
       <c r="P163" s="46"/>
       <c r="Q163" s="45"/>
-      <c r="R163" s="34"/>
-      <c r="S163" s="34"/>
-      <c r="T163" s="34"/>
       <c r="U163" s="45"/>
-      <c r="V163"/>
-    </row>
-    <row r="164" spans="1:23" s="1" customFormat="1">
+    </row>
+    <row r="164" spans="1:21">
       <c r="A164" s="44"/>
       <c r="B164" s="44"/>
       <c r="C164" s="44"/>
@@ -5954,13 +5710,9 @@
       <c r="O164" s="44"/>
       <c r="P164" s="46"/>
       <c r="Q164" s="45"/>
-      <c r="R164" s="34"/>
-      <c r="S164" s="34"/>
-      <c r="T164" s="34"/>
       <c r="U164" s="45"/>
-      <c r="V164"/>
-    </row>
-    <row r="165" spans="1:23" s="1" customFormat="1">
+    </row>
+    <row r="165" spans="1:21">
       <c r="A165" s="44"/>
       <c r="B165" s="44"/>
       <c r="C165" s="44"/>
@@ -5978,13 +5730,9 @@
       <c r="O165" s="44"/>
       <c r="P165" s="46"/>
       <c r="Q165" s="45"/>
-      <c r="R165" s="34"/>
-      <c r="S165" s="34"/>
-      <c r="T165" s="34"/>
       <c r="U165" s="45"/>
-      <c r="V165"/>
-    </row>
-    <row r="166" spans="1:23" s="1" customFormat="1">
+    </row>
+    <row r="166" spans="1:21">
       <c r="A166" s="44"/>
       <c r="B166" s="44"/>
       <c r="C166" s="44"/>
@@ -6002,13 +5750,9 @@
       <c r="O166" s="44"/>
       <c r="P166" s="46"/>
       <c r="Q166" s="45"/>
-      <c r="R166" s="34"/>
-      <c r="S166" s="34"/>
-      <c r="T166" s="34"/>
       <c r="U166" s="45"/>
-      <c r="V166"/>
-    </row>
-    <row r="167" spans="1:23" s="1" customFormat="1">
+    </row>
+    <row r="167" spans="1:21">
       <c r="A167" s="44"/>
       <c r="B167" s="44"/>
       <c r="C167" s="44"/>
@@ -6026,35 +5770,7 @@
       <c r="O167" s="44"/>
       <c r="P167" s="46"/>
       <c r="Q167" s="45"/>
-      <c r="R167" s="34"/>
-      <c r="S167" s="34"/>
-      <c r="T167" s="34"/>
       <c r="U167" s="45"/>
-      <c r="V167"/>
-    </row>
-    <row r="168" spans="1:23" s="1" customFormat="1">
-      <c r="A168" s="32"/>
-      <c r="B168" s="32"/>
-      <c r="C168" s="32"/>
-      <c r="D168" s="33"/>
-      <c r="E168" s="32"/>
-      <c r="F168" s="32"/>
-      <c r="G168" s="32"/>
-      <c r="H168" s="33"/>
-      <c r="I168" s="32"/>
-      <c r="J168" s="33"/>
-      <c r="K168" s="33"/>
-      <c r="L168" s="32"/>
-      <c r="M168" s="32"/>
-      <c r="N168" s="32"/>
-      <c r="O168" s="33"/>
-      <c r="P168" s="33"/>
-      <c r="Q168" s="33"/>
-      <c r="R168" s="34"/>
-      <c r="S168" s="34"/>
-      <c r="T168" s="34"/>
-      <c r="U168" s="33"/>
-      <c r="V168"/>
     </row>
   </sheetData>
   <phoneticPr fontId="15" type="noConversion"/>
@@ -6098,7 +5814,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+    <sheetView topLeftCell="K1" workbookViewId="0">
       <selection activeCell="Q3" sqref="Q3"/>
     </sheetView>
   </sheetViews>
@@ -6205,7 +5921,7 @@
         <v>71</v>
       </c>
       <c r="J2" s="109" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K2" s="70" t="s">
         <v>72</v>
@@ -6242,13 +5958,13 @@
         <v>85</v>
       </c>
       <c r="E3" s="104" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F3" s="106" t="s">
         <v>87</v>
       </c>
-      <c r="G3" s="128" t="s">
-        <v>113</v>
+      <c r="G3" s="119" t="s">
+        <v>112</v>
       </c>
       <c r="H3" s="108" t="s">
         <v>70</v>
@@ -6257,20 +5973,20 @@
         <v>71</v>
       </c>
       <c r="J3" s="109" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K3" s="70"/>
       <c r="L3" s="69" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="M3" s="109" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="N3" s="109" t="s">
         <v>73</v>
       </c>
       <c r="O3" s="110" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="P3" s="111" t="s">
         <v>71</v>
@@ -6333,19 +6049,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="20.25">
-      <c r="A1" s="119" t="s">
+      <c r="A1" s="120" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="120"/>
-      <c r="C1" s="120"/>
-      <c r="D1" s="120"/>
-      <c r="E1" s="120"/>
-      <c r="F1" s="120"/>
-      <c r="G1" s="120"/>
-      <c r="H1" s="120"/>
-      <c r="I1" s="120"/>
-      <c r="J1" s="120"/>
-      <c r="K1" s="120"/>
+      <c r="B1" s="121"/>
+      <c r="C1" s="121"/>
+      <c r="D1" s="121"/>
+      <c r="E1" s="121"/>
+      <c r="F1" s="121"/>
+      <c r="G1" s="121"/>
+      <c r="H1" s="121"/>
+      <c r="I1" s="121"/>
+      <c r="J1" s="121"/>
+      <c r="K1" s="121"/>
     </row>
     <row r="2" spans="1:11" ht="17.25">
       <c r="A2" s="18" t="s">
@@ -6383,8 +6099,8 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="17.25">
-      <c r="A3" s="121"/>
-      <c r="B3" s="121"/>
+      <c r="A3" s="122"/>
+      <c r="B3" s="122"/>
       <c r="C3" s="20"/>
       <c r="D3" s="21"/>
       <c r="E3" s="21"/>
@@ -6396,8 +6112,8 @@
       <c r="K3" s="28"/>
     </row>
     <row r="4" spans="1:11" ht="17.25">
-      <c r="A4" s="122"/>
-      <c r="B4" s="123"/>
+      <c r="A4" s="123"/>
+      <c r="B4" s="124"/>
       <c r="C4" s="20"/>
       <c r="D4" s="21"/>
       <c r="E4" s="21"/>
@@ -6409,8 +6125,8 @@
       <c r="K4" s="28"/>
     </row>
     <row r="5" spans="1:11" ht="17.25">
-      <c r="A5" s="121"/>
-      <c r="B5" s="121"/>
+      <c r="A5" s="122"/>
+      <c r="B5" s="122"/>
       <c r="C5" s="20"/>
       <c r="D5" s="21"/>
       <c r="E5" s="21"/>
@@ -6422,8 +6138,8 @@
       <c r="K5" s="28"/>
     </row>
     <row r="6" spans="1:11" ht="17.25">
-      <c r="A6" s="123"/>
-      <c r="B6" s="123"/>
+      <c r="A6" s="124"/>
+      <c r="B6" s="124"/>
       <c r="C6" s="20"/>
       <c r="D6" s="21"/>
       <c r="E6" s="21"/>
@@ -6435,8 +6151,8 @@
       <c r="K6" s="28"/>
     </row>
     <row r="7" spans="1:11" ht="17.25">
-      <c r="A7" s="123"/>
-      <c r="B7" s="123"/>
+      <c r="A7" s="124"/>
+      <c r="B7" s="124"/>
       <c r="C7" s="20"/>
       <c r="D7" s="21"/>
       <c r="E7" s="21"/>
@@ -6448,8 +6164,8 @@
       <c r="K7" s="28"/>
     </row>
     <row r="8" spans="1:11" ht="17.25">
-      <c r="A8" s="123"/>
-      <c r="B8" s="123"/>
+      <c r="A8" s="124"/>
+      <c r="B8" s="124"/>
       <c r="C8" s="20"/>
       <c r="D8" s="21"/>
       <c r="E8" s="21"/>
@@ -6461,8 +6177,8 @@
       <c r="K8" s="28"/>
     </row>
     <row r="9" spans="1:11" ht="17.25">
-      <c r="A9" s="123"/>
-      <c r="B9" s="123"/>
+      <c r="A9" s="124"/>
+      <c r="B9" s="124"/>
       <c r="C9" s="20"/>
       <c r="D9" s="21"/>
       <c r="E9" s="21"/>
@@ -6474,8 +6190,8 @@
       <c r="K9" s="28"/>
     </row>
     <row r="10" spans="1:11" ht="17.25">
-      <c r="A10" s="122"/>
-      <c r="B10" s="122"/>
+      <c r="A10" s="123"/>
+      <c r="B10" s="123"/>
       <c r="C10" s="20"/>
       <c r="D10" s="21"/>
       <c r="E10" s="21"/>
@@ -6541,36 +6257,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="124" t="s">
+      <c r="A1" s="125" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="124"/>
-      <c r="C1" s="124"/>
-      <c r="D1" s="124"/>
-      <c r="E1" s="124"/>
-      <c r="F1" s="124"/>
-      <c r="G1" s="124"/>
-      <c r="H1" s="124"/>
-      <c r="I1" s="124"/>
-      <c r="J1" s="124"/>
-      <c r="K1" s="124"/>
-      <c r="L1" s="124"/>
-      <c r="M1" s="125"/>
+      <c r="B1" s="125"/>
+      <c r="C1" s="125"/>
+      <c r="D1" s="125"/>
+      <c r="E1" s="125"/>
+      <c r="F1" s="125"/>
+      <c r="G1" s="125"/>
+      <c r="H1" s="125"/>
+      <c r="I1" s="125"/>
+      <c r="J1" s="125"/>
+      <c r="K1" s="125"/>
+      <c r="L1" s="125"/>
+      <c r="M1" s="126"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="126"/>
-      <c r="B2" s="126"/>
-      <c r="C2" s="126"/>
-      <c r="D2" s="126"/>
-      <c r="E2" s="126"/>
-      <c r="F2" s="126"/>
-      <c r="G2" s="126"/>
-      <c r="H2" s="126"/>
-      <c r="I2" s="126"/>
-      <c r="J2" s="126"/>
-      <c r="K2" s="126"/>
-      <c r="L2" s="126"/>
-      <c r="M2" s="127"/>
+      <c r="A2" s="127"/>
+      <c r="B2" s="127"/>
+      <c r="C2" s="127"/>
+      <c r="D2" s="127"/>
+      <c r="E2" s="127"/>
+      <c r="F2" s="127"/>
+      <c r="G2" s="127"/>
+      <c r="H2" s="127"/>
+      <c r="I2" s="127"/>
+      <c r="J2" s="127"/>
+      <c r="K2" s="127"/>
+      <c r="L2" s="127"/>
+      <c r="M2" s="128"/>
     </row>
     <row r="3" spans="1:13" ht="16.5">
       <c r="A3" s="8" t="s">
@@ -6860,36 +6576,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="124" t="s">
+      <c r="A1" s="125" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="124"/>
-      <c r="C1" s="124"/>
-      <c r="D1" s="124"/>
-      <c r="E1" s="124"/>
-      <c r="F1" s="124"/>
-      <c r="G1" s="124"/>
-      <c r="H1" s="124"/>
-      <c r="I1" s="124"/>
-      <c r="J1" s="124"/>
-      <c r="K1" s="124"/>
-      <c r="L1" s="124"/>
-      <c r="M1" s="125"/>
+      <c r="B1" s="125"/>
+      <c r="C1" s="125"/>
+      <c r="D1" s="125"/>
+      <c r="E1" s="125"/>
+      <c r="F1" s="125"/>
+      <c r="G1" s="125"/>
+      <c r="H1" s="125"/>
+      <c r="I1" s="125"/>
+      <c r="J1" s="125"/>
+      <c r="K1" s="125"/>
+      <c r="L1" s="125"/>
+      <c r="M1" s="126"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="126"/>
-      <c r="B2" s="126"/>
-      <c r="C2" s="126"/>
-      <c r="D2" s="126"/>
-      <c r="E2" s="126"/>
-      <c r="F2" s="126"/>
-      <c r="G2" s="126"/>
-      <c r="H2" s="126"/>
-      <c r="I2" s="126"/>
-      <c r="J2" s="126"/>
-      <c r="K2" s="126"/>
-      <c r="L2" s="126"/>
-      <c r="M2" s="127"/>
+      <c r="A2" s="127"/>
+      <c r="B2" s="127"/>
+      <c r="C2" s="127"/>
+      <c r="D2" s="127"/>
+      <c r="E2" s="127"/>
+      <c r="F2" s="127"/>
+      <c r="G2" s="127"/>
+      <c r="H2" s="127"/>
+      <c r="I2" s="127"/>
+      <c r="J2" s="127"/>
+      <c r="K2" s="127"/>
+      <c r="L2" s="127"/>
+      <c r="M2" s="128"/>
     </row>
     <row r="3" spans="1:13" ht="16.5">
       <c r="A3" s="8" t="s">
@@ -7179,36 +6895,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="124" t="s">
+      <c r="A1" s="125" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="124"/>
-      <c r="C1" s="124"/>
-      <c r="D1" s="124"/>
-      <c r="E1" s="124"/>
-      <c r="F1" s="124"/>
-      <c r="G1" s="124"/>
-      <c r="H1" s="124"/>
-      <c r="I1" s="124"/>
-      <c r="J1" s="124"/>
-      <c r="K1" s="124"/>
-      <c r="L1" s="124"/>
-      <c r="M1" s="125"/>
+      <c r="B1" s="125"/>
+      <c r="C1" s="125"/>
+      <c r="D1" s="125"/>
+      <c r="E1" s="125"/>
+      <c r="F1" s="125"/>
+      <c r="G1" s="125"/>
+      <c r="H1" s="125"/>
+      <c r="I1" s="125"/>
+      <c r="J1" s="125"/>
+      <c r="K1" s="125"/>
+      <c r="L1" s="125"/>
+      <c r="M1" s="126"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="126"/>
-      <c r="B2" s="126"/>
-      <c r="C2" s="126"/>
-      <c r="D2" s="126"/>
-      <c r="E2" s="126"/>
-      <c r="F2" s="126"/>
-      <c r="G2" s="126"/>
-      <c r="H2" s="126"/>
-      <c r="I2" s="126"/>
-      <c r="J2" s="126"/>
-      <c r="K2" s="126"/>
-      <c r="L2" s="126"/>
-      <c r="M2" s="127"/>
+      <c r="A2" s="127"/>
+      <c r="B2" s="127"/>
+      <c r="C2" s="127"/>
+      <c r="D2" s="127"/>
+      <c r="E2" s="127"/>
+      <c r="F2" s="127"/>
+      <c r="G2" s="127"/>
+      <c r="H2" s="127"/>
+      <c r="I2" s="127"/>
+      <c r="J2" s="127"/>
+      <c r="K2" s="127"/>
+      <c r="L2" s="127"/>
+      <c r="M2" s="128"/>
     </row>
     <row r="3" spans="1:13" ht="16.5">
       <c r="A3" s="8" t="s">
@@ -7500,36 +7216,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="124" t="s">
+      <c r="A1" s="125" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="124"/>
-      <c r="C1" s="124"/>
-      <c r="D1" s="124"/>
-      <c r="E1" s="124"/>
-      <c r="F1" s="124"/>
-      <c r="G1" s="124"/>
-      <c r="H1" s="124"/>
-      <c r="I1" s="124"/>
-      <c r="J1" s="124"/>
-      <c r="K1" s="124"/>
-      <c r="L1" s="124"/>
-      <c r="M1" s="125"/>
+      <c r="B1" s="125"/>
+      <c r="C1" s="125"/>
+      <c r="D1" s="125"/>
+      <c r="E1" s="125"/>
+      <c r="F1" s="125"/>
+      <c r="G1" s="125"/>
+      <c r="H1" s="125"/>
+      <c r="I1" s="125"/>
+      <c r="J1" s="125"/>
+      <c r="K1" s="125"/>
+      <c r="L1" s="125"/>
+      <c r="M1" s="126"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="126"/>
-      <c r="B2" s="126"/>
-      <c r="C2" s="126"/>
-      <c r="D2" s="126"/>
-      <c r="E2" s="126"/>
-      <c r="F2" s="126"/>
-      <c r="G2" s="126"/>
-      <c r="H2" s="126"/>
-      <c r="I2" s="126"/>
-      <c r="J2" s="126"/>
-      <c r="K2" s="126"/>
-      <c r="L2" s="126"/>
-      <c r="M2" s="127"/>
+      <c r="A2" s="127"/>
+      <c r="B2" s="127"/>
+      <c r="C2" s="127"/>
+      <c r="D2" s="127"/>
+      <c r="E2" s="127"/>
+      <c r="F2" s="127"/>
+      <c r="G2" s="127"/>
+      <c r="H2" s="127"/>
+      <c r="I2" s="127"/>
+      <c r="J2" s="127"/>
+      <c r="K2" s="127"/>
+      <c r="L2" s="127"/>
+      <c r="M2" s="128"/>
     </row>
     <row r="3" spans="1:13" ht="16.5">
       <c r="A3" s="8" t="s">

--- a/VersionRecords/Version 5.2.10 20170209/版本Bug和特性计划及评审表v5.2.10_架构组.xlsx
+++ b/VersionRecords/Version 5.2.10 20170209/版本Bug和特性计划及评审表v5.2.10_架构组.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21750" windowHeight="6600" tabRatio="813"/>
@@ -24,7 +24,7 @@
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="6" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="125725"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -440,9 +440,6 @@
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
-    <t>http://192.168.60.204/browse/FRAME-128</t>
-  </si>
-  <si>
     <t>短信到达率报告</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
@@ -485,11 +482,14 @@
     <t>payapi</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
+  <si>
+    <t>FRAME-128</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fonts count="37">
     <font>
       <sz val="11"/>
@@ -1036,7 +1036,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="129">
+  <cellXfs count="130">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1423,6 +1423,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="11" xfId="29" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="30">
@@ -1824,11 +1827,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:W167"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="S2" sqref="S2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1975,8 +1978,8 @@
         <v>82</v>
       </c>
       <c r="R2" s="93"/>
-      <c r="S2" s="93" t="s">
-        <v>110</v>
+      <c r="S2" s="129" t="s">
+        <v>118</v>
       </c>
       <c r="T2" s="93" t="s">
         <v>71</v>
@@ -2107,7 +2110,7 @@
         <v>108</v>
       </c>
       <c r="F5" s="81" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G5" s="81" t="s">
         <v>69</v>
@@ -5799,6 +5802,7 @@
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="S4" r:id="rId1" display="http://192.168.60.204/browse/TOPT-725"/>
+    <hyperlink ref="S2" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
@@ -5811,7 +5815,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R4"/>
   <sheetViews>
     <sheetView topLeftCell="K1" workbookViewId="0">
@@ -5921,7 +5925,7 @@
         <v>71</v>
       </c>
       <c r="J2" s="109" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K2" s="70" t="s">
         <v>72</v>
@@ -5958,13 +5962,13 @@
         <v>85</v>
       </c>
       <c r="E3" s="104" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F3" s="106" t="s">
         <v>87</v>
       </c>
       <c r="G3" s="119" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H3" s="108" t="s">
         <v>70</v>
@@ -5973,20 +5977,20 @@
         <v>71</v>
       </c>
       <c r="J3" s="109" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K3" s="70"/>
       <c r="L3" s="69" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="M3" s="109" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="N3" s="109" t="s">
         <v>73</v>
       </c>
       <c r="O3" s="110" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="P3" s="111" t="s">
         <v>71</v>
@@ -6029,7 +6033,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6234,7 +6238,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6553,7 +6557,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6872,7 +6876,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7191,7 +7195,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7512,7 +7516,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
